--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF14F9-577E-4A1A-9729-BFE8D59806F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC642711-57B3-48AA-BC7B-F4E0B5966FB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS_first!$A$4:$O$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">WBS_first!$4:$4</definedName>
     <definedName name="System_Code">WBS_first!$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="220">
   <si>
     <t>No</t>
   </si>
@@ -78,9 +79,6 @@
     <t>SPP</t>
   </si>
   <si>
-    <t>システム計画</t>
-  </si>
-  <si>
     <t>Sakai</t>
   </si>
   <si>
@@ -126,12 +124,6 @@
     <t>Item JA</t>
   </si>
   <si>
-    <t>サービス仮説</t>
-  </si>
-  <si>
-    <t>サービス仮説の検証結果</t>
-  </si>
-  <si>
     <t>システム化計画</t>
   </si>
   <si>
@@ -300,21 +292,9 @@
     <t>ユースケース分析</t>
   </si>
   <si>
-    <t>PC操作データを取得する（タッチ数）</t>
-  </si>
-  <si>
     <t>活動データを取得する（歩数、睡眠量）</t>
   </si>
   <si>
-    <t>位置データを取得する（場所、移動）</t>
-  </si>
-  <si>
-    <t>位置データ（詳細）を取得する</t>
-  </si>
-  <si>
-    <t>活動データ（集中度）を取得する</t>
-  </si>
-  <si>
     <t>UC-01</t>
   </si>
   <si>
@@ -471,9 +451,6 @@
     <t>Prototyping</t>
   </si>
   <si>
-    <t>SCRUM</t>
-  </si>
-  <si>
     <t>Scrum Phase 1</t>
   </si>
   <si>
@@ -501,9 +478,6 @@
     <t>未◇</t>
   </si>
   <si>
-    <t>◇◇</t>
-  </si>
-  <si>
     <t>Make decition for MVP</t>
   </si>
   <si>
@@ -558,33 +532,6 @@
     <t>3.5 活動データ（歩数、等）をクラウドに蓄積する （クラウド側）</t>
   </si>
   <si>
-    <t>4.1 活動データを取得する（集中度）（センサー側)</t>
-  </si>
-  <si>
-    <t>4.2 活動データ（集中度）をダウンロードする （クライアント側）</t>
-  </si>
-  <si>
-    <t>4.3 活動データ（集中度）を加工する（エッジ側）</t>
-  </si>
-  <si>
-    <t>4.4 活動データ（集中度）をクラウドに連携する （エッジ側）</t>
-  </si>
-  <si>
-    <t>4.5 活動データ（集中度）をクラウドに蓄積する （クラウド側）</t>
-  </si>
-  <si>
-    <t>5.1 操作データを取得する（センサー側)</t>
-  </si>
-  <si>
-    <t>5.2 操作データを加工する（エッジ側）</t>
-  </si>
-  <si>
-    <t>5.3 操作データをクラウドに連携する （エッジ側）</t>
-  </si>
-  <si>
-    <t>5.4 操作データをクラウドに蓄積する（クラウド側）</t>
-  </si>
-  <si>
     <t>6.1 働きEvent（イベント履歴）を１０時間分、 グラフ表示する</t>
   </si>
   <si>
@@ -634,6 +581,123 @@
   </si>
   <si>
     <t>PBL</t>
+  </si>
+  <si>
+    <t>SCRUM-itr1</t>
+  </si>
+  <si>
+    <t>Customer Development</t>
+  </si>
+  <si>
+    <t>顧客開発</t>
+  </si>
+  <si>
+    <t>Service Prototyping</t>
+  </si>
+  <si>
+    <t>サービス・プロトタイピング（Paper Prototying)</t>
+  </si>
+  <si>
+    <t>EA interview 1</t>
+  </si>
+  <si>
+    <t>EA interview 2</t>
+  </si>
+  <si>
+    <t>EA interview 3</t>
+  </si>
+  <si>
+    <t>EA interview 4</t>
+  </si>
+  <si>
+    <t>EA interview 5</t>
+  </si>
+  <si>
+    <t>EA interview 6</t>
+  </si>
+  <si>
+    <t>OTさん</t>
+  </si>
+  <si>
+    <t>YSさん</t>
+  </si>
+  <si>
+    <t>KSさん</t>
+  </si>
+  <si>
+    <t>KJさん</t>
+  </si>
+  <si>
+    <t>Xさん</t>
+  </si>
+  <si>
+    <t>Yさん</t>
+  </si>
+  <si>
+    <t>CUSTD</t>
+  </si>
+  <si>
+    <t>CUST_IV</t>
+  </si>
+  <si>
+    <t>サービス提案（仮説）</t>
+  </si>
+  <si>
+    <t>サービス提案（仮説）の検証結果</t>
+  </si>
+  <si>
+    <t>精神データ（集中度）を取得する</t>
+  </si>
+  <si>
+    <t>4.1 詳細活動データを取得する（センサー側)</t>
+  </si>
+  <si>
+    <t>4.2 詳細活動データを加工する（エッジ側）</t>
+  </si>
+  <si>
+    <t>4.3 詳細活動データをクラウドに連携する （エッジ側）</t>
+  </si>
+  <si>
+    <t>4.4 詳細活動データをクラウドに蓄積する （クラウド側）</t>
+  </si>
+  <si>
+    <t>5.1 精神データを取得する（集中度）（センサー側)</t>
+  </si>
+  <si>
+    <t>5.2 精神データ（集中度）をダウンロードする （クライアント側）</t>
+  </si>
+  <si>
+    <t>5.3 精神データ（集中度）を加工する（エッジ側）</t>
+  </si>
+  <si>
+    <t>5.4 精神データ（集中度）をクラウドに連携する （エッジ側）</t>
+  </si>
+  <si>
+    <t>5.5 精神データ（集中度）をクラウドに蓄積する （クラウド側）</t>
+  </si>
+  <si>
+    <t>GPS位置データを取得する（場所、移動）</t>
+  </si>
+  <si>
+    <t>詳細位置データを取得する</t>
+  </si>
+  <si>
+    <t>詳細活動データを取得する（タッチ数）</t>
+  </si>
+  <si>
+    <t>PoC</t>
+  </si>
+  <si>
+    <t>Proof of Concecpt</t>
+  </si>
+  <si>
+    <t>◆◆</t>
+  </si>
+  <si>
+    <t>データ設計</t>
+  </si>
+  <si>
+    <t>着◇</t>
   </si>
 </sst>
 </file>
@@ -1115,13 +1179,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4B59AE-B516-402C-BE2E-08C2A67C9968}">
-  <dimension ref="A1:O86"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1131,7 +1198,7 @@
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="22.625" customWidth="1"/>
@@ -1141,29 +1208,29 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C1" s="11"/>
       <c r="J1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="9"/>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O2" s="12">
-        <v>43683</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1191,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>6</v>
@@ -1203,13 +1270,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>8</v>
@@ -1220,8 +1287,8 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <f>ROW()-3</f>
-        <v>2</v>
+        <f>ROW()-4</f>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1233,10 +1300,10 @@
         <v>01</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -1251,8 +1318,8 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <f>ROW()-3</f>
-        <v>3</v>
+        <f t="shared" ref="A6:A7" si="0">ROW()-4</f>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1262,14 +1329,14 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="str">
-        <f t="shared" ref="E6:E18" si="0">TEXT(B6,"00")&amp;IF(C6="","","-"&amp;TEXT(C6,"00"))&amp;IF(D6="","","-"&amp;TEXT(D6,"00"))</f>
+        <f t="shared" ref="E6:E7" si="1">TEXT(B6,"00")&amp;IF(C6="","","-"&amp;TEXT(C6,"00"))&amp;IF(D6="","","-"&amp;TEXT(D6,"00"))</f>
         <v>01-01</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
@@ -1278,16 +1345,16 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IF(I6="↑","",IF(I6="-","",System_Code&amp;"_"&amp;H6&amp;IF(L6="-","","_"&amp;L6)))</f>
+        <f t="shared" ref="M6:M7" si="2">IF(I6="↑","",IF(I6="-","",System_Code&amp;"_"&amp;H6&amp;IF(L6="-","","_"&amp;L6)))</f>
         <v>SSE19_SPP_PROP</v>
       </c>
       <c r="N6" s="1"/>
@@ -1295,8 +1362,8 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:A85" si="1">ROW()-3</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1306,14 +1373,14 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>01-02</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -1322,16 +1389,16 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IF(I7="↑","",IF(I7="-","",System_Code&amp;"_"&amp;H7&amp;IF(L7="-","","_"&amp;L7)))</f>
+        <f t="shared" si="2"/>
         <v>SSE19_SPP_PROP_VALD</v>
       </c>
       <c r="N7" s="1"/>
@@ -1339,157 +1406,144 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>ROW()-4</f>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-03</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="E8" s="6" t="str">
+        <f>TEXT(B8,"00")&amp;IF(C8="","","-"&amp;TEXT(C8,"00"))&amp;IF(D8="","",TEXT(D8,"00"))</f>
+        <v>02</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4">
-        <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="1" t="str">
-        <f>IF(I8="↑","",IF(I8="-","",System_Code&amp;"_"&amp;H8&amp;IF(L8="-","","_"&amp;L8)))</f>
-        <v>SSE19_SPP</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" ref="A9:A73" si="3">ROW()-4</f>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-04</v>
+        <f t="shared" ref="E9:E21" si="4">TEXT(B9,"00")&amp;IF(C9="","","-"&amp;TEXT(C9,"00"))&amp;IF(D9="","","-"&amp;TEXT(D9,"00"))</f>
+        <v>02-01</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IF(I9="↑","",IF(I9="-","",System_Code&amp;"_"&amp;H9&amp;IF(L9="-","","_"&amp;L9)))</f>
-        <v>SSE19_SPP_WBS</v>
+        <f t="shared" ref="M9:M21" si="5">IF(I9="↑","",IF(I9="-","",System_Code&amp;"_"&amp;H9&amp;IF(L9="-","","_"&amp;L9)))</f>
+        <v>SSE19_SPP_PROP</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-05</v>
+        <f t="shared" si="4"/>
+        <v>02-02</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f>IF(I10="↑","",IF(I10="-","",System_Code&amp;"_"&amp;H10&amp;IF(L10="-","","_"&amp;L10)))</f>
-        <v>SSE19_SPP_OV</v>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_PROP_VALD</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-06</v>
+        <f t="shared" si="4"/>
+        <v>02-03</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -1498,236 +1552,234 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IF(I11="↑","",IF(I11="-","",System_Code&amp;"_"&amp;H11&amp;IF(L11="-","","_"&amp;L11)))</f>
-        <v>SSE19_SPP_MSP</v>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-07</v>
+        <f t="shared" si="4"/>
+        <v>02-04</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IF(I12="↑","",IF(I12="-","",System_Code&amp;"_"&amp;H12&amp;IF(L12="-","","_"&amp;L12)))</f>
-        <v>SSE19_SPP_MILESTONE</v>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_WBS</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="str">
-        <f t="shared" ref="E13" si="2">TEXT(B13,"00")&amp;IF(C13="","","-"&amp;TEXT(C13,"00"))&amp;IF(D13="","","-"&amp;TEXT(D13,"00"))</f>
-        <v>01-08</v>
+        <f t="shared" si="4"/>
+        <v>02-05</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
+      <c r="I13" s="4">
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IF(I13="↑","",IF(I13="-","",System_Code&amp;"_"&amp;H13&amp;IF(L13="-","","_"&amp;L13)))</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_OV</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-08-01</v>
+        <f t="shared" si="4"/>
+        <v>02-06</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>IF(I14="↑","",IF(I14="-","",System_Code&amp;"_"&amp;H14&amp;IF(L14="-","","_"&amp;L14)))</f>
-        <v>SSE19_SPP_QCP</v>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_MSP</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-08-02</v>
+        <f t="shared" si="4"/>
+        <v>02-07</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>24</v>
+      <c r="I15" s="4">
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>IF(I15="↑","",IF(I15="-","",System_Code&amp;"_"&amp;H15&amp;IF(L15="-","","_"&amp;L15)))</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_MILESTONE</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-08-03</v>
+        <f t="shared" ref="E16" si="6">TEXT(B16,"00")&amp;IF(C16="","","-"&amp;TEXT(C16,"00"))&amp;IF(D16="","","-"&amp;TEXT(D16,"00"))</f>
+        <v>02-08</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f>IF(I16="↑","",IF(I16="-","",System_Code&amp;"_"&amp;H16&amp;IF(L16="-","","_"&amp;L16)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N16" s="1"/>
@@ -1735,342 +1787,344 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-08-04</v>
+        <f t="shared" si="4"/>
+        <v>02-08-01</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f>IF(I17="↑","",IF(I17="-","",System_Code&amp;"_"&amp;H17&amp;IF(L17="-","","_"&amp;L17)))</f>
-        <v>SSE19_SPP_ENVP</v>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_QCP</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>8</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>01-08-05</v>
+        <f t="shared" si="4"/>
+        <v>02-08-02</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="4">
-        <v>2</v>
+      <c r="I18" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f>IF(I18="↑","",IF(I18="-","",System_Code&amp;"_"&amp;H18&amp;IF(L18="-","","_"&amp;L18)))</f>
-        <v>SSE19_SPP_PREPL</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6" t="str">
-        <f>TEXT(B19,"00")&amp;IF(C19="","","-"&amp;TEXT(C19,"00"))&amp;IF(D19="","",TEXT(D19,"00"))</f>
-        <v>02</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>02-08-03</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
       <c r="E20" s="1" t="str">
-        <f>TEXT(B20,"00")&amp;IF(C20="","","-"&amp;TEXT(C20,"00"))&amp;IF(D20="","","-"&amp;TEXT(D20,"00"))</f>
-        <v>02-01</v>
+        <f t="shared" si="4"/>
+        <v>02-08-04</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I20" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f>IF(I20="↑","",IF(I20="-","",System_Code&amp;"_"&amp;H20&amp;IF(L20="-","","_"&amp;L20)))</f>
-        <v>SSE19_RD_INNOD</v>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_ENVP</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>TEXT(B21,"00")&amp;IF(C21="","","-"&amp;TEXT(C21,"00"))&amp;IF(D21="","","-"&amp;TEXT(D21,"00"))</f>
-        <v>02-01-01</v>
+        <f t="shared" si="4"/>
+        <v>02-08-05</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L21" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f>IF(I21="↑","",IF(I21="-","",System_Code&amp;"_"&amp;H21&amp;IF(L21="-","","_"&amp;L21)))</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>SSE19_SPP_PREPL</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" ref="E22:E85" si="3">TEXT(B22,"00")&amp;IF(C22="","","-"&amp;TEXT(C22,"00"))&amp;IF(D22="","","-"&amp;TEXT(D22,"00"))</f>
-        <v>02-01-02</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f>IF(I22="↑","",IF(I22="-","",System_Code&amp;"_"&amp;H22&amp;IF(L22="-","","_"&amp;L22)))</f>
-        <v/>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6" t="str">
+        <f>TEXT(B22,"00")&amp;IF(C22="","","-"&amp;TEXT(C22,"00"))&amp;IF(D22="","",TEXT(D22,"00"))</f>
+        <v>03</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-01-03</v>
+        <f>TEXT(B23,"00")&amp;IF(C23="","","-"&amp;TEXT(C23,"00"))&amp;IF(D23="","","-"&amp;TEXT(D23,"00"))</f>
+        <v>03-01</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="I23" s="4">
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f>IF(I23="↑","",IF(I23="-","",System_Code&amp;"_"&amp;H23&amp;IF(L23="-","","_"&amp;L23)))</f>
-        <v/>
+        <f t="shared" ref="M23:M46" si="7">IF(I23="↑","",IF(I23="-","",System_Code&amp;"_"&amp;H23&amp;IF(L23="-","","_"&amp;L23)))</f>
+        <v>SSE19_RD_INNOD</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24" si="4">TEXT(B24,"00")&amp;IF(C24="","","-"&amp;TEXT(C24,"00"))&amp;IF(D24="","","-"&amp;TEXT(D24,"00"))</f>
-        <v>02-01-04</v>
+        <f>TEXT(B24,"00")&amp;IF(C24="","","-"&amp;TEXT(C24,"00"))&amp;IF(D24="","","-"&amp;TEXT(D24,"00"))</f>
+        <v>03-01-01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f>IF(I24="↑","",IF(I24="-","",System_Code&amp;"_"&amp;H24&amp;IF(L24="-","","_"&amp;L24)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N24" s="1"/>
@@ -2078,85 +2132,87 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-02</v>
+        <f t="shared" ref="E25:E100" si="8">TEXT(B25,"00")&amp;IF(C25="","","-"&amp;TEXT(C25,"00"))&amp;IF(D25="","","-"&amp;TEXT(D25,"00"))</f>
+        <v>03-01-02</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="4">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f>IF(I25="↑","",IF(I25="-","",System_Code&amp;"_"&amp;H25&amp;IF(L25="-","","_"&amp;L25)))</f>
-        <v>SSE19_RD</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-02-01</v>
+        <f t="shared" si="8"/>
+        <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f>IF(I26="↑","",IF(I26="-","",System_Code&amp;"_"&amp;H26&amp;IF(L26="-","","_"&amp;L26)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N26" s="1"/>
@@ -2164,217 +2220,219 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-02-02</v>
+        <f t="shared" ref="E27" si="9">TEXT(B27,"00")&amp;IF(C27="","","-"&amp;TEXT(C27,"00"))&amp;IF(D27="","","-"&amp;TEXT(D27,"00"))</f>
+        <v>03-01-04</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="10">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f>IF(I27="↑","",IF(I27="-","",System_Code&amp;"_"&amp;H27&amp;IF(L27="-","","_"&amp;L27)))</f>
-        <v>SSE19_RD_REQL</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
         <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-03</v>
+        <f t="shared" si="8"/>
+        <v>03-02</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f>IF(I28="↑","",IF(I28="-","",System_Code&amp;"_"&amp;H28&amp;IF(L28="-","","_"&amp;L28)))</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
         <v>2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-03-01</v>
+        <f t="shared" si="8"/>
+        <v>03-02-01</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="4">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f>IF(I29="↑","",IF(I29="-","",System_Code&amp;"_"&amp;H29&amp;IF(L29="-","","_"&amp;L29)))</f>
-        <v>SSE19_RD_UXD</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
         <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-03-02</v>
+        <f t="shared" si="8"/>
+        <v>03-02-02</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="I30" s="10">
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L30" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f>IF(I30="↑","",IF(I30="-","",System_Code&amp;"_"&amp;H30&amp;IF(L30="-","","_"&amp;L30)))</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_REQL</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04</v>
+        <f t="shared" si="8"/>
+        <v>03-03</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f>IF(I31="↑","",IF(I31="-","",System_Code&amp;"_"&amp;H31&amp;IF(L31="-","","_"&amp;L31)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N31" s="1"/>
@@ -2382,175 +2440,175 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-01</v>
+        <f t="shared" si="8"/>
+        <v>03-03-01</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I32" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="L32" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f>IF(I32="↑","",IF(I32="-","",System_Code&amp;"_"&amp;H32&amp;IF(L32="-","","_"&amp;L32)))</f>
-        <v>SSE19_RD_USD</v>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_UXD</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-02</v>
+        <f t="shared" si="8"/>
+        <v>03-03-02</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="4">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f>IF(I33="↑","",IF(I33="-","",System_Code&amp;"_"&amp;H33&amp;IF(L33="-","","_"&amp;L33)))</f>
-        <v>SSE19_RD_USD</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-03</v>
+        <f t="shared" si="8"/>
+        <v>03-04</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f>IF(I34="↑","",IF(I34="-","",System_Code&amp;"_"&amp;H34&amp;IF(L34="-","","_"&amp;L34)))</f>
-        <v>SSE19_RD_USD</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-04</v>
+        <f t="shared" si="8"/>
+        <v>03-04-01</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I35" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f>IF(I35="↑","",IF(I35="-","",System_Code&amp;"_"&amp;H35&amp;IF(L35="-","","_"&amp;L35)))</f>
+        <f t="shared" si="7"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N35" s="1"/>
@@ -2558,43 +2616,43 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-05</v>
+        <f t="shared" si="8"/>
+        <v>03-04-02</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I36" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f>IF(I36="↑","",IF(I36="-","",System_Code&amp;"_"&amp;H36&amp;IF(L36="-","","_"&amp;L36)))</f>
+        <f t="shared" si="7"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N36" s="1"/>
@@ -2602,43 +2660,43 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-06</v>
+        <f t="shared" si="8"/>
+        <v>03-04-03</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I37" s="4">
         <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f>IF(I37="↑","",IF(I37="-","",System_Code&amp;"_"&amp;H37&amp;IF(L37="-","","_"&amp;L37)))</f>
+        <f t="shared" si="7"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N37" s="1"/>
@@ -2646,712 +2704,745 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>03-04-04</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="4">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>02-04-07</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="4">
-        <v>4</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f>IF(I38="↑","",IF(I38="-","",System_Code&amp;"_"&amp;H38&amp;IF(L38="-","","_"&amp;L38)))</f>
-        <v>SSE19_RD_USD_OP</v>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_USD</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="D39" s="1"/>
       <c r="E39" s="1" t="str">
-        <f t="shared" ref="E39:E41" si="5">TEXT(B39,"00")&amp;IF(C39="","","-"&amp;TEXT(C39,"00"))&amp;IF(D39="","","-"&amp;TEXT(D39,"00"))</f>
-        <v>02-05</v>
+        <f t="shared" si="8"/>
+        <v>03-04-05</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>185</v>
+        <v>89</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="I39" s="4">
+        <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f>IF(I39="↑","",IF(I39="-","",System_Code&amp;"_"&amp;H39&amp;IF(L39="-","","_"&amp;L39)))</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_USD</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>02-05-01</v>
+        <f t="shared" si="8"/>
+        <v>03-04-06</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I40" s="4">
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f>IF(I40="↑","",IF(I40="-","",System_Code&amp;"_"&amp;H40&amp;IF(L40="-","","_"&amp;L40)))</f>
-        <v>SSE19_RD_CD</v>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_USD</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>02-05-02</v>
+        <f t="shared" si="8"/>
+        <v>03-04-07</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I41" s="4">
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f>IF(I41="↑","",IF(I41="-","",System_Code&amp;"_"&amp;H41&amp;IF(L41="-","","_"&amp;L41)))</f>
-        <v>SSE19_RD_CRD</v>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_USD_OP</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1" t="str">
-        <f t="shared" ref="E42" si="6">TEXT(B42,"00")&amp;IF(C42="","","-"&amp;TEXT(C42,"00"))&amp;IF(D42="","","-"&amp;TEXT(D42,"00"))</f>
-        <v>02-05-03</v>
+        <f t="shared" ref="E42:E45" si="10">TEXT(B42,"00")&amp;IF(C42="","","-"&amp;TEXT(C42,"00"))&amp;IF(D42="","","-"&amp;TEXT(D42,"00"))</f>
+        <v>03-05</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>191</v>
+        <v>166</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="4">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f>IF(I42="↑","",IF(I42="-","",System_Code&amp;"_"&amp;H42&amp;IF(L42="-","","_"&amp;L42)))</f>
-        <v>SSE19_RD_DFD</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="6" t="str">
-        <f>TEXT(B43,"00")&amp;IF(C43="","","-"&amp;TEXT(C43,"00"))&amp;IF(D43="","",TEXT(D43,"00"))</f>
-        <v>03</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>03-05-01</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_CD</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-01</v>
+        <f t="shared" si="10"/>
+        <v>03-05-02</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>113</v>
+        <v>169</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="I44" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L44" s="1" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f>IF(I44="↑","",IF(I44="-","",System_Code&amp;"_"&amp;H44&amp;IF(L44="-","","_"&amp;L44)))</f>
-        <v>SSE19_BD_SDD</v>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_CRD</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-01-01</v>
+        <f t="shared" si="10"/>
+        <v>03-05-03</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="L45" s="1" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f>IF(I45="↑","",IF(I45="-","",System_Code&amp;"_"&amp;H45&amp;IF(L45="-","","_"&amp;L45)))</f>
-        <v/>
+        <f t="shared" ref="M45" si="11">IF(I45="↑","",IF(I45="-","",System_Code&amp;"_"&amp;H45&amp;IF(L45="-","","_"&amp;L45)))</f>
+        <v>SSE19_RD_DFD</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <f t="shared" si="1"/>
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-01-02</v>
+        <f t="shared" ref="E46" si="12">TEXT(B46,"00")&amp;IF(C46="","","-"&amp;TEXT(C46,"00"))&amp;IF(D46="","","-"&amp;TEXT(D46,"00"))</f>
+        <v>03-05-04</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="L46" s="1" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f>IF(I46="↑","",IF(I46="-","",System_Code&amp;"_"&amp;H46&amp;IF(L46="-","","_"&amp;L46)))</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>SSE19_RD_DFD</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-02</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="4">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M47" s="1" t="str">
-        <f>IF(I47="↑","",IF(I47="-","",System_Code&amp;"_"&amp;H47&amp;IF(L47="-","","_"&amp;L47)))</f>
-        <v>SSE19_BD_STD</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="E47" s="6" t="str">
+        <f>TEXT(B47,"00")&amp;IF(C47="","","-"&amp;TEXT(C47,"00"))&amp;IF(D47="","",TEXT(D47,"00"))</f>
+        <v>04</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-03</v>
+        <f t="shared" ref="E48:E55" si="13">TEXT(B48,"00")&amp;IF(C48="","","-"&amp;TEXT(C48,"00"))&amp;IF(D48="","","-"&amp;TEXT(D48,"00"))</f>
+        <v>04-01</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="I48" s="4">
         <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f>IF(I48="↑","",IF(I48="-","",System_Code&amp;"_"&amp;H48&amp;IF(L48="-","","_"&amp;L48)))</f>
-        <v>SSE19_BD_RDD</v>
+        <f t="shared" ref="M48:M55" si="14">IF(I48="↑","",IF(I48="-","",System_Code&amp;"_"&amp;H48&amp;IF(L48="-","","_"&amp;L48)))</f>
+        <v>SSE19_CD_CUSTD</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-04</v>
+        <f t="shared" si="13"/>
+        <v>04-01-01</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49" s="4">
-        <v>8</v>
+        <v>174</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f>IF(I49="↑","",IF(I49="-","",System_Code&amp;"_"&amp;H49&amp;IF(L49="-","","_"&amp;L49)))</f>
-        <v>SSE19_BD_IFD</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-05</v>
+        <f t="shared" si="13"/>
+        <v>04-01-02</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="4">
-        <v>8</v>
+        <v>174</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="M50" s="1" t="str">
-        <f>IF(I50="↑","",IF(I50="-","",System_Code&amp;"_"&amp;H50&amp;IF(L50="-","","_"&amp;L50)))</f>
-        <v>SSE19_BD_API</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-06</v>
+        <f t="shared" si="13"/>
+        <v>04-02</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="I51" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f>IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
-        <v>SSE19_BD_BJD</v>
+        <f t="shared" si="14"/>
+        <v>SSE19_CD_CUST_IV</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="B52" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>03-07</v>
+        <f t="shared" ref="E52:E53" si="15">TEXT(B52,"00")&amp;IF(C52="","","-"&amp;TEXT(C52,"00"))&amp;IF(D52="","","-"&amp;TEXT(D52,"00"))</f>
+        <v>04-02-01</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>130</v>
+        <v>186</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="4">
-        <v>4</v>
+        <v>174</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
-        <v>SSE19_BD_FL</v>
+        <f t="shared" ref="M52:M53" si="16">IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
+        <v/>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="6" t="str">
-        <f>TEXT(B53,"00")&amp;IF(C53="","","-"&amp;TEXT(C53,"00"))&amp;IF(D53="","",TEXT(D53,"00"))</f>
-        <v>04</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>04-02-02</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <f t="shared" si="1"/>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>04-01</v>
+        <f t="shared" si="13"/>
+        <v>04-02-03</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I54" s="4">
-        <v>8</v>
+        <v>174</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
-        <v>SSE19_SD_ACHS</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -3359,229 +3450,239 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>04-02</v>
+        <f t="shared" si="13"/>
+        <v>04-02-04</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>138</v>
+        <v>189</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I55" s="4">
-        <v>8</v>
+        <v>174</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f>IF(I55="↑","",IF(I55="-","",System_Code&amp;"_"&amp;H55&amp;IF(L55="-","","_"&amp;L55)))</f>
-        <v>SSE19_SD_ACHA</v>
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>04-03</v>
+        <f t="shared" ref="E56:E57" si="17">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
+        <v>04-02-05</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I56" s="4">
-        <v>4</v>
+        <v>174</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f>IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
-        <v>SSE19_SD_TBLD</v>
+        <f t="shared" ref="M56:M57" si="18">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
+        <v/>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
       <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="6" t="str">
-        <f>TEXT(B57,"00")&amp;IF(C57="","","-"&amp;TEXT(C57,"00"))&amp;IF(D57="","",TEXT(D57,"00"))</f>
-        <v>05</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>04-02-06</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1" t="str">
-        <f t="shared" ref="E58:E59" si="7">TEXT(B58,"00")&amp;IF(C58="","","-"&amp;TEXT(C58,"00"))&amp;IF(D58="","","-"&amp;TEXT(D58,"00"))</f>
-        <v>05-01</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="4">
-        <v>4</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M58" s="1" t="str">
-        <f>IF(I58="↑","",IF(I58="-","",System_Code&amp;"_"&amp;H58&amp;IF(L58="-","","_"&amp;L58)))</f>
-        <v>SSE19_SCRUM_MVP</v>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="E58" s="6" t="str">
+        <f>TEXT(B58,"00")&amp;IF(C58="","","-"&amp;TEXT(C58,"00"))&amp;IF(D58="","",TEXT(D58,"00"))</f>
+        <v>05</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <f t="shared" si="1"/>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>05-02</v>
+        <f t="shared" si="8"/>
+        <v>05-01</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I59" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f>IF(I59="↑","",IF(I59="-","",System_Code&amp;"_"&amp;H59&amp;IF(L59="-","","_"&amp;L59)))</f>
-        <v>SSE19_SCRUM_PBL</v>
+        <f t="shared" ref="M59:M67" si="19">IF(I59="↑","",IF(I59="-","",System_Code&amp;"_"&amp;H59&amp;IF(L59="-","","_"&amp;L59)))</f>
+        <v>SSE19_BD_SDD</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <f t="shared" si="1"/>
-        <v>57</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
       </c>
       <c r="B60" s="1">
         <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03</v>
+        <f t="shared" si="8"/>
+        <v>05-01-01</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>146</v>
+        <v>100</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M60" s="1" t="str">
-        <f>IF(I60="↑","",IF(I60="-","",System_Code&amp;"_"&amp;H60&amp;IF(L60="-","","_"&amp;L60)))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N60" s="1"/>
@@ -3589,82 +3690,94 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
       </c>
       <c r="B61" s="1">
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" ref="E61" si="8">TEXT(B61,"00")&amp;IF(C61="","","-"&amp;TEXT(C61,"00"))&amp;IF(D61="","","-"&amp;TEXT(D61,"00"))</f>
-        <v>05-03-01</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="13" t="s">
-        <v>159</v>
+        <f t="shared" si="8"/>
+        <v>05-01-02</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I61" s="4">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="L61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
       </c>
       <c r="B62" s="1">
         <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-01</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="16" t="s">
-        <v>160</v>
+        <f t="shared" si="8"/>
+        <v>05-02</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I62" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SSE19_BD_STD</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3672,506 +3785,553 @@
       <c r="C63" s="1">
         <v>3</v>
       </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
+      <c r="D63" s="1"/>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-02</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="16" t="s">
-        <v>161</v>
+        <f t="shared" si="8"/>
+        <v>05-03</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I63" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SSE19_BD_RDD</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="B64" s="1">
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-03</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="16" t="s">
-        <v>162</v>
+        <f t="shared" si="8"/>
+        <v>05-04</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I64" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SSE19_BD_IFD</v>
+      </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-04</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="16" t="s">
-        <v>163</v>
+        <f t="shared" si="8"/>
+        <v>05-05</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I65" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SSE19_BD_API</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-05</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="16" t="s">
-        <v>164</v>
+        <f t="shared" si="8"/>
+        <v>05-06</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I66" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SSE19_BD_BJD</v>
+      </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-06</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="16" t="s">
-        <v>165</v>
+        <f t="shared" si="8"/>
+        <v>05-07</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I67" s="4">
         <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>SSE19_BD_FL</v>
+      </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="6" t="str">
+        <f>TEXT(B68,"00")&amp;IF(C68="","","-"&amp;TEXT(C68,"00"))&amp;IF(D68="","",TEXT(D68,"00"))</f>
+        <v>06</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="B68" s="1">
-        <v>5</v>
-      </c>
-      <c r="C68" s="1">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-07</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" s="4">
-        <v>4</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
       <c r="B69" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>06-01</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I69" s="4">
         <v>8</v>
       </c>
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-08</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" s="4">
-        <v>4</v>
-      </c>
       <c r="J69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" s="1" t="str">
+        <f>IF(I69="↑","",IF(I69="-","",System_Code&amp;"_"&amp;H69&amp;IF(L69="-","","_"&amp;L69)))</f>
+        <v>SSE19_SD_ACHS</v>
+      </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-09</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="13" t="s">
-        <v>168</v>
+        <f t="shared" si="8"/>
+        <v>06-02</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="I70" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M70" s="1" t="str">
+        <f>IF(I70="↑","",IF(I70="-","",System_Code&amp;"_"&amp;H70&amp;IF(L70="-","","_"&amp;L70)))</f>
+        <v>SSE19_SD_ACHA</v>
+      </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
       </c>
-      <c r="D71" s="1">
-        <v>10</v>
-      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-10</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="13" t="s">
-        <v>169</v>
+        <f t="shared" si="8"/>
+        <v>06-03</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>177</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="I71" s="4">
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M71" s="1" t="str">
+        <f>IF(I71="↑","",IF(I71="-","",System_Code&amp;"_"&amp;H71&amp;IF(L71="-","","_"&amp;L71)))</f>
+        <v>SSE19_SD_TBLD</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="6" t="str">
+        <f>TEXT(B72,"00")&amp;IF(C72="","","-"&amp;TEXT(C72,"00"))&amp;IF(D72="","",TEXT(D72,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="B72" s="1">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-11</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I72" s="4">
-        <v>4</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
       <c r="B73" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-12</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="16" t="s">
-        <v>171</v>
+        <f t="shared" ref="E73:E74" si="20">TEXT(B73,"00")&amp;IF(C73="","","-"&amp;TEXT(C73,"00"))&amp;IF(D73="","","-"&amp;TEXT(D73,"00"))</f>
+        <v>07-01</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I73" s="4">
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M73" s="1" t="str">
+        <f>IF(I73="↑","",IF(I73="-","",System_Code&amp;"_"&amp;H73&amp;IF(L73="-","","_"&amp;L73)))</f>
+        <v>SSE19_SCRUM-itr1_MVP</v>
+      </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" ref="A74:A100" si="21">ROW()-4</f>
+        <v>70</v>
       </c>
       <c r="B74" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>3</v>
-      </c>
-      <c r="D74" s="1">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-13</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="16" t="s">
-        <v>172</v>
+        <f t="shared" si="20"/>
+        <v>07-02</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I74" s="4">
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M74" s="1" t="str">
+        <f>IF(I74="↑","",IF(I74="-","",System_Code&amp;"_"&amp;H74&amp;IF(L74="-","","_"&amp;L74)))</f>
+        <v>SSE19_SCRUM-itr1_PBL</v>
+      </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="21"/>
+        <v>71</v>
       </c>
       <c r="B75" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
-      <c r="D75" s="1">
-        <v>14</v>
-      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-14</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="13" t="s">
-        <v>173</v>
+        <f t="shared" si="8"/>
+        <v>07-03</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I75" s="4">
-        <v>4</v>
+        <v>181</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="M75" s="1" t="str">
+        <f>IF(I75="↑","",IF(I75="-","",System_Code&amp;"_"&amp;H75&amp;IF(L75="-","","_"&amp;L75)))</f>
+        <v/>
+      </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f t="shared" si="21"/>
+        <v>72</v>
       </c>
       <c r="B76" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
       </c>
       <c r="D76" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-15</v>
+        <f t="shared" ref="E76" si="22">TEXT(B76,"00")&amp;IF(C76="","","-"&amp;TEXT(C76,"00"))&amp;IF(D76="","","-"&amp;TEXT(D76,"00"))</f>
+        <v>07-03-01</v>
       </c>
       <c r="F76" s="1"/>
-      <c r="G76" s="16" t="s">
-        <v>174</v>
+      <c r="G76" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I76" s="4">
         <v>4</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -4179,36 +4339,36 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="21"/>
+        <v>73</v>
       </c>
       <c r="B77" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1">
         <v>3</v>
       </c>
       <c r="D77" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-16</v>
+        <f t="shared" si="8"/>
+        <v>07-03-01</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="16" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I77" s="4">
         <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -4216,36 +4376,36 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="21"/>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
       </c>
       <c r="D78" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-17</v>
+        <f t="shared" si="8"/>
+        <v>07-03-02</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="16" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I78" s="4">
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -4253,36 +4413,36 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f t="shared" si="21"/>
+        <v>75</v>
       </c>
       <c r="B79" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
       </c>
       <c r="D79" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-18</v>
+        <f t="shared" si="8"/>
+        <v>07-03-03</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="16" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I79" s="4">
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4292,34 +4452,34 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f t="shared" si="21"/>
+        <v>76</v>
       </c>
       <c r="B80" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-19</v>
+        <f t="shared" si="8"/>
+        <v>07-03-04</v>
       </c>
       <c r="F80" s="1"/>
-      <c r="G80" s="17" t="s">
-        <v>178</v>
+      <c r="G80" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I80" s="4">
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4329,34 +4489,34 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f t="shared" si="21"/>
+        <v>77</v>
       </c>
       <c r="B81" s="1">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
         <v>5</v>
       </c>
-      <c r="C81" s="1">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1">
-        <v>21</v>
-      </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-21</v>
+        <f t="shared" si="8"/>
+        <v>07-03-05</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="16" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I81" s="4">
         <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -4366,34 +4526,34 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="21"/>
+        <v>78</v>
       </c>
       <c r="B82" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1">
         <v>3</v>
       </c>
       <c r="D82" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-22</v>
+        <f t="shared" si="8"/>
+        <v>07-03-06</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="16" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I82" s="4">
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -4403,34 +4563,34 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="21"/>
+        <v>79</v>
       </c>
       <c r="B83" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>3</v>
       </c>
       <c r="D83" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-23</v>
+        <f t="shared" si="8"/>
+        <v>07-03-07</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="I83" s="4">
         <v>4</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -4440,34 +4600,34 @@
     </row>
     <row r="84" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="21"/>
+        <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
         <v>3</v>
       </c>
       <c r="D84" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-24</v>
+        <f t="shared" si="8"/>
+        <v>07-03-08</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="16" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I84" s="4">
         <v>4</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -4477,34 +4637,34 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f t="shared" si="21"/>
+        <v>81</v>
       </c>
       <c r="B85" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
         <v>3</v>
       </c>
       <c r="D85" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>05-03-25</v>
+        <f t="shared" si="8"/>
+        <v>07-03-09</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="16" t="s">
-        <v>183</v>
+      <c r="G85" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I85" s="4">
         <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -4512,27 +4672,586 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+    <row r="86" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <f t="shared" si="21"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-10</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I86" s="4">
+        <v>4</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="1">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-11</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I87" s="4">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <f t="shared" si="21"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-12</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I88" s="4">
+        <v>4</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="1">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>13</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-13</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I89" s="4">
+        <v>4</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>19</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>TEXT(B90,"00")&amp;IF(C90="","","-"&amp;TEXT(C90,"00"))&amp;IF(D90="","","-"&amp;TEXT(D90,"00"))</f>
+        <v>07-03-19</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="4">
+        <v>4</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <f t="shared" si="21"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="1">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>21</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>TEXT(B91,"00")&amp;IF(C91="","","-"&amp;TEXT(C91,"00"))&amp;IF(D91="","","-"&amp;TEXT(D91,"00"))</f>
+        <v>07-03-21</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I91" s="4">
+        <v>4</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="1">
+        <v>7</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>22</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>TEXT(B92,"00")&amp;IF(C92="","","-"&amp;TEXT(C92,"00"))&amp;IF(D92="","","-"&amp;TEXT(D92,"00"))</f>
+        <v>07-03-22</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I92" s="4">
+        <v>4</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <f t="shared" si="21"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="1">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>23</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>TEXT(B93,"00")&amp;IF(C93="","","-"&amp;TEXT(C93,"00"))&amp;IF(D93="","","-"&amp;TEXT(D93,"00"))</f>
+        <v>07-03-23</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I93" s="4">
+        <v>4</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="1">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-14</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I94" s="4">
+        <v>4</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-15</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I95" s="4">
+        <v>4</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="1">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>16</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-16</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I96" s="4">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <f t="shared" si="21"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="1">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1">
+        <v>17</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-17</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I97" s="4">
+        <v>4</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="1">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1">
+        <v>18</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-18</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I98" s="4">
+        <v>4</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="1">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1">
+        <v>24</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-24</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I99" s="4">
+        <v>4</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <f t="shared" si="21"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="1">
+        <v>7</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1">
+        <v>25</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>07-03-25</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I100" s="4">
+        <v>4</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC642711-57B3-48AA-BC7B-F4E0B5966FB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9EE711-0158-4762-8D29-3A92EF72C7CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_first" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="242">
   <si>
     <t>No</t>
   </si>
@@ -130,18 +130,12 @@
     <t>システム概要</t>
   </si>
   <si>
-    <t>Preparation and Precurement List</t>
-  </si>
-  <si>
     <t>PREPL</t>
   </si>
   <si>
     <t>Master Schedule and Plan</t>
   </si>
   <si>
-    <t>マスタスケジュール</t>
-  </si>
-  <si>
     <t>MSP</t>
   </si>
   <si>
@@ -160,15 +154,9 @@
     <t>Cost Plan</t>
   </si>
   <si>
-    <t>コスト計画</t>
-  </si>
-  <si>
     <t>Human Resource Plan</t>
   </si>
   <si>
-    <t>要員計画</t>
-  </si>
-  <si>
     <t>Environment Plan</t>
   </si>
   <si>
@@ -205,9 +193,6 @@
     <t>Value Proposition Canvas</t>
   </si>
   <si>
-    <t>準備、調達計画</t>
-  </si>
-  <si>
     <t>価値提案キャンバス</t>
   </si>
   <si>
@@ -226,21 +211,9 @@
     <t>オープン＆クローズ・キャンバス</t>
   </si>
   <si>
-    <t>品質計画、開発手法</t>
-  </si>
-  <si>
     <t>QCP</t>
   </si>
   <si>
-    <t>COSTP</t>
-  </si>
-  <si>
-    <t>RESOURSEP</t>
-  </si>
-  <si>
-    <t>環境計画（開発、試験、本番）＋構成管理</t>
-  </si>
-  <si>
     <t>Requirement Development</t>
   </si>
   <si>
@@ -583,9 +556,6 @@
     <t>PBL</t>
   </si>
   <si>
-    <t>SCRUM-itr1</t>
-  </si>
-  <si>
     <t>Customer Development</t>
   </si>
   <si>
@@ -698,6 +668,102 @@
   </si>
   <si>
     <t>着◇</t>
+  </si>
+  <si>
+    <t>マスタスケジュール (D)</t>
+  </si>
+  <si>
+    <t>コスト計画 (C)</t>
+  </si>
+  <si>
+    <t>要員計画 (H)</t>
+  </si>
+  <si>
+    <t>環境計画（開発、試験、本番）＋構成管理 (E)</t>
+  </si>
+  <si>
+    <t>HRESOURCEP</t>
+  </si>
+  <si>
+    <t>Risk Plan</t>
+  </si>
+  <si>
+    <t>リスク計画 (R)</t>
+  </si>
+  <si>
+    <t>RSKP</t>
+  </si>
+  <si>
+    <t>CSTP</t>
+  </si>
+  <si>
+    <t>Precurement List</t>
+  </si>
+  <si>
+    <t>Preparation List</t>
+  </si>
+  <si>
+    <t>調達計画</t>
+  </si>
+  <si>
+    <t>準備計画</t>
+  </si>
+  <si>
+    <t>PROCuL</t>
+  </si>
+  <si>
+    <t>品質計画、開発手法、プロセス計画 (Q)</t>
+  </si>
+  <si>
+    <t>プロトタイプ制作準備</t>
+  </si>
+  <si>
+    <t>Preparation for Prototyping</t>
+  </si>
+  <si>
+    <t>Entity-Relation Diagram</t>
+  </si>
+  <si>
+    <t>ER図（もしくはデータモデルのクラス図）</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Data Flow Statement</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Data State Model Design</t>
+  </si>
+  <si>
+    <t>データの状態モデル設計</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>ビジネス開発</t>
+  </si>
+  <si>
+    <t>Business Model Canvas</t>
+  </si>
+  <si>
+    <t>ビジネス・モデル・キャンバス</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Biz</t>
+  </si>
+  <si>
+    <t>Iter1</t>
+  </si>
+  <si>
+    <t>Iter-pre</t>
   </si>
 </sst>
 </file>
@@ -869,7 +935,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1182,13 +1277,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1293,7 @@
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="22.625" customWidth="1"/>
@@ -1208,14 +1303,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C1" s="11"/>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1227,10 +1322,10 @@
       </c>
       <c r="G2" s="9"/>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O2" s="12">
-        <v>43691</v>
+        <v>43697</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1270,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>18</v>
@@ -1300,13 +1395,13 @@
         <v>01</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -1336,10 +1431,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
@@ -1348,14 +1443,14 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" ref="M6:M7" si="2">IF(I6="↑","",IF(I6="-","",System_Code&amp;"_"&amp;H6&amp;IF(L6="-","","_"&amp;L6)))</f>
-        <v>SSE19_SPP_PROP</v>
+        <v>SSE19_PoC_PROP</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1380,10 +1475,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
@@ -1392,14 +1487,14 @@
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>SSE19_SPP_PROP_VALD</v>
+        <v>SSE19_PoC_PROP_VALD</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1422,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>12</v>
@@ -1437,7 +1532,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A73" si="3">ROW()-4</f>
+        <f t="shared" ref="A9:A79" si="3">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -1452,29 +1547,29 @@
         <v>02-01</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" ref="M9:M21" si="5">IF(I9="↑","",IF(I9="-","",System_Code&amp;"_"&amp;H9&amp;IF(L9="-","","_"&amp;L9)))</f>
-        <v>SSE19_SPP_PROP</v>
+        <v>SSE19_SPP</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1496,29 +1591,29 @@
         <v>02-02</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP_PROP_VALD</v>
+        <v>SSE19_SPP_WBS</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1540,10 +1635,10 @@
         <v>02-03</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -1555,14 +1650,14 @@
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP</v>
+        <v>SSE19_SPP_OV</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1584,10 +1679,10 @@
         <v>02-04</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -1599,14 +1694,14 @@
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP_WBS</v>
+        <v>SSE19_SPP_MSP</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1628,29 +1723,29 @@
         <v>02-05</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP_OV</v>
+        <v>SSE19_SPP_MILESTONE</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1668,33 +1763,31 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E14" si="6">TEXT(B14,"00")&amp;IF(C14="","","-"&amp;TEXT(C14,"00"))&amp;IF(D14="","","-"&amp;TEXT(D14,"00"))</f>
         <v>02-06</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="4">
-        <v>4</v>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP_MSP</v>
+        <v/>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1710,16 +1803,18 @@
       <c r="C15" s="1">
         <v>7</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>02-07</v>
+        <v>02-07-01</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="15" t="s">
         <v>36</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -1731,14 +1826,14 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP_MILESTONE</v>
+        <v>SSE19_SPP_QCP</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1752,18 +1847,20 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" ref="E16" si="6">TEXT(B16,"00")&amp;IF(C16="","","-"&amp;TEXT(C16,"00"))&amp;IF(D16="","","-"&amp;TEXT(D16,"00"))</f>
-        <v>02-08</v>
+        <f t="shared" si="4"/>
+        <v>02-07-02</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -1776,7 +1873,7 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1794,39 +1891,37 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>02-08-01</v>
+        <v>02-07-03</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="4">
-        <v>2</v>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>SSE19_SPP_QCP</v>
+        <v/>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1840,20 +1935,20 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>02-08-02</v>
+        <f t="shared" ref="E18" si="7">TEXT(B18,"00")&amp;IF(C18="","","-"&amp;TEXT(C18,"00"))&amp;IF(D18="","","-"&amp;TEXT(D18,"00"))</f>
+        <v>02-07-04</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -1866,10 +1961,10 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M18" si="8">IF(I18="↑","",IF(I18="-","",System_Code&amp;"_"&amp;H18&amp;IF(L18="-","","_"&amp;L18)))</f>
         <v/>
       </c>
       <c r="N18" s="1"/>
@@ -1884,37 +1979,39 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>02-08-03</v>
+        <v>02-07-05</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>23</v>
+      <c r="I19" s="4">
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L19" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SSE19_SPP_ENVP</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1928,39 +2025,39 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>02-08-04</v>
+        <f t="shared" ref="E20" si="9">TEXT(B20,"00")&amp;IF(C20="","","-"&amp;TEXT(C20,"00"))&amp;IF(D20="","","-"&amp;TEXT(D20,"00"))</f>
+        <v>02-07-06</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>SSE19_SPP_ENVP</v>
+        <f t="shared" ref="M20" si="10">IF(I20="↑","",IF(I20="-","",System_Code&amp;"_"&amp;H20&amp;IF(L20="-","","_"&amp;L20)))</f>
+        <v>SSE19_SPP_PROCuL</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1974,20 +2071,20 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>02-08-05</v>
+        <v>02-07-07</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -1999,10 +2096,10 @@
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2026,13 +2123,13 @@
         <v>03</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
@@ -2059,13 +2156,13 @@
         <v>03-01</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I23" s="4">
         <v>8</v>
@@ -2074,14 +2171,14 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" ref="M23:M46" si="7">IF(I23="↑","",IF(I23="-","",System_Code&amp;"_"&amp;H23&amp;IF(L23="-","","_"&amp;L23)))</f>
-        <v>SSE19_RD_INNOD</v>
+        <f t="shared" ref="M23:M49" si="11">IF(I23="↑","",IF(I23="-","",System_Code&amp;"_"&amp;H23&amp;IF(L23="-","","_"&amp;L23)))</f>
+        <v>SSE19_Biz_INNOD</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2105,16 +2202,16 @@
         <v>03-01-01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>23</v>
@@ -2124,7 +2221,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M24" si="12">IF(I24="↑","",IF(I24="-","",System_Code&amp;"_"&amp;H24&amp;IF(L24="-","","_"&amp;L24)))</f>
         <v/>
       </c>
       <c r="N24" s="1"/>
@@ -2145,20 +2242,20 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:E100" si="8">TEXT(B25,"00")&amp;IF(C25="","","-"&amp;TEXT(C25,"00"))&amp;IF(D25="","","-"&amp;TEXT(D25,"00"))</f>
+        <f>TEXT(B25,"00")&amp;IF(C25="","","-"&amp;TEXT(C25,"00"))&amp;IF(D25="","","-"&amp;TEXT(D25,"00"))</f>
         <v>03-01-02</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>23</v>
@@ -2168,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N25" s="1"/>
@@ -2189,20 +2286,20 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E26:E105" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
         <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
@@ -2212,7 +2309,7 @@
         <v>23</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N26" s="1"/>
@@ -2233,20 +2330,20 @@
         <v>4</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27" si="9">TEXT(B27,"00")&amp;IF(C27="","","-"&amp;TEXT(C27,"00"))&amp;IF(D27="","","-"&amp;TEXT(D27,"00"))</f>
+        <f t="shared" si="13"/>
         <v>03-01-04</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>23</v>
@@ -2256,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N27" s="1"/>
@@ -2271,37 +2368,37 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-02</v>
+        <f t="shared" ref="E28" si="14">TEXT(B28,"00")&amp;IF(C28="","","-"&amp;TEXT(C28,"00"))&amp;IF(D28="","","-"&amp;TEXT(D28,"00"))</f>
+        <v>03-01-05</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="4">
-        <v>8</v>
+        <v>239</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2312,43 +2409,30 @@
         <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-02-01</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="6" t="str">
+        <f>TEXT(B29,"00")&amp;IF(C29="","","-"&amp;TEXT(C29,"00"))&amp;IF(D29="","",TEXT(D29,"00"))</f>
+        <v>04</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
@@ -2356,42 +2440,40 @@
         <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-02-02</v>
+        <f t="shared" si="13"/>
+        <v>04-02</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="10">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_REQL</v>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2402,27 +2484,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-03</v>
+        <f t="shared" si="13"/>
+        <v>04-02-01</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>23</v>
@@ -2432,7 +2516,7 @@
         <v>23</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N31" s="1"/>
@@ -2444,42 +2528,42 @@
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-03-01</v>
+        <f t="shared" si="13"/>
+        <v>04-02-02</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="4">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="I32" s="10">
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_UXD</v>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_REQL</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2490,26 +2574,24 @@
         <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-03-02</v>
+        <f t="shared" si="13"/>
+        <v>04-03</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>23</v>
@@ -2522,7 +2604,7 @@
         <v>23</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N33" s="1"/>
@@ -2534,38 +2616,42 @@
         <v>30</v>
       </c>
       <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04</v>
+        <f t="shared" si="13"/>
+        <v>04-03-01</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="I34" s="4">
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="L34" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_UXD</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2576,40 +2662,40 @@
         <v>31</v>
       </c>
       <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-01</v>
+        <f t="shared" si="13"/>
+        <v>04-03-02</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" s="4">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_USD</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2620,40 +2706,38 @@
         <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-02</v>
+        <f t="shared" si="13"/>
+        <v>04-04</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>213</v>
+        <v>73</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_USD</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2664,26 +2748,26 @@
         <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-03</v>
+        <f t="shared" si="13"/>
+        <v>04-04-01</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I37" s="4">
         <v>4</v>
@@ -2693,10 +2777,10 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N37" s="1"/>
@@ -2708,26 +2792,26 @@
         <v>34</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-04</v>
+        <f t="shared" si="13"/>
+        <v>04-04-02</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
@@ -2737,10 +2821,10 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N38" s="1"/>
@@ -2752,26 +2836,26 @@
         <v>35</v>
       </c>
       <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="C39" s="1">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-05</v>
+        <f t="shared" si="13"/>
+        <v>04-04-03</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I39" s="4">
         <v>4</v>
@@ -2781,10 +2865,10 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N39" s="1"/>
@@ -2796,39 +2880,39 @@
         <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-06</v>
+        <f t="shared" si="13"/>
+        <v>04-04-04</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I40" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N40" s="1"/>
@@ -2840,26 +2924,26 @@
         <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>03-04-07</v>
+        <f t="shared" si="13"/>
+        <v>04-04-05</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I41" s="4">
         <v>4</v>
@@ -2869,11 +2953,11 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_USD_OP</v>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_USD</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -2884,38 +2968,40 @@
         <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" ref="E42:E45" si="10">TEXT(B42,"00")&amp;IF(C42="","","-"&amp;TEXT(C42,"00"))&amp;IF(D42="","","-"&amp;TEXT(D42,"00"))</f>
-        <v>03-05</v>
+        <f t="shared" si="13"/>
+        <v>04-04-06</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>167</v>
+        <v>81</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_USD</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2926,26 +3012,26 @@
         <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>03-05-01</v>
+        <f t="shared" si="13"/>
+        <v>04-04-07</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I43" s="4">
         <v>4</v>
@@ -2953,15 +3039,13 @@
       <c r="J43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_CD</v>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_USD_OP</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2972,42 +3056,38 @@
         <v>40</v>
       </c>
       <c r="B44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
       </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>03-05-02</v>
+        <f t="shared" ref="E44:E48" si="15">TEXT(B44,"00")&amp;IF(C44="","","-"&amp;TEXT(C44,"00"))&amp;IF(D44="","","-"&amp;TEXT(D44,"00"))</f>
+        <v>04-05</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="4">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_CRD</v>
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3018,26 +3098,26 @@
         <v>41</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>03-05-03</v>
+        <f t="shared" si="15"/>
+        <v>04-05-01</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I45" s="4">
         <v>4</v>
@@ -3046,14 +3126,14 @@
         <v>13</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" ref="M45" si="11">IF(I45="↑","",IF(I45="-","",System_Code&amp;"_"&amp;H45&amp;IF(L45="-","","_"&amp;L45)))</f>
-        <v>SSE19_RD_DFD</v>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_CD</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3064,26 +3144,26 @@
         <v>42</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" ref="E46" si="12">TEXT(B46,"00")&amp;IF(C46="","","-"&amp;TEXT(C46,"00"))&amp;IF(D46="","","-"&amp;TEXT(D46,"00"))</f>
-        <v>03-05-04</v>
+        <f t="shared" si="15"/>
+        <v>04-05-02</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I46" s="4">
         <v>4</v>
@@ -3092,14 +3172,14 @@
         <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>SSE19_RD_DFD</v>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_CRD</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3112,28 +3192,43 @@
       <c r="B47" s="1">
         <v>4</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="6" t="str">
-        <f>TEXT(B47,"00")&amp;IF(C47="","","-"&amp;TEXT(C47,"00"))&amp;IF(D47="","",TEXT(D47,"00"))</f>
-        <v>04</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>04-05-03</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f t="shared" ref="M47:M48" si="16">IF(I47="↑","",IF(I47="-","",System_Code&amp;"_"&amp;H47&amp;IF(L47="-","","_"&amp;L47)))</f>
+        <v>SSE19_RD_DFD</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
@@ -3144,35 +3239,39 @@
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" ref="E48:E55" si="13">TEXT(B48,"00")&amp;IF(C48="","","-"&amp;TEXT(C48,"00"))&amp;IF(D48="","","-"&amp;TEXT(D48,"00"))</f>
-        <v>04-01</v>
+        <f t="shared" si="15"/>
+        <v>04-05-04</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>185</v>
+        <v>230</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="I48" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="L48" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" ref="M48:M55" si="14">IF(I48="↑","",IF(I48="-","",System_Code&amp;"_"&amp;H48&amp;IF(L48="-","","_"&amp;L48)))</f>
-        <v>SSE19_CD_CUSTD</v>
+        <f t="shared" si="16"/>
+        <v>SSE19_RD_DFS</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3186,37 +3285,39 @@
         <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>04-01-01</v>
+        <f t="shared" ref="E49" si="17">TEXT(B49,"00")&amp;IF(C49="","","-"&amp;TEXT(C49,"00"))&amp;IF(D49="","","-"&amp;TEXT(D49,"00"))</f>
+        <v>04-05-05</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L49" s="1" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="11"/>
+        <v>SSE19_RD_DSM</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3227,43 +3328,30 @@
         <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>04-01-02</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="6" t="str">
+        <f>TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","",TEXT(D50,"00"))</f>
+        <v>05</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
@@ -3271,38 +3359,38 @@
         <v>47</v>
       </c>
       <c r="B51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>04-02</v>
+        <f t="shared" ref="E51:E58" si="18">TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","","-"&amp;TEXT(D51,"00"))</f>
+        <v>05-01</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I51" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SSE19_CD_CUST_IV</v>
+        <f t="shared" ref="M51:M58" si="19">IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
+        <v>SSE19_CD_CUSTD</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3313,26 +3401,26 @@
         <v>48</v>
       </c>
       <c r="B52" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" ref="E52:E53" si="15">TEXT(B52,"00")&amp;IF(C52="","","-"&amp;TEXT(C52,"00"))&amp;IF(D52="","","-"&amp;TEXT(D52,"00"))</f>
-        <v>04-02-01</v>
+        <f t="shared" si="18"/>
+        <v>05-01-01</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>23</v>
@@ -3340,12 +3428,14 @@
       <c r="J52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f t="shared" ref="M52:M53" si="16">IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N52" s="1"/>
@@ -3357,26 +3447,26 @@
         <v>49</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>04-02-02</v>
+        <f t="shared" si="18"/>
+        <v>05-01-02</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>23</v>
@@ -3384,12 +3474,14 @@
       <c r="J53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N53" s="1"/>
@@ -3401,40 +3493,38 @@
         <v>50</v>
       </c>
       <c r="B54" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>04-02-03</v>
+        <f t="shared" si="18"/>
+        <v>05-02</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>23</v>
+        <v>165</v>
+      </c>
+      <c r="I54" s="4">
+        <v>10</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>SSE19_CD_CUST_IV</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3445,26 +3535,26 @@
         <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>04-02-04</v>
+        <f t="shared" ref="E55:E56" si="20">TEXT(B55,"00")&amp;IF(C55="","","-"&amp;TEXT(C55,"00"))&amp;IF(D55="","","-"&amp;TEXT(D55,"00"))</f>
+        <v>05-02-01</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>23</v>
@@ -3477,7 +3567,7 @@
         <v>23</v>
       </c>
       <c r="M55" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M55:M56" si="21">IF(I55="↑","",IF(I55="-","",System_Code&amp;"_"&amp;H55&amp;IF(L55="-","","_"&amp;L55)))</f>
         <v/>
       </c>
       <c r="N55" s="1"/>
@@ -3489,26 +3579,26 @@
         <v>52</v>
       </c>
       <c r="B56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" ref="E56:E57" si="17">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
-        <v>04-02-05</v>
+        <f t="shared" si="20"/>
+        <v>05-02-02</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>23</v>
@@ -3521,7 +3611,7 @@
         <v>23</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f t="shared" ref="M56:M57" si="18">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N56" s="1"/>
@@ -3533,26 +3623,26 @@
         <v>53</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>04-02-06</v>
+        <f t="shared" si="18"/>
+        <v>05-02-03</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>23</v>
@@ -3565,7 +3655,7 @@
         <v>23</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N57" s="1"/>
@@ -3579,28 +3669,41 @@
       <c r="B58" s="1">
         <v>5</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="6" t="str">
-        <f>TEXT(B58,"00")&amp;IF(C58="","","-"&amp;TEXT(C58,"00"))&amp;IF(D58="","",TEXT(D58,"00"))</f>
-        <v>05</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>05-02-04</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
@@ -3611,35 +3714,37 @@
         <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-01</v>
+        <f t="shared" ref="E59:E60" si="22">TEXT(B59,"00")&amp;IF(C59="","","-"&amp;TEXT(C59,"00"))&amp;IF(D59="","","-"&amp;TEXT(D59,"00"))</f>
+        <v>05-02-05</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>106</v>
+        <v>180</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I59" s="4">
-        <v>8</v>
+        <v>165</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" ref="M59:M67" si="19">IF(I59="↑","",IF(I59="-","",System_Code&amp;"_"&amp;H59&amp;IF(L59="-","","_"&amp;L59)))</f>
-        <v>SSE19_BD_SDD</v>
+        <f t="shared" ref="M59:M60" si="23">IF(I59="↑","",IF(I59="-","",System_Code&amp;"_"&amp;H59&amp;IF(L59="-","","_"&amp;L59)))</f>
+        <v/>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3653,23 +3758,23 @@
         <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-01-01</v>
+        <f t="shared" si="22"/>
+        <v>05-02-06</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>23</v>
@@ -3682,7 +3787,7 @@
         <v>23</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N60" s="1"/>
@@ -3694,43 +3799,30 @@
         <v>57</v>
       </c>
       <c r="B61" s="1">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-01-02</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M61" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="6" t="str">
+        <f>TEXT(B61,"00")&amp;IF(C61="","","-"&amp;TEXT(C61,"00"))&amp;IF(D61="","",TEXT(D61,"00"))</f>
+        <v>06</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
@@ -3738,24 +3830,24 @@
         <v>58</v>
       </c>
       <c r="B62" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-02</v>
+        <f t="shared" si="13"/>
+        <v>06-01</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I62" s="4">
         <v>8</v>
@@ -3765,11 +3857,11 @@
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_BD_STD</v>
+        <f t="shared" ref="M62:M70" si="24">IF(I62="↑","",IF(I62="-","",System_Code&amp;"_"&amp;H62&amp;IF(L62="-","","_"&amp;L62)))</f>
+        <v>SSE19_BD_SDD</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3780,38 +3872,40 @@
         <v>59</v>
       </c>
       <c r="B63" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-03</v>
+        <f t="shared" si="13"/>
+        <v>06-01-01</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>112</v>
+        <v>91</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I63" s="4">
-        <v>8</v>
+        <v>89</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="M63" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_BD_RDD</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3822,38 +3916,40 @@
         <v>60</v>
       </c>
       <c r="B64" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-04</v>
+        <f t="shared" si="13"/>
+        <v>06-01-02</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I64" s="4">
-        <v>8</v>
+        <v>89</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_BD_IFD</v>
+        <f t="shared" si="24"/>
+        <v/>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -3864,24 +3960,24 @@
         <v>61</v>
       </c>
       <c r="B65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-05</v>
+        <f t="shared" si="13"/>
+        <v>06-02</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I65" s="4">
         <v>8</v>
@@ -3891,11 +3987,11 @@
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_BD_API</v>
+        <f t="shared" si="24"/>
+        <v>SSE19_BD_STD</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -3906,24 +4002,24 @@
         <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-06</v>
+        <f t="shared" si="13"/>
+        <v>06-03</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I66" s="4">
         <v>8</v>
@@ -3931,13 +4027,15 @@
       <c r="J66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K66" s="1"/>
+      <c r="K66" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L66" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M66" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_BD_BJD</v>
+        <f t="shared" si="24"/>
+        <v>SSE19_BD_RDD</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -3948,38 +4046,38 @@
         <v>63</v>
       </c>
       <c r="B67" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>05-07</v>
+        <f t="shared" si="13"/>
+        <v>06-04</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I67" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_BD_FL</v>
+        <f t="shared" si="24"/>
+        <v>SSE19_BD_IFD</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -3992,28 +4090,39 @@
       <c r="B68" s="1">
         <v>6</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="6" t="str">
-        <f>TEXT(B68,"00")&amp;IF(C68="","","-"&amp;TEXT(C68,"00"))&amp;IF(D68="","",TEXT(D68,"00"))</f>
-        <v>06</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>06-05</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" s="4">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M68" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>SSE19_BD_API</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
@@ -4024,21 +4133,21 @@
         <v>6</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>06-01</v>
+        <f t="shared" si="13"/>
+        <v>06-06</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="I69" s="4">
         <v>8</v>
@@ -4046,15 +4155,13 @@
       <c r="J69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f>IF(I69="↑","",IF(I69="-","",System_Code&amp;"_"&amp;H69&amp;IF(L69="-","","_"&amp;L69)))</f>
-        <v>SSE19_SD_ACHS</v>
+        <f t="shared" si="24"/>
+        <v>SSE19_BD_BJD</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -4068,37 +4175,35 @@
         <v>6</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>06-02</v>
+        <f t="shared" si="13"/>
+        <v>06-07</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="I70" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f>IF(I70="↑","",IF(I70="-","",System_Code&amp;"_"&amp;H70&amp;IF(L70="-","","_"&amp;L70)))</f>
-        <v>SSE19_SD_ACHA</v>
+        <f t="shared" si="24"/>
+        <v>SSE19_BD_FL</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4109,43 +4214,30 @@
         <v>67</v>
       </c>
       <c r="B71" s="1">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>06-03</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I71" s="4">
-        <v>4</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M71" s="1" t="str">
-        <f>IF(I71="↑","",IF(I71="-","",System_Code&amp;"_"&amp;H71&amp;IF(L71="-","","_"&amp;L71)))</f>
-        <v>SSE19_SD_TBLD</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="E71" s="6" t="str">
+        <f>TEXT(B71,"00")&amp;IF(C71="","","-"&amp;TEXT(C71,"00"))&amp;IF(D71="","",TEXT(D71,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
@@ -4155,28 +4247,41 @@
       <c r="B72" s="1">
         <v>7</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="6" t="str">
-        <f>TEXT(B72,"00")&amp;IF(C72="","","-"&amp;TEXT(C72,"00"))&amp;IF(D72="","",TEXT(D72,"00"))</f>
-        <v>07</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="E72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>07-01</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="4">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M72" s="1" t="str">
+        <f>IF(I72="↑","",IF(I72="-","",System_Code&amp;"_"&amp;H72&amp;IF(L72="-","","_"&amp;L72)))</f>
+        <v>SSE19_SD_ACHS</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
@@ -4187,63 +4292,65 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
-        <f t="shared" ref="E73:E74" si="20">TEXT(B73,"00")&amp;IF(C73="","","-"&amp;TEXT(C73,"00"))&amp;IF(D73="","","-"&amp;TEXT(D73,"00"))</f>
-        <v>07-01</v>
+        <f t="shared" si="13"/>
+        <v>07-02</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="I73" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="L73" s="1" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="M73" s="1" t="str">
         <f>IF(I73="↑","",IF(I73="-","",System_Code&amp;"_"&amp;H73&amp;IF(L73="-","","_"&amp;L73)))</f>
-        <v>SSE19_SCRUM-itr1_MVP</v>
+        <v>SSE19_SD_ACHA</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <f t="shared" ref="A74:A100" si="21">ROW()-4</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B74" s="1">
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>07-02</v>
+        <f t="shared" ref="E74" si="25">TEXT(B74,"00")&amp;IF(C74="","","-"&amp;TEXT(C74,"00"))&amp;IF(D74="","","-"&amp;TEXT(D74,"00"))</f>
+        <v>07-03</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="I74" s="4">
         <v>4</v>
@@ -4251,118 +4358,118 @@
       <c r="J74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="L74" s="1" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="M74" s="1" t="str">
         <f>IF(I74="↑","",IF(I74="-","",System_Code&amp;"_"&amp;H74&amp;IF(L74="-","","_"&amp;L74)))</f>
-        <v>SSE19_SCRUM-itr1_PBL</v>
+        <v>SSE19_SD_ERD</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B75" s="1">
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03</v>
+        <f t="shared" si="13"/>
+        <v>07-04</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="I75" s="4">
+        <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M75" s="1" t="str">
         <f>IF(I75="↑","",IF(I75="-","",System_Code&amp;"_"&amp;H75&amp;IF(L75="-","","_"&amp;L75)))</f>
-        <v/>
+        <v>SSE19_SD_TBLD</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B76" s="1">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="6" t="str">
+        <f>TEXT(B76,"00")&amp;IF(C76="","","-"&amp;TEXT(C76,"00"))&amp;IF(D76="","",TEXT(D76,"00"))</f>
+        <v>08</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="1" t="str">
-        <f t="shared" ref="E76" si="22">TEXT(B76,"00")&amp;IF(C76="","","-"&amp;TEXT(C76,"00"))&amp;IF(D76="","","-"&amp;TEXT(D76,"00"))</f>
-        <v>07-03-01</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I76" s="4">
-        <v>4</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
-        <f t="shared" si="21"/>
-        <v>73</v>
-      </c>
-      <c r="B77" s="1">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-01</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="16" t="s">
-        <v>151</v>
+        <f t="shared" ref="E77:E78" si="26">TEXT(B77,"00")&amp;IF(C77="","","-"&amp;TEXT(C77,"00"))&amp;IF(D77="","","-"&amp;TEXT(D77,"00"))</f>
+        <v>08-01</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="I77" s="4">
         <v>4</v>
@@ -4371,35 +4478,40 @@
         <v>13</v>
       </c>
       <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M77" s="1" t="str">
+        <f>IF(I77="↑","",IF(I77="-","",System_Code&amp;"_"&amp;H77&amp;IF(L77="-","","_"&amp;L77)))</f>
+        <v>SSE19_Iter-pre_MVP</v>
+      </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="A78:A105" si="27">ROW()-4</f>
         <v>74</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1">
         <v>2</v>
       </c>
+      <c r="D78" s="1"/>
       <c r="E78" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-02</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="16" t="s">
-        <v>152</v>
+        <f t="shared" si="26"/>
+        <v>08-02</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="I78" s="4">
         <v>4</v>
@@ -4408,109 +4520,109 @@
         <v>13</v>
       </c>
       <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M78" s="1" t="str">
+        <f>IF(I78="↑","",IF(I78="-","",System_Code&amp;"_"&amp;H78&amp;IF(L78="-","","_"&amp;L78)))</f>
+        <v>SSE19_Iter-pre_PBL</v>
+      </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B79" s="1">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1">
-        <v>3</v>
-      </c>
-      <c r="E79" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-03</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I79" s="4">
-        <v>4</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="6" t="str">
+        <f>TEXT(B79,"00")&amp;IF(C79="","","-"&amp;TEXT(C79,"00"))&amp;IF(D79="","",TEXT(D79,"00"))</f>
+        <v>09</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>76</v>
       </c>
       <c r="B80" s="1">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-04</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="16" t="s">
-        <v>154</v>
+        <f t="shared" si="13"/>
+        <v>09</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I80" s="4">
-        <v>4</v>
+        <v>240</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="M80" s="1" t="str">
+        <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
+        <v/>
+      </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>77</v>
       </c>
       <c r="B81" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-05</v>
+        <f t="shared" ref="E81" si="28">TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","","-"&amp;TEXT(D81,"00"))</f>
+        <v>09-01-01</v>
       </c>
       <c r="F81" s="1"/>
-      <c r="G81" s="16" t="s">
-        <v>155</v>
+      <c r="G81" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I81" s="4">
         <v>4</v>
@@ -4524,30 +4636,30 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>78</v>
       </c>
       <c r="B82" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-06</v>
+        <f t="shared" si="13"/>
+        <v>09-01-02</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I82" s="4">
         <v>4</v>
@@ -4563,28 +4675,28 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>79</v>
       </c>
       <c r="B83" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
         <v>3</v>
       </c>
-      <c r="D83" s="1">
-        <v>7</v>
-      </c>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-07</v>
+        <f t="shared" si="13"/>
+        <v>09-01-03</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I83" s="4">
         <v>4</v>
@@ -4598,30 +4710,30 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-08</v>
+        <f t="shared" si="13"/>
+        <v>09-01-04</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I84" s="4">
         <v>4</v>
@@ -4637,28 +4749,28 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>81</v>
       </c>
       <c r="B85" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-09</v>
+        <f t="shared" si="13"/>
+        <v>09-01-05</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="13" t="s">
-        <v>159</v>
+      <c r="G85" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I85" s="4">
         <v>4</v>
@@ -4672,30 +4784,30 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>82</v>
       </c>
       <c r="B86" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-10</v>
+        <f t="shared" si="13"/>
+        <v>09-02-01</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="13" t="s">
-        <v>160</v>
+      <c r="G86" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I86" s="4">
         <v>4</v>
@@ -4711,28 +4823,28 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>83</v>
       </c>
       <c r="B87" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-11</v>
+        <f t="shared" si="13"/>
+        <v>09-02-02</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="16" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I87" s="4">
         <v>4</v>
@@ -4746,30 +4858,30 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>84</v>
       </c>
       <c r="B88" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
         <v>3</v>
       </c>
-      <c r="D88" s="1">
-        <v>12</v>
-      </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-12</v>
+        <f t="shared" si="13"/>
+        <v>09-02-03</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="16" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I88" s="4">
         <v>4</v>
@@ -4785,28 +4897,28 @@
     </row>
     <row r="89" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>85</v>
       </c>
       <c r="B89" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-13</v>
+        <f t="shared" si="13"/>
+        <v>09-02-04</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
@@ -4822,28 +4934,28 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>86</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1">
         <v>3</v>
       </c>
       <c r="D90" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>TEXT(B90,"00")&amp;IF(C90="","","-"&amp;TEXT(C90,"00"))&amp;IF(D90="","","-"&amp;TEXT(D90,"00"))</f>
-        <v>07-03-19</v>
+        <f t="shared" si="13"/>
+        <v>09-03-01</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="17" t="s">
-        <v>203</v>
+      <c r="G90" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I90" s="4">
         <v>4</v>
@@ -4857,30 +4969,30 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>87</v>
       </c>
       <c r="B91" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1">
         <v>3</v>
       </c>
       <c r="D91" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>TEXT(B91,"00")&amp;IF(C91="","","-"&amp;TEXT(C91,"00"))&amp;IF(D91="","","-"&amp;TEXT(D91,"00"))</f>
-        <v>07-03-21</v>
+        <f t="shared" si="13"/>
+        <v>09-03-02</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="16" t="s">
-        <v>204</v>
+      <c r="G91" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I91" s="4">
         <v>4</v>
@@ -4896,28 +5008,28 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>88</v>
       </c>
       <c r="B92" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1">
         <v>3</v>
       </c>
       <c r="D92" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>TEXT(B92,"00")&amp;IF(C92="","","-"&amp;TEXT(C92,"00"))&amp;IF(D92="","","-"&amp;TEXT(D92,"00"))</f>
-        <v>07-03-22</v>
+        <f t="shared" si="13"/>
+        <v>09-03-03</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="16" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
@@ -4933,28 +5045,28 @@
     </row>
     <row r="93" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>89</v>
       </c>
       <c r="B93" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1">
         <v>3</v>
       </c>
       <c r="D93" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>TEXT(B93,"00")&amp;IF(C93="","","-"&amp;TEXT(C93,"00"))&amp;IF(D93="","","-"&amp;TEXT(D93,"00"))</f>
-        <v>07-03-23</v>
+        <f t="shared" si="13"/>
+        <v>09-03-04</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I93" s="4">
         <v>4</v>
@@ -4968,30 +5080,30 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
       <c r="B94" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
       </c>
       <c r="D94" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-14</v>
+        <f t="shared" si="13"/>
+        <v>09-03-05</v>
       </c>
       <c r="F94" s="1"/>
-      <c r="G94" s="13" t="s">
-        <v>207</v>
+      <c r="G94" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I94" s="4">
         <v>4</v>
@@ -5005,30 +5117,30 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>91</v>
       </c>
       <c r="B95" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-15</v>
+        <f>TEXT(B95,"00")&amp;IF(C95="","","-"&amp;TEXT(C95,"00"))&amp;IF(D95="","","-"&amp;TEXT(D95,"00"))</f>
+        <v>09-04-01</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="16" t="s">
-        <v>208</v>
+      <c r="G95" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I95" s="4">
         <v>4</v>
@@ -5044,28 +5156,28 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>92</v>
       </c>
       <c r="B96" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-16</v>
+        <f>TEXT(B96,"00")&amp;IF(C96="","","-"&amp;TEXT(C96,"00"))&amp;IF(D96="","","-"&amp;TEXT(D96,"00"))</f>
+        <v>09-04-02</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="16" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I96" s="4">
         <v>4</v>
@@ -5079,30 +5191,30 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>93</v>
       </c>
       <c r="B97" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1">
         <v>3</v>
       </c>
-      <c r="D97" s="1">
-        <v>17</v>
-      </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-17</v>
+        <f>TEXT(B97,"00")&amp;IF(C97="","","-"&amp;TEXT(C97,"00"))&amp;IF(D97="","","-"&amp;TEXT(D97,"00"))</f>
+        <v>09-04-03</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="16" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I97" s="4">
         <v>4</v>
@@ -5118,28 +5230,28 @@
     </row>
     <row r="98" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>94</v>
       </c>
       <c r="B98" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-18</v>
+        <f>TEXT(B98,"00")&amp;IF(C98="","","-"&amp;TEXT(C98,"00"))&amp;IF(D98="","","-"&amp;TEXT(D98,"00"))</f>
+        <v>09-04-04</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="16" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I98" s="4">
         <v>4</v>
@@ -5153,30 +5265,30 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>95</v>
       </c>
       <c r="B99" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-24</v>
+        <f t="shared" si="13"/>
+        <v>09-05-01</v>
       </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="16" t="s">
-        <v>164</v>
+      <c r="G99" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I99" s="4">
         <v>4</v>
@@ -5190,30 +5302,30 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>96</v>
       </c>
       <c r="B100" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>07-03-25</v>
+        <f t="shared" si="13"/>
+        <v>09-05-02</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="16" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="I100" s="4">
         <v>4</v>
@@ -5228,27 +5340,228 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="A101" s="1">
+        <f t="shared" si="27"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="1">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>09-05-03</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I101" s="4">
+        <v>4</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <f t="shared" si="27"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="1">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>09-05-04</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I102" s="4">
+        <v>4</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <f t="shared" si="27"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="1">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>09-05-05</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I103" s="4">
+        <v>4</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="1">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>09-06-01</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I104" s="4">
+        <v>4</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <f t="shared" si="27"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="1">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>09-07-01</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I105" s="4">
+        <v>4</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <conditionalFormatting sqref="K6:K23 K25:K106">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;F</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>

--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9EE711-0158-4762-8D29-3A92EF72C7CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED3B7D-B2F6-4762-A613-9DEF7C856660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="253">
   <si>
     <t>No</t>
   </si>
@@ -764,6 +764,39 @@
   </si>
   <si>
     <t>Iter-pre</t>
+  </si>
+  <si>
+    <t>プロトタイプ事前検証</t>
+  </si>
+  <si>
+    <t>Validation for Prototyping</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>keystrokes</t>
+  </si>
+  <si>
+    <t>PC Monitoring (Key Strokeを監視）</t>
+  </si>
+  <si>
+    <t>ActiveWindows</t>
+  </si>
+  <si>
+    <t>PC Monitoring (Active Windowを監視）</t>
+  </si>
+  <si>
+    <t>検証用プロトタイプ</t>
+  </si>
+  <si>
+    <t>activewindow</t>
+  </si>
+  <si>
+    <t>pcactiveinfo</t>
+  </si>
+  <si>
+    <t>PC Monitoringデータを加工</t>
   </si>
 </sst>
 </file>
@@ -935,7 +968,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1277,13 +1450,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1532,7 +1705,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A79" si="3">ROW()-4</f>
+        <f t="shared" ref="A9:A84" si="3">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -2171,7 +2344,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>47</v>
@@ -2216,7 +2389,9 @@
       <c r="J24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2260,7 +2435,9 @@
       <c r="J25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2286,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E105" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
+        <f t="shared" ref="E26:E110" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
         <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2304,7 +2481,9 @@
       <c r="J26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2348,7 +2527,9 @@
       <c r="J27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L27" s="1" t="s">
         <v>23</v>
       </c>
@@ -2392,7 +2573,9 @@
       <c r="J28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2644,7 +2827,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>100</v>
@@ -2683,19 +2866,21 @@
       <c r="H35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>23</v>
+      <c r="I35" s="4">
+        <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="L35" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>SSE19_RD_UXD</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3337,14 +3522,12 @@
         <v>05</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>165</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H50" s="6"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -3366,31 +3549,25 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="str">
-        <f t="shared" ref="E51:E58" si="18">TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","","-"&amp;TEXT(D51,"00"))</f>
+        <f t="shared" ref="E51:E54" si="18">TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","","-"&amp;TEXT(D51,"00"))</f>
         <v>05-01</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="15" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" s="4">
-        <v>8</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="L51" s="1"/>
       <c r="M51" s="1" t="str">
-        <f t="shared" ref="M51:M58" si="19">IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
-        <v>SSE19_CD_CUSTD</v>
+        <f>IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
+        <v/>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3404,39 +3581,37 @@
         <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>05-01-01</v>
+        <v>05-02</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>94</v>
+        <v>245</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>23</v>
+        <v>244</v>
+      </c>
+      <c r="I52" s="4">
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M52" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
+        <v>SSE19_VALID_keystrokes</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3450,39 +3625,37 @@
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>05-01-02</v>
+        <f t="shared" ref="E53" si="19">TEXT(B53,"00")&amp;IF(C53="","","-"&amp;TEXT(C53,"00"))&amp;IF(D53="","","-"&amp;TEXT(D53,"00"))</f>
+        <v>05-03</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>95</v>
+        <v>247</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>23</v>
+        <v>244</v>
+      </c>
+      <c r="I53" s="4">
+        <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="M53" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f>IF(I53="↑","",IF(I53="-","",System_Code&amp;"_"&amp;H53&amp;IF(L53="-","","_"&amp;L53)))</f>
+        <v>SSE19_VALID_activewindow</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3496,35 +3669,37 @@
         <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>05-02</v>
+        <v>05-04</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="I54" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="L54" s="1" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="M54" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>SSE19_CD_CUST_IV</v>
+        <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
+        <v>SSE19_VALID_pcactiveinfo</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3535,43 +3710,30 @@
         <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <f t="shared" ref="E55:E56" si="20">TEXT(B55,"00")&amp;IF(C55="","","-"&amp;TEXT(C55,"00"))&amp;IF(D55="","","-"&amp;TEXT(D55,"00"))</f>
-        <v>05-02-01</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="6" t="str">
+        <f>TEXT(B55,"00")&amp;IF(C55="","","-"&amp;TEXT(C55,"00"))&amp;IF(D55="","",TEXT(D55,"00"))</f>
+        <v>06</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="1" t="str">
-        <f t="shared" ref="M55:M56" si="21">IF(I55="↑","",IF(I55="-","",System_Code&amp;"_"&amp;H55&amp;IF(L55="-","","_"&amp;L55)))</f>
-        <v/>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -3579,85 +3741,85 @@
         <v>52</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>05-02-02</v>
+        <f t="shared" ref="E56:E63" si="20">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
+        <v>06-01</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>23</v>
+      <c r="I56" s="4">
+        <v>8</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="M56" s="1" t="str">
+        <f t="shared" ref="M56:M63" si="21">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
+        <v>SSE19_CD_CUSTD</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>06-01-01</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="1" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>05-02-03</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
@@ -3667,23 +3829,23 @@
         <v>54</v>
       </c>
       <c r="B58" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="1">
-        <v>4</v>
-      </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>05-02-04</v>
+        <f t="shared" si="20"/>
+        <v>06-01-02</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>165</v>
@@ -3694,12 +3856,14 @@
       <c r="J58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N58" s="1"/>
@@ -3711,40 +3875,38 @@
         <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="str">
-        <f t="shared" ref="E59:E60" si="22">TEXT(B59,"00")&amp;IF(C59="","","-"&amp;TEXT(C59,"00"))&amp;IF(D59="","","-"&amp;TEXT(D59,"00"))</f>
-        <v>05-02-05</v>
+        <f t="shared" si="20"/>
+        <v>06-02</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>23</v>
+      <c r="I59" s="4">
+        <v>10</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" ref="M59:M60" si="23">IF(I59="↑","",IF(I59="-","",System_Code&amp;"_"&amp;H59&amp;IF(L59="-","","_"&amp;L59)))</f>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>SSE19_CD_CUST_IV</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3755,23 +3917,23 @@
         <v>56</v>
       </c>
       <c r="B60" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>05-02-06</v>
+        <f t="shared" ref="E60:E61" si="22">TEXT(B60,"00")&amp;IF(C60="","","-"&amp;TEXT(C60,"00"))&amp;IF(D60="","","-"&amp;TEXT(D60,"00"))</f>
+        <v>06-02-01</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>165</v>
@@ -3787,42 +3949,55 @@
         <v>23</v>
       </c>
       <c r="M60" s="1" t="str">
+        <f t="shared" ref="M60:M61" si="23">IF(I60="↑","",IF(I60="-","",System_Code&amp;"_"&amp;H60&amp;IF(L60="-","","_"&amp;L60)))</f>
+        <v/>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06-02-02</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="B61" s="1">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="6" t="str">
-        <f>TEXT(B61,"00")&amp;IF(C61="","","-"&amp;TEXT(C61,"00"))&amp;IF(D61="","",TEXT(D61,"00"))</f>
-        <v>06</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
@@ -3833,35 +4008,37 @@
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3</v>
+      </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>06-01</v>
+        <f t="shared" si="20"/>
+        <v>06-02-03</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>97</v>
+        <v>178</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="4">
-        <v>8</v>
+        <v>165</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" ref="M62:M70" si="24">IF(I62="↑","",IF(I62="-","",System_Code&amp;"_"&amp;H62&amp;IF(L62="-","","_"&amp;L62)))</f>
-        <v>SSE19_BD_SDD</v>
+        <f t="shared" si="21"/>
+        <v/>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3875,23 +4052,23 @@
         <v>6</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>06-01-01</v>
+        <f t="shared" si="20"/>
+        <v>06-02-04</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>23</v>
@@ -3904,7 +4081,7 @@
         <v>23</v>
       </c>
       <c r="M63" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N63" s="1"/>
@@ -3919,23 +4096,23 @@
         <v>6</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>06-01-02</v>
+        <f t="shared" ref="E64:E65" si="24">TEXT(B64,"00")&amp;IF(C64="","","-"&amp;TEXT(C64,"00"))&amp;IF(D64="","","-"&amp;TEXT(D64,"00"))</f>
+        <v>06-02-05</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>23</v>
@@ -3948,7 +4125,7 @@
         <v>23</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="M64:M65" si="25">IF(I64="↑","",IF(I64="-","",System_Code&amp;"_"&amp;H64&amp;IF(L64="-","","_"&amp;L64)))</f>
         <v/>
       </c>
       <c r="N64" s="1"/>
@@ -3965,33 +4142,35 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1">
+        <v>6</v>
+      </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>06-02</v>
+        <f t="shared" si="24"/>
+        <v>06-02-06</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>96</v>
+        <v>181</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I65" s="4">
-        <v>8</v>
+        <v>165</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>SSE19_BD_STD</v>
+        <f t="shared" si="25"/>
+        <v/>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -4002,43 +4181,30 @@
         <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>06-03</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="E66" s="6" t="str">
+        <f>TEXT(B66,"00")&amp;IF(C66="","","-"&amp;TEXT(C66,"00"))&amp;IF(D66="","",TEXT(D66,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="4">
-        <v>8</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M66" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>SSE19_BD_RDD</v>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
@@ -4046,21 +4212,21 @@
         <v>63</v>
       </c>
       <c r="B67" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>06-04</v>
+        <v>07-01</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>89</v>
@@ -4073,11 +4239,11 @@
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>SSE19_BD_IFD</v>
+        <f t="shared" ref="M67:M75" si="26">IF(I67="↑","",IF(I67="-","",System_Code&amp;"_"&amp;H67&amp;IF(L67="-","","_"&amp;L67)))</f>
+        <v>SSE19_BD_SDD</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -4088,38 +4254,40 @@
         <v>64</v>
       </c>
       <c r="B68" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>06-05</v>
+        <v>07-01-01</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I68" s="4">
-        <v>8</v>
+      <c r="I68" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>SSE19_BD_API</v>
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -4130,38 +4298,40 @@
         <v>65</v>
       </c>
       <c r="B69" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>06-06</v>
+        <v>07-01-02</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="4">
-        <v>8</v>
+      <c r="I69" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>SSE19_BD_BJD</v>
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -4172,38 +4342,38 @@
         <v>66</v>
       </c>
       <c r="B70" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>06-07</v>
+        <v>07-02</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I70" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>SSE19_BD_FL</v>
+        <f t="shared" si="26"/>
+        <v>SSE19_BD_STD</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4216,28 +4386,41 @@
       <c r="B71" s="1">
         <v>7</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="6" t="str">
-        <f>TEXT(B71,"00")&amp;IF(C71="","","-"&amp;TEXT(C71,"00"))&amp;IF(D71="","",TEXT(D71,"00"))</f>
-        <v>07</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+      <c r="E71" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>07-03</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I71" s="4">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M71" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>SSE19_BD_RDD</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
@@ -4248,21 +4431,21 @@
         <v>7</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-01</v>
+        <v>07-04</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I72" s="4">
         <v>8</v>
@@ -4270,15 +4453,13 @@
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f>IF(I72="↑","",IF(I72="-","",System_Code&amp;"_"&amp;H72&amp;IF(L72="-","","_"&amp;L72)))</f>
-        <v>SSE19_SD_ACHS</v>
+        <f t="shared" si="26"/>
+        <v>SSE19_BD_IFD</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4292,21 +4473,21 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-02</v>
+        <v>07-05</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I73" s="4">
         <v>8</v>
@@ -4314,15 +4495,13 @@
       <c r="J73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f>IF(I73="↑","",IF(I73="-","",System_Code&amp;"_"&amp;H73&amp;IF(L73="-","","_"&amp;L73)))</f>
-        <v>SSE19_SD_ACHA</v>
+        <f t="shared" si="26"/>
+        <v>SSE19_BD_API</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4336,37 +4515,35 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
-        <f t="shared" ref="E74" si="25">TEXT(B74,"00")&amp;IF(C74="","","-"&amp;TEXT(C74,"00"))&amp;IF(D74="","","-"&amp;TEXT(D74,"00"))</f>
-        <v>07-03</v>
+        <f t="shared" si="13"/>
+        <v>07-06</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I74" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f>IF(I74="↑","",IF(I74="-","",System_Code&amp;"_"&amp;H74&amp;IF(L74="-","","_"&amp;L74)))</f>
-        <v>SSE19_SD_ERD</v>
+        <f t="shared" si="26"/>
+        <v>SSE19_BD_BJD</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -4380,21 +4557,21 @@
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-04</v>
+        <v>07-07</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I75" s="4">
         <v>4</v>
@@ -4402,15 +4579,13 @@
       <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f>IF(I75="↑","",IF(I75="-","",System_Code&amp;"_"&amp;H75&amp;IF(L75="-","","_"&amp;L75)))</f>
-        <v>SSE19_SD_TBLD</v>
+        <f t="shared" si="26"/>
+        <v>SSE19_BD_FL</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4430,13 +4605,13 @@
         <v>08</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="6"/>
@@ -4459,38 +4634,40 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
-        <f t="shared" ref="E77:E78" si="26">TEXT(B77,"00")&amp;IF(C77="","","-"&amp;TEXT(C77,"00"))&amp;IF(D77="","","-"&amp;TEXT(D77,"00"))</f>
+        <f t="shared" si="13"/>
         <v>08-01</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="I77" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="L77" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="M77" s="1" t="str">
         <f>IF(I77="↑","",IF(I77="-","",System_Code&amp;"_"&amp;H77&amp;IF(L77="-","","_"&amp;L77)))</f>
-        <v>SSE19_Iter-pre_MVP</v>
+        <v>SSE19_SD_ACHS</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <f t="shared" ref="A78:A105" si="27">ROW()-4</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B78" s="1">
@@ -4501,31 +4678,33 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>08-02</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="I78" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="1"/>
+      <c r="K78" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="L78" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="M78" s="1" t="str">
         <f>IF(I78="↑","",IF(I78="-","",System_Code&amp;"_"&amp;H78&amp;IF(L78="-","","_"&amp;L78)))</f>
-        <v>SSE19_Iter-pre_PBL</v>
+        <v>SSE19_SD_ACHA</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -4536,109 +4715,122 @@
         <v>75</v>
       </c>
       <c r="B79" s="1">
-        <v>9</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="6" t="str">
-        <f>TEXT(B79,"00")&amp;IF(C79="","","-"&amp;TEXT(C79,"00"))&amp;IF(D79="","",TEXT(D79,"00"))</f>
-        <v>09</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+      <c r="E79" s="1" t="str">
+        <f t="shared" ref="E79" si="27">TEXT(B79,"00")&amp;IF(C79="","","-"&amp;TEXT(C79,"00"))&amp;IF(D79="","","-"&amp;TEXT(D79,"00"))</f>
+        <v>08-03</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I79" s="4">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M79" s="1" t="str">
+        <f>IF(I79="↑","",IF(I79="-","",System_Code&amp;"_"&amp;H79&amp;IF(L79="-","","_"&amp;L79)))</f>
+        <v>SSE19_SD_ERD</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B80" s="1">
-        <v>9</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09</v>
+        <v>08-04</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="I80" s="4">
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M80" s="1" t="str">
         <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
-        <v/>
+        <v>SSE19_SD_TBLD</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B81" s="1">
         <v>9</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="str">
-        <f t="shared" ref="E81" si="28">TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","","-"&amp;TEXT(D81,"00"))</f>
-        <v>09-01-01</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I81" s="4">
-        <v>4</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="6" t="str">
+        <f>TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","",TEXT(D81,"00"))</f>
+        <v>09</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B82" s="1">
@@ -4647,19 +4839,19 @@
       <c r="C82" s="1">
         <v>1</v>
       </c>
-      <c r="D82" s="1">
-        <v>2</v>
-      </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-01-02</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="16" t="s">
-        <v>142</v>
+        <f t="shared" ref="E82:E83" si="28">TEXT(B82,"00")&amp;IF(C82="","","-"&amp;TEXT(C82,"00"))&amp;IF(D82="","","-"&amp;TEXT(D82,"00"))</f>
+        <v>09-01</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I82" s="4">
         <v>4</v>
@@ -4668,35 +4860,40 @@
         <v>13</v>
       </c>
       <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f>IF(I82="↑","",IF(I82="-","",System_Code&amp;"_"&amp;H82&amp;IF(L82="-","","_"&amp;L82)))</f>
+        <v>SSE19_Iter-pre_MVP</v>
+      </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="A83:A110" si="29">ROW()-4</f>
         <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>9</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D83" s="1"/>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-01-03</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="16" t="s">
-        <v>143</v>
+        <f t="shared" si="28"/>
+        <v>09-02</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I83" s="4">
         <v>4</v>
@@ -4705,106 +4902,106 @@
         <v>13</v>
       </c>
       <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M83" s="1" t="str">
+        <f>IF(I83="↑","",IF(I83="-","",System_Code&amp;"_"&amp;H83&amp;IF(L83="-","","_"&amp;L83)))</f>
+        <v>SSE19_Iter-pre_PBL</v>
+      </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-01-04</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="6" t="str">
+        <f>TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","",TEXT(D84,"00"))</f>
+        <v>10</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="I84" s="4">
-        <v>4</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>81</v>
       </c>
       <c r="B85" s="1">
-        <v>9</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-01-05</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="16" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I85" s="4">
-        <v>4</v>
+      <c r="I85" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="1" t="str">
+        <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
+        <v/>
+      </c>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>82</v>
       </c>
       <c r="B86" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-02-01</v>
+        <f t="shared" ref="E86" si="30">TEXT(B86,"00")&amp;IF(C86="","","-"&amp;TEXT(C86,"00"))&amp;IF(D86="","","-"&amp;TEXT(D86,"00"))</f>
+        <v>10-01-01</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="16" t="s">
-        <v>146</v>
+      <c r="G86" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>240</v>
@@ -4821,27 +5018,27 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>83</v>
       </c>
       <c r="B87" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-02-02</v>
+        <v>10-01-02</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>240</v>
@@ -4860,25 +5057,25 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>84</v>
       </c>
       <c r="B88" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-02-03</v>
+        <v>10-01-03</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>240</v>
@@ -4895,27 +5092,27 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>85</v>
       </c>
       <c r="B89" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>4</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-02-04</v>
+        <v>10-01-04</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>240</v>
@@ -4934,25 +5131,25 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>86</v>
       </c>
       <c r="B90" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-03-01</v>
+        <v>10-01-05</v>
       </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="13" t="s">
-        <v>150</v>
+      <c r="G90" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>240</v>
@@ -4969,27 +5166,27 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>87</v>
       </c>
       <c r="B91" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-03-02</v>
+        <v>10-02-01</v>
       </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="13" t="s">
-        <v>151</v>
+      <c r="G91" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>240</v>
@@ -5008,25 +5205,25 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>88</v>
       </c>
       <c r="B92" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-03-03</v>
+        <v>10-02-02</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>240</v>
@@ -5043,27 +5240,27 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>89</v>
       </c>
       <c r="B93" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
         <v>3</v>
-      </c>
-      <c r="D93" s="1">
-        <v>4</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-03-04</v>
+        <v>10-02-03</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>240</v>
@@ -5082,25 +5279,25 @@
     </row>
     <row r="94" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="B94" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-03-05</v>
+        <v>10-02-04</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>240</v>
@@ -5119,25 +5316,25 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>91</v>
       </c>
       <c r="B95" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>TEXT(B95,"00")&amp;IF(C95="","","-"&amp;TEXT(C95,"00"))&amp;IF(D95="","","-"&amp;TEXT(D95,"00"))</f>
-        <v>09-04-01</v>
+        <f t="shared" si="13"/>
+        <v>10-03-01</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="17" t="s">
-        <v>193</v>
+      <c r="G95" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>240</v>
@@ -5154,27 +5351,27 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>92</v>
       </c>
       <c r="B96" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1">
         <v>2</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>TEXT(B96,"00")&amp;IF(C96="","","-"&amp;TEXT(C96,"00"))&amp;IF(D96="","","-"&amp;TEXT(D96,"00"))</f>
-        <v>09-04-02</v>
+        <f t="shared" si="13"/>
+        <v>10-03-02</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="16" t="s">
-        <v>194</v>
+      <c r="G96" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>240</v>
@@ -5193,25 +5390,25 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>93</v>
       </c>
       <c r="B97" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>TEXT(B97,"00")&amp;IF(C97="","","-"&amp;TEXT(C97,"00"))&amp;IF(D97="","","-"&amp;TEXT(D97,"00"))</f>
-        <v>09-04-03</v>
+        <f t="shared" si="13"/>
+        <v>10-03-03</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="16" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>240</v>
@@ -5230,25 +5427,25 @@
     </row>
     <row r="98" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>94</v>
       </c>
       <c r="B98" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>4</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>TEXT(B98,"00")&amp;IF(C98="","","-"&amp;TEXT(C98,"00"))&amp;IF(D98="","","-"&amp;TEXT(D98,"00"))</f>
-        <v>09-04-04</v>
+        <f t="shared" si="13"/>
+        <v>10-03-04</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="16" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>240</v>
@@ -5265,27 +5462,27 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>95</v>
       </c>
       <c r="B99" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1">
         <v>5</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-05-01</v>
+        <v>10-03-05</v>
       </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="13" t="s">
-        <v>197</v>
+      <c r="G99" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>240</v>
@@ -5302,27 +5499,27 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>96</v>
       </c>
       <c r="B100" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-05-02</v>
+        <f>TEXT(B100,"00")&amp;IF(C100="","","-"&amp;TEXT(C100,"00"))&amp;IF(D100="","","-"&amp;TEXT(D100,"00"))</f>
+        <v>10-04-01</v>
       </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="16" t="s">
-        <v>198</v>
+      <c r="G100" s="17" t="s">
+        <v>193</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>240</v>
@@ -5341,25 +5538,25 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>97</v>
       </c>
       <c r="B101" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-05-03</v>
+        <f>TEXT(B101,"00")&amp;IF(C101="","","-"&amp;TEXT(C101,"00"))&amp;IF(D101="","","-"&amp;TEXT(D101,"00"))</f>
+        <v>10-04-02</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>240</v>
@@ -5376,27 +5573,27 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="B102" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-05-04</v>
+        <f>TEXT(B102,"00")&amp;IF(C102="","","-"&amp;TEXT(C102,"00"))&amp;IF(D102="","","-"&amp;TEXT(D102,"00"))</f>
+        <v>10-04-03</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>240</v>
@@ -5415,25 +5612,25 @@
     </row>
     <row r="103" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>99</v>
       </c>
       <c r="B103" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>09-05-05</v>
+        <f>TEXT(B103,"00")&amp;IF(C103="","","-"&amp;TEXT(C103,"00"))&amp;IF(D103="","","-"&amp;TEXT(D103,"00"))</f>
+        <v>10-04-04</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>240</v>
@@ -5450,27 +5647,27 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="B104" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-06-01</v>
+        <v>10-05-01</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104" s="16" t="s">
-        <v>155</v>
+      <c r="G104" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>240</v>
@@ -5487,27 +5684,27 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>101</v>
       </c>
       <c r="B105" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>09-07-01</v>
+        <v>10-05-02</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="16" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>240</v>
@@ -5525,34 +5722,275 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+      <c r="A106" s="1">
+        <f t="shared" si="29"/>
+        <v>102</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-05-03</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I106" s="4">
+        <v>4</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <f t="shared" si="29"/>
+        <v>103</v>
+      </c>
+      <c r="B107" s="1">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-05-04</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I107" s="4">
+        <v>4</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <f t="shared" si="29"/>
+        <v>104</v>
+      </c>
+      <c r="B108" s="1">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-05-05</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I108" s="4">
+        <v>4</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <f t="shared" si="29"/>
+        <v>105</v>
+      </c>
+      <c r="B109" s="1">
+        <v>10</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-06-01</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I109" s="4">
+        <v>4</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <f t="shared" si="29"/>
+        <v>106</v>
+      </c>
+      <c r="B110" s="1">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-07-01</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I110" s="4">
+        <v>4</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K6:K23 K25:K106">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="K6:K22 K29:K49 K55:K111">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:K51">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:K54">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>

--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ED3B7D-B2F6-4762-A613-9DEF7C856660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418B158-7B6B-4FF6-B207-C72E60C1B781}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="263">
   <si>
     <t>No</t>
   </si>
@@ -181,9 +181,6 @@
     <t>イノベーション設計</t>
   </si>
   <si>
-    <t>INNOD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Project Control </t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>STD</t>
   </si>
   <si>
-    <t>SDD</t>
-  </si>
-  <si>
     <t>UXD</t>
   </si>
   <si>
@@ -409,12 +403,6 @@
     <t>アプリケーション・アーキテクチャ設計</t>
   </si>
   <si>
-    <t>ACHS</t>
-  </si>
-  <si>
-    <t>ACHA</t>
-  </si>
-  <si>
     <t>Smart SE 2019-19 修了制作：働き方バランスアップサービス開発</t>
   </si>
   <si>
@@ -460,9 +448,6 @@
     <t>List up back log list</t>
   </si>
   <si>
-    <t>プロダクト・バックログ、スプリントバックログを決める</t>
-  </si>
-  <si>
     <t>1.1 GPS位置データを取得する（センサー側）</t>
   </si>
   <si>
@@ -604,12 +589,6 @@
     <t>Yさん</t>
   </si>
   <si>
-    <t>CUSTD</t>
-  </si>
-  <si>
-    <t>CUST_IV</t>
-  </si>
-  <si>
     <t>サービス提案（仮説）</t>
   </si>
   <si>
@@ -772,9 +751,6 @@
     <t>Validation for Prototyping</t>
   </si>
   <si>
-    <t>VALID</t>
-  </si>
-  <si>
     <t>keystrokes</t>
   </si>
   <si>
@@ -790,13 +766,67 @@
     <t>検証用プロトタイプ</t>
   </si>
   <si>
-    <t>activewindow</t>
-  </si>
-  <si>
     <t>pcactiveinfo</t>
   </si>
   <si>
     <t>PC Monitoringデータを加工</t>
+  </si>
+  <si>
+    <t>REQD</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>ペルソナ</t>
+  </si>
+  <si>
+    <t>Customer Interview</t>
+  </si>
+  <si>
+    <t>顧客インタビュー</t>
+  </si>
+  <si>
+    <t>INTERVIEW</t>
+  </si>
+  <si>
+    <t>PROTO</t>
+  </si>
+  <si>
+    <t>PROTD_keystrokes</t>
+  </si>
+  <si>
+    <t>PROTD_activewindow</t>
+  </si>
+  <si>
+    <t>PROTD_pcactiveinfo</t>
+  </si>
+  <si>
+    <t>ARCA</t>
+  </si>
+  <si>
+    <t>ARCS</t>
+  </si>
+  <si>
+    <t>対象外</t>
+  </si>
+  <si>
+    <t>SDD_01_Dashboard</t>
+  </si>
+  <si>
+    <t>SDD_00_Menu</t>
+  </si>
+  <si>
+    <t>List up sprint log list</t>
+  </si>
+  <si>
+    <t>プロダクト・バックログを決める</t>
+  </si>
+  <si>
+    <t>スプリントバックログを決める</t>
+  </si>
+  <si>
+    <t>SBL</t>
   </si>
 </sst>
 </file>
@@ -968,35 +998,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1450,13 +1452,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M54" sqref="M54"/>
+      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,14 +1478,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C1" s="11"/>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1495,7 +1497,7 @@
       </c>
       <c r="G2" s="9"/>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O2" s="12">
         <v>43697</v>
@@ -1538,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>18</v>
@@ -1568,13 +1570,13 @@
         <v>01</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -1604,10 +1606,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
@@ -1616,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
@@ -1648,10 +1650,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
@@ -1660,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1705,7 +1707,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A84" si="3">ROW()-4</f>
+        <f t="shared" ref="A9:A85" si="3">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -1735,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
@@ -1779,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>24</v>
@@ -1823,7 +1825,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
@@ -1855,7 +1857,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -1867,7 +1869,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>32</v>
@@ -1911,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>35</v>
@@ -1940,10 +1942,10 @@
         <v>02-06</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -1954,7 +1956,9 @@
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -1999,10 +2003,10 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2033,7 +2037,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -2044,9 +2048,11 @@
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="L16" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2077,7 +2083,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -2088,9 +2094,11 @@
       <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="L17" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2118,10 +2126,10 @@
         <v>02-07-04</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -2132,9 +2140,11 @@
       <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="L18" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" ref="M18" si="8">IF(I18="↑","",IF(I18="-","",System_Code&amp;"_"&amp;H18&amp;IF(L18="-","","_"&amp;L18)))</f>
@@ -2165,7 +2175,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -2177,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>40</v>
@@ -2208,10 +2218,10 @@
         <v>02-07-06</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -2223,10 +2233,10 @@
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" ref="M20" si="10">IF(I20="↑","",IF(I20="-","",System_Code&amp;"_"&amp;H20&amp;IF(L20="-","","_"&amp;L20)))</f>
@@ -2254,10 +2264,10 @@
         <v>02-07-07</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -2269,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>30</v>
@@ -2296,13 +2306,13 @@
         <v>03</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
@@ -2335,7 +2345,7 @@
         <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I23" s="4">
         <v>8</v>
@@ -2344,14 +2354,14 @@
         <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" ref="M23:M49" si="11">IF(I23="↑","",IF(I23="-","",System_Code&amp;"_"&amp;H23&amp;IF(L23="-","","_"&amp;L23)))</f>
-        <v>SSE19_Biz_INNOD</v>
+        <f>IF(I23="↑","",IF(I23="-","",System_Code&amp;"_"&amp;H23&amp;IF(L23="-","","_"&amp;L23)))</f>
+        <v>SSE19_Biz</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2375,28 +2385,28 @@
         <v>03-01-01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" ref="M24" si="12">IF(I24="↑","",IF(I24="-","",System_Code&amp;"_"&amp;H24&amp;IF(L24="-","","_"&amp;L24)))</f>
+        <f t="shared" ref="M24" si="11">IF(I24="↑","",IF(I24="-","",System_Code&amp;"_"&amp;H24&amp;IF(L24="-","","_"&amp;L24)))</f>
         <v/>
       </c>
       <c r="N24" s="1"/>
@@ -2421,28 +2431,28 @@
         <v>03-01-02</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="H25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="J25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M25:M50" si="12">IF(I25="↑","",IF(I25="-","",System_Code&amp;"_"&amp;H25&amp;IF(L25="-","","_"&amp;L25)))</f>
         <v/>
       </c>
       <c r="N25" s="1"/>
@@ -2463,32 +2473,32 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E110" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
+        <f t="shared" ref="E26:E112" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
         <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N26" s="1"/>
@@ -2513,28 +2523,28 @@
         <v>03-01-04</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N27" s="1"/>
@@ -2559,28 +2569,28 @@
         <v>03-01-05</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N28" s="1"/>
@@ -2634,29 +2644,29 @@
         <v>04-02</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="4">
-        <v>8</v>
+      <c r="I30" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>SSE19_RD</v>
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2680,27 +2690,29 @@
         <v>04-02-01</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>52</v>
+      <c r="I31" s="10">
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L31" s="1" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_REQD</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2724,10 +2736,10 @@
         <v>04-02-02</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>42</v>
@@ -2739,13 +2751,13 @@
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_REQL</v>
       </c>
       <c r="N32" s="1"/>
@@ -2768,10 +2780,10 @@
         <v>04-03</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>42</v>
@@ -2782,12 +2794,14 @@
       <c r="J33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N33" s="1"/>
@@ -2808,32 +2822,32 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E34" si="15">TEXT(B34,"00")&amp;IF(C34="","","-"&amp;TEXT(C34,"00"))&amp;IF(D34="","","-"&amp;TEXT(D34,"00"))</f>
         <v>04-03-01</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I34" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M34" si="16">IF(I34="↑","",IF(I34="-","",System_Code&amp;"_"&amp;H34&amp;IF(L34="-","","_"&amp;L34)))</f>
         <v>SSE19_RD_UXD</v>
       </c>
       <c r="N34" s="1"/>
@@ -2858,28 +2872,28 @@
         <v>04-03-02</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I35" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_UXD</v>
       </c>
       <c r="N35" s="1"/>
@@ -2894,35 +2908,39 @@
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04</v>
+        <v>04-03-03</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
+      <c r="I36" s="4">
+        <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="L36" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_UXD</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2938,35 +2956,33 @@
       <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-01</v>
+        <v>04-04</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>202</v>
+        <v>72</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="4">
-        <v>4</v>
+      <c r="I37" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>SSE19_RD_USD</v>
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2983,33 +2999,35 @@
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-02</v>
+        <v>04-04-01</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N38" s="1"/>
@@ -3027,33 +3045,35 @@
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-03</v>
+        <v>04-04-02</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N39" s="1"/>
@@ -3071,33 +3091,35 @@
         <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-04</v>
+        <v>04-04-03</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I40" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N40" s="1"/>
@@ -3115,33 +3137,35 @@
         <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-05</v>
+        <v>04-04-04</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N41" s="1"/>
@@ -3159,17 +3183,17 @@
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-06</v>
+        <v>04-04-05</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>42</v>
@@ -3180,12 +3204,14 @@
       <c r="J42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>SSE19_RD_USD</v>
       </c>
       <c r="N42" s="1"/>
@@ -3203,17 +3229,17 @@
         <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-07</v>
+        <v>04-04-06</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>42</v>
@@ -3224,13 +3250,15 @@
       <c r="J43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>SSE19_RD_USD_OP</v>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_USD</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3244,35 +3272,39 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" ref="E44:E48" si="15">TEXT(B44,"00")&amp;IF(C44="","","-"&amp;TEXT(C44,"00"))&amp;IF(D44="","","-"&amp;TEXT(D44,"00"))</f>
-        <v>04-05</v>
+        <f t="shared" si="13"/>
+        <v>04-04-07</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>158</v>
+        <v>81</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>23</v>
+      <c r="I44" s="4">
+        <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="L44" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_USD_OP</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3288,37 +3320,35 @@
       <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>04-05-01</v>
+        <f t="shared" ref="E45:E49" si="17">TEXT(B45,"00")&amp;IF(C45="","","-"&amp;TEXT(C45,"00"))&amp;IF(D45="","","-"&amp;TEXT(D45,"00"))</f>
+        <v>04-05</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>162</v>
+        <v>152</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="4">
-        <v>4</v>
+      <c r="I45" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="M45" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>SSE19_RD_CD</v>
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3335,17 +3365,17 @@
         <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>04-05-02</v>
+        <f t="shared" si="17"/>
+        <v>04-05-01</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>42</v>
@@ -3357,14 +3387,14 @@
         <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M46" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>SSE19_RD_CRD</v>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_CD</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3381,17 +3411,17 @@
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>04-05-03</v>
+        <f t="shared" si="17"/>
+        <v>04-05-02</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>42</v>
@@ -3403,14 +3433,14 @@
         <v>13</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" ref="M47:M48" si="16">IF(I47="↑","",IF(I47="-","",System_Code&amp;"_"&amp;H47&amp;IF(L47="-","","_"&amp;L47)))</f>
-        <v>SSE19_RD_DFD</v>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_CRD</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3427,17 +3457,17 @@
         <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>04-05-04</v>
+        <f t="shared" si="17"/>
+        <v>04-05-03</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>42</v>
@@ -3449,14 +3479,14 @@
         <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SSE19_RD_DFS</v>
+        <f t="shared" ref="M48:M49" si="18">IF(I48="↑","",IF(I48="-","",System_Code&amp;"_"&amp;H48&amp;IF(L48="-","","_"&amp;L48)))</f>
+        <v>SSE19_RD_DFD</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3473,17 +3503,17 @@
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" ref="E49" si="17">TEXT(B49,"00")&amp;IF(C49="","","-"&amp;TEXT(C49,"00"))&amp;IF(D49="","","-"&amp;TEXT(D49,"00"))</f>
-        <v>04-05-05</v>
+        <f t="shared" si="17"/>
+        <v>04-05-04</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>42</v>
@@ -3495,14 +3525,14 @@
         <v>13</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>SSE19_RD_DSM</v>
+        <f t="shared" si="18"/>
+        <v>SSE19_RD_DFS</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3513,28 +3543,45 @@
         <v>46</v>
       </c>
       <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="6" t="str">
-        <f>TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","",TEXT(D50,"00"))</f>
-        <v>05</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" ref="E50" si="19">TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","","-"&amp;TEXT(D50,"00"))</f>
+        <v>04-05-05</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_DSM</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
@@ -3544,33 +3591,28 @@
       <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1" t="str">
-        <f t="shared" ref="E51:E54" si="18">TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","","-"&amp;TEXT(D51,"00"))</f>
-        <v>05-01</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1" t="str">
-        <f>IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
-        <v/>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="E51" s="6" t="str">
+        <f>TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","",TEXT(D51,"00"))</f>
+        <v>05</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
@@ -3581,37 +3623,35 @@
         <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>05-02</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>245</v>
-      </c>
+        <f t="shared" ref="E52:E55" si="20">TEXT(B52,"00")&amp;IF(C52="","","-"&amp;TEXT(C52,"00"))&amp;IF(D52="","","-"&amp;TEXT(D52,"00"))</f>
+        <v>05-01</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I52" s="4">
-        <v>12</v>
+        <v>160</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
-        <v>SSE19_VALID_keystrokes</v>
+        <v/>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3625,21 +3665,23 @@
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" ref="E53" si="19">TEXT(B53,"00")&amp;IF(C53="","","-"&amp;TEXT(C53,"00"))&amp;IF(D53="","","-"&amp;TEXT(D53,"00"))</f>
-        <v>05-03</v>
+        <f t="shared" si="20"/>
+        <v>05-01-01</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="I53" s="4">
         <v>12</v>
@@ -3648,14 +3690,14 @@
         <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M53" s="1" t="str">
         <f>IF(I53="↑","",IF(I53="-","",System_Code&amp;"_"&amp;H53&amp;IF(L53="-","","_"&amp;L53)))</f>
-        <v>SSE19_VALID_activewindow</v>
+        <v>SSE19_CD_PROTD_keystrokes</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3669,21 +3711,23 @@
         <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>05-04</v>
+        <f t="shared" ref="E54" si="21">TEXT(B54,"00")&amp;IF(C54="","","-"&amp;TEXT(C54,"00"))&amp;IF(D54="","","-"&amp;TEXT(D54,"00"))</f>
+        <v>05-01-02</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="I54" s="4">
         <v>12</v>
@@ -3692,14 +3736,14 @@
         <v>13</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M54" s="1" t="str">
         <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
-        <v>SSE19_VALID_pcactiveinfo</v>
+        <v>SSE19_CD_PROTD_activewindow</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3710,30 +3754,45 @@
         <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="6" t="str">
-        <f>TEXT(B55,"00")&amp;IF(C55="","","-"&amp;TEXT(C55,"00"))&amp;IF(D55="","",TEXT(D55,"00"))</f>
-        <v>06</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>05-01-03</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="4">
+        <v>12</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f>IF(I55="↑","",IF(I55="-","",System_Code&amp;"_"&amp;H55&amp;IF(L55="-","","_"&amp;L55)))</f>
+        <v>SSE19_CD_PROTD_pcactiveinfo</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -3743,39 +3802,28 @@
       <c r="B56" s="1">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1" t="str">
-        <f t="shared" ref="E56:E63" si="20">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
-        <v>06-01</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I56" s="4">
-        <v>8</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M56" s="1" t="str">
-        <f t="shared" ref="M56:M63" si="21">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
-        <v>SSE19_CD_CUSTD</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="E56" s="6" t="str">
+        <f>TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","",TEXT(D56,"00"))</f>
+        <v>06</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
@@ -3788,36 +3836,34 @@
       <c r="C57" s="1">
         <v>1</v>
       </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>06-01-01</v>
+        <f t="shared" ref="E57:E64" si="22">TEXT(B57,"00")&amp;IF(C57="","","-"&amp;TEXT(C57,"00"))&amp;IF(D57="","","-"&amp;TEXT(D57,"00"))</f>
+        <v>06-01</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>94</v>
+        <v>169</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M57:M64" si="23">IF(I57="↑","",IF(I57="-","",System_Code&amp;"_"&amp;H57&amp;IF(L57="-","","_"&amp;L57)))</f>
         <v/>
       </c>
       <c r="N57" s="1"/>
@@ -3835,36 +3881,36 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>06-01-02</v>
+        <f t="shared" si="22"/>
+        <v>06-01-01</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="I58" s="4">
+        <v>6</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3878,35 +3924,39 @@
         <v>6</v>
       </c>
       <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1"/>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>06-02</v>
+        <f t="shared" si="22"/>
+        <v>06-01-02</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>173</v>
+        <v>91</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I59" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="L59" s="1" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>SSE19_CD_CUST_IV</v>
+        <f t="shared" si="23"/>
+        <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3922,35 +3972,33 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="str">
-        <f t="shared" ref="E60:E61" si="22">TEXT(B60,"00")&amp;IF(C60="","","-"&amp;TEXT(C60,"00"))&amp;IF(D60="","","-"&amp;TEXT(D60,"00"))</f>
-        <v>06-02-01</v>
+        <f t="shared" si="22"/>
+        <v>06-02</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>182</v>
+        <v>247</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="I60" s="4">
+        <v>10</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" ref="M60:M61" si="23">IF(I60="↑","",IF(I60="-","",System_Code&amp;"_"&amp;H60&amp;IF(L60="-","","_"&amp;L60)))</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>SSE19_CD_INTERVIEW</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -3967,20 +4015,20 @@
         <v>2</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-02-02</v>
+        <f t="shared" ref="E61:E62" si="24">TEXT(B61,"00")&amp;IF(C61="","","-"&amp;TEXT(C61,"00"))&amp;IF(D61="","","-"&amp;TEXT(D61,"00"))</f>
+        <v>06-02-01</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>23</v>
@@ -3993,97 +4041,97 @@
         <v>23</v>
       </c>
       <c r="M61" s="1" t="str">
+        <f t="shared" ref="M61:M62" si="25">IF(I61="↑","",IF(I61="-","",System_Code&amp;"_"&amp;H61&amp;IF(L61="-","","_"&amp;L61)))</f>
+        <v/>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>06-02-02</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06-02-03</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B62" s="1">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>06-02-03</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M62" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="B63" s="1">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>06-02-04</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
@@ -4099,20 +4147,20 @@
         <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" ref="E64:E65" si="24">TEXT(B64,"00")&amp;IF(C64="","","-"&amp;TEXT(C64,"00"))&amp;IF(D64="","","-"&amp;TEXT(D64,"00"))</f>
-        <v>06-02-05</v>
+        <f t="shared" si="22"/>
+        <v>06-02-04</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G64" s="16" t="s">
-        <v>186</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>23</v>
@@ -4125,7 +4173,7 @@
         <v>23</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" ref="M64:M65" si="25">IF(I64="↑","",IF(I64="-","",System_Code&amp;"_"&amp;H64&amp;IF(L64="-","","_"&amp;L64)))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N64" s="1"/>
@@ -4143,20 +4191,20 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>06-02-06</v>
+        <f t="shared" ref="E65:E66" si="26">TEXT(B65,"00")&amp;IF(C65="","","-"&amp;TEXT(C65,"00"))&amp;IF(D65="","","-"&amp;TEXT(D65,"00"))</f>
+        <v>06-02-05</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="G65" s="16" t="s">
-        <v>187</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>23</v>
@@ -4169,7 +4217,7 @@
         <v>23</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="M65:M66" si="27">IF(I65="↑","",IF(I65="-","",System_Code&amp;"_"&amp;H65&amp;IF(L65="-","","_"&amp;L65)))</f>
         <v/>
       </c>
       <c r="N65" s="1"/>
@@ -4181,30 +4229,43 @@
         <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="6" t="str">
-        <f>TEXT(B66,"00")&amp;IF(C66="","","-"&amp;TEXT(C66,"00"))&amp;IF(D66="","",TEXT(D66,"00"))</f>
-        <v>07</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>06-02-06</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
@@ -4214,166 +4275,157 @@
       <c r="B67" s="1">
         <v>7</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="6" t="str">
+        <f>TEXT(B67,"00")&amp;IF(C67="","","-"&amp;TEXT(C67,"00"))&amp;IF(D67="","",TEXT(D67,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
         <v>1</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1" t="str">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I67" s="4">
-        <v>8</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M67" s="1" t="str">
-        <f t="shared" ref="M67:M75" si="26">IF(I67="↑","",IF(I67="-","",System_Code&amp;"_"&amp;H67&amp;IF(L67="-","","_"&amp;L67)))</f>
-        <v>SSE19_BD_SDD</v>
-      </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="G68" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="1" t="str">
+        <f t="shared" ref="M68:M76" si="28">IF(I68="↑","",IF(I68="-","",System_Code&amp;"_"&amp;H68&amp;IF(L68="-","","_"&amp;L68)))</f>
+        <v/>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
         <v>7</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C69" s="1">
         <v>1</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="1" t="str">
+      <c r="E69" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01-01</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="F69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69" s="4">
+        <v>6</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M69" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_SDD_01_Dashboard</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C70" s="1">
         <v>1</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D70" s="1">
         <v>2</v>
       </c>
-      <c r="E69" s="1" t="str">
+      <c r="E70" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01-02</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M69" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B70" s="1">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="F70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" s="4">
         <v>2</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>07-02</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="4">
-        <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>SSE19_BD_STD</v>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_SDD_00_Menu</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4387,21 +4439,21 @@
         <v>7</v>
       </c>
       <c r="C71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-03</v>
+        <v>07-02</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" s="4">
         <v>8</v>
@@ -4409,15 +4461,13 @@
       <c r="J71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>SSE19_BD_RDD</v>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_STD</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -4431,21 +4481,21 @@
         <v>7</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-04</v>
+        <v>07-03</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I72" s="4">
         <v>8</v>
@@ -4453,13 +4503,15 @@
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="L72" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>SSE19_BD_IFD</v>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_RDD</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4473,21 +4525,21 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-05</v>
+        <v>07-04</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I73" s="4">
         <v>8</v>
@@ -4497,11 +4549,11 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>SSE19_BD_API</v>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_IFD</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4515,21 +4567,21 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-06</v>
+        <v>07-05</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I74" s="4">
         <v>8</v>
@@ -4539,11 +4591,11 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>SSE19_BD_BJD</v>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_API</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -4557,35 +4609,35 @@
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-07</v>
+        <v>07-06</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I75" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>SSE19_BD_FL</v>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_BJD</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4596,30 +4648,41 @@
         <v>72</v>
       </c>
       <c r="B76" s="1">
-        <v>8</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7</v>
+      </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="6" t="str">
-        <f>TEXT(B76,"00")&amp;IF(C76="","","-"&amp;TEXT(C76,"00"))&amp;IF(D76="","",TEXT(D76,"00"))</f>
-        <v>08</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>07-07</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="4">
+        <v>4</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M76" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_FL</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
@@ -4629,41 +4692,28 @@
       <c r="B77" s="1">
         <v>8</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>08-01</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I77" s="4">
-        <v>8</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M77" s="1" t="str">
-        <f>IF(I77="↑","",IF(I77="-","",System_Code&amp;"_"&amp;H77&amp;IF(L77="-","","_"&amp;L77)))</f>
-        <v>SSE19_SD_ACHS</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="E77" s="6" t="str">
+        <f>TEXT(B77,"00")&amp;IF(C77="","","-"&amp;TEXT(C77,"00"))&amp;IF(D77="","",TEXT(D77,"00"))</f>
+        <v>08</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
@@ -4674,21 +4724,21 @@
         <v>8</v>
       </c>
       <c r="C78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-02</v>
+        <v>08-01</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I78" s="4">
         <v>8</v>
@@ -4697,14 +4747,14 @@
         <v>13</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="M78" s="1" t="str">
         <f>IF(I78="↑","",IF(I78="-","",System_Code&amp;"_"&amp;H78&amp;IF(L78="-","","_"&amp;L78)))</f>
-        <v>SSE19_SD_ACHA</v>
+        <v>SSE19_SD_ARCS</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -4718,37 +4768,37 @@
         <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="str">
-        <f t="shared" ref="E79" si="27">TEXT(B79,"00")&amp;IF(C79="","","-"&amp;TEXT(C79,"00"))&amp;IF(D79="","","-"&amp;TEXT(D79,"00"))</f>
-        <v>08-03</v>
+        <f t="shared" si="13"/>
+        <v>08-02</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I79" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M79" s="1" t="str">
         <f>IF(I79="↑","",IF(I79="-","",System_Code&amp;"_"&amp;H79&amp;IF(L79="-","","_"&amp;L79)))</f>
-        <v>SSE19_SD_ERD</v>
+        <v>SSE19_SD_ARCA</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4762,71 +4812,84 @@
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
+        <f t="shared" ref="E80" si="29">TEXT(B80,"00")&amp;IF(C80="","","-"&amp;TEXT(C80,"00"))&amp;IF(D80="","","-"&amp;TEXT(D80,"00"))</f>
+        <v>08-03</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" s="4">
+        <v>4</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M80" s="1" t="str">
+        <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
+        <v>SSE19_SD_ERD</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="1">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="str">
         <f t="shared" si="13"/>
         <v>08-04</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I80" s="4">
-        <v>4</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M80" s="1" t="str">
-        <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
+      <c r="F81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I81" s="4">
+        <v>4</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f>IF(I81="↑","",IF(I81="-","",System_Code&amp;"_"&amp;H81&amp;IF(L81="-","","_"&amp;L81)))</f>
         <v>SSE19_SD_TBLD</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B81" s="1">
-        <v>9</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="6" t="str">
-        <f>TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","",TEXT(D81,"00"))</f>
-        <v>09</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I81" s="7"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
@@ -4836,64 +4899,53 @@
       <c r="B82" s="1">
         <v>9</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
+      <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1" t="str">
-        <f t="shared" ref="E82:E83" si="28">TEXT(B82,"00")&amp;IF(C82="","","-"&amp;TEXT(C82,"00"))&amp;IF(D82="","","-"&amp;TEXT(D82,"00"))</f>
-        <v>09-01</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I82" s="4">
-        <v>4</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M82" s="1" t="str">
-        <f>IF(I82="↑","",IF(I82="-","",System_Code&amp;"_"&amp;H82&amp;IF(L82="-","","_"&amp;L82)))</f>
-        <v>SSE19_Iter-pre_MVP</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
+      <c r="E82" s="6" t="str">
+        <f>TEXT(B82,"00")&amp;IF(C82="","","-"&amp;TEXT(C82,"00"))&amp;IF(D82="","",TEXT(D82,"00"))</f>
+        <v>09</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <f t="shared" ref="A83:A110" si="29">ROW()-4</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>9</v>
       </c>
       <c r="C83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>09-02</v>
+        <f t="shared" ref="E83" si="30">TEXT(B83,"00")&amp;IF(C83="","","-"&amp;TEXT(C83,"00"))&amp;IF(D83="","","-"&amp;TEXT(D83,"00"))</f>
+        <v>09-01</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I83" s="4">
         <v>4</v>
@@ -4903,49 +4955,60 @@
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M83" s="1" t="str">
         <f>IF(I83="↑","",IF(I83="-","",System_Code&amp;"_"&amp;H83&amp;IF(L83="-","","_"&amp;L83)))</f>
-        <v>SSE19_Iter-pre_PBL</v>
+        <v>SSE19_Iter-pre_MVP</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A84:A112" si="31">ROW()-4</f>
         <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>10</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="6" t="str">
-        <f>TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","",TEXT(D84,"00"))</f>
-        <v>10</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
+      <c r="E84" s="1" t="str">
+        <f t="shared" ref="E84" si="32">TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","","-"&amp;TEXT(D84,"00"))</f>
+        <v>09-02</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I84" s="4">
+        <v>4</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f>IF(I84="↑","",IF(I84="-","",System_Code&amp;"_"&amp;H84&amp;IF(L84="-","","_"&amp;L84)))</f>
+        <v>SSE19_Iter-pre_PBL</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B85" s="1">
@@ -4953,111 +5016,110 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1" t="str">
+      <c r="E85" s="6" t="str">
+        <f>TEXT(B85,"00")&amp;IF(C85="","","-"&amp;TEXT(C85,"00"))&amp;IF(D85="","",TEXT(D85,"00"))</f>
+        <v>10</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <f t="shared" si="31"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="str">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1" t="str">
-        <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
-        <v/>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
-        <f t="shared" si="29"/>
-        <v>82</v>
-      </c>
-      <c r="B86" s="1">
-        <v>10</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-      <c r="E86" s="1" t="str">
-        <f t="shared" ref="E86" si="30">TEXT(B86,"00")&amp;IF(C86="","","-"&amp;TEXT(C86,"00"))&amp;IF(D86="","","-"&amp;TEXT(D86,"00"))</f>
-        <v>10-01-01</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="13" t="s">
-        <v>141</v>
+      <c r="F86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I86" s="4">
-        <v>4</v>
+        <v>233</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="M86" s="1" t="str">
+        <f>IF(I86="↑","",IF(I86="-","",System_Code&amp;"_"&amp;H86&amp;IF(L86="-","","_"&amp;L86)))</f>
+        <v/>
+      </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>83</v>
       </c>
       <c r="B87" s="1">
         <v>10</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="str">
+        <f>TEXT(B87,"00")&amp;IF(C87="","","-"&amp;TEXT(C87,"00"))&amp;IF(D87="","","-"&amp;TEXT(D87,"00"))</f>
+        <v>10-00</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I87" s="4">
         <v>2</v>
       </c>
-      <c r="E87" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-02</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I87" s="4">
-        <v>4</v>
-      </c>
       <c r="J87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M87" s="1" t="str">
+        <f>IF(I87="↑","",IF(I87="-","",System_Code&amp;"_"&amp;H87&amp;IF(L87="-","","_"&amp;L87)))</f>
+        <v>SSE19_Iter1_SBL</v>
+      </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>84</v>
       </c>
       <c r="B88" s="1">
@@ -5067,18 +5129,18 @@
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-03</v>
+        <f t="shared" ref="E88" si="33">TEXT(B88,"00")&amp;IF(C88="","","-"&amp;TEXT(C88,"00"))&amp;IF(D88="","","-"&amp;TEXT(D88,"00"))</f>
+        <v>10-01-01</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="16" t="s">
-        <v>143</v>
+      <c r="G88" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I88" s="4">
         <v>4</v>
@@ -5092,9 +5154,9 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>85</v>
       </c>
       <c r="B89" s="1">
@@ -5104,18 +5166,18 @@
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-04</v>
+        <v>10-01-02</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
@@ -5131,7 +5193,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>86</v>
       </c>
       <c r="B90" s="1">
@@ -5141,18 +5203,18 @@
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-05</v>
+        <v>10-01-03</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I90" s="4">
         <v>4</v>
@@ -5168,28 +5230,28 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>87</v>
       </c>
       <c r="B91" s="1">
         <v>10</v>
       </c>
       <c r="C91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-01</v>
+        <v>10-01-04</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I91" s="4">
         <v>4</v>
@@ -5205,28 +5267,28 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>88</v>
       </c>
       <c r="B92" s="1">
         <v>10</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-02</v>
+        <v>10-01-05</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
@@ -5242,7 +5304,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>89</v>
       </c>
       <c r="B93" s="1">
@@ -5252,18 +5314,18 @@
         <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-03</v>
+        <v>10-02-01</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I93" s="4">
         <v>4</v>
@@ -5277,9 +5339,9 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>90</v>
       </c>
       <c r="B94" s="1">
@@ -5289,18 +5351,18 @@
         <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-04</v>
+        <v>10-02-02</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I94" s="4">
         <v>4</v>
@@ -5316,28 +5378,28 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>91</v>
       </c>
       <c r="B95" s="1">
         <v>10</v>
       </c>
       <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
         <v>3</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-01</v>
+        <v>10-02-03</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="13" t="s">
-        <v>150</v>
+      <c r="G95" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I95" s="4">
         <v>4</v>
@@ -5353,28 +5415,28 @@
     </row>
     <row r="96" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>92</v>
       </c>
       <c r="B96" s="1">
         <v>10</v>
       </c>
       <c r="C96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-02</v>
+        <v>10-02-04</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="13" t="s">
-        <v>151</v>
+      <c r="G96" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I96" s="4">
         <v>4</v>
@@ -5390,7 +5452,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>93</v>
       </c>
       <c r="B97" s="1">
@@ -5400,18 +5462,18 @@
         <v>3</v>
       </c>
       <c r="D97" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-03</v>
+        <v>10-03-01</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97" s="16" t="s">
-        <v>152</v>
+      <c r="G97" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I97" s="4">
         <v>4</v>
@@ -5427,7 +5489,7 @@
     </row>
     <row r="98" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>94</v>
       </c>
       <c r="B98" s="1">
@@ -5437,18 +5499,18 @@
         <v>3</v>
       </c>
       <c r="D98" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-04</v>
+        <v>10-03-02</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="16" t="s">
-        <v>153</v>
+      <c r="G98" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I98" s="4">
         <v>4</v>
@@ -5462,9 +5524,9 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>95</v>
       </c>
       <c r="B99" s="1">
@@ -5474,18 +5536,18 @@
         <v>3</v>
       </c>
       <c r="D99" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-05</v>
+        <v>10-03-03</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="16" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I99" s="4">
         <v>4</v>
@@ -5499,30 +5561,30 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>96</v>
       </c>
       <c r="B100" s="1">
         <v>10</v>
       </c>
       <c r="C100" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>TEXT(B100,"00")&amp;IF(C100="","","-"&amp;TEXT(C100,"00"))&amp;IF(D100="","","-"&amp;TEXT(D100,"00"))</f>
-        <v>10-04-01</v>
+        <f t="shared" si="13"/>
+        <v>10-03-04</v>
       </c>
       <c r="F100" s="1"/>
-      <c r="G100" s="17" t="s">
-        <v>193</v>
+      <c r="G100" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I100" s="4">
         <v>4</v>
@@ -5536,30 +5598,30 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>97</v>
       </c>
       <c r="B101" s="1">
         <v>10</v>
       </c>
       <c r="C101" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>TEXT(B101,"00")&amp;IF(C101="","","-"&amp;TEXT(C101,"00"))&amp;IF(D101="","","-"&amp;TEXT(D101,"00"))</f>
-        <v>10-04-02</v>
+        <f t="shared" si="13"/>
+        <v>10-03-05</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="16" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I101" s="4">
         <v>4</v>
@@ -5575,7 +5637,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>98</v>
       </c>
       <c r="B102" s="1">
@@ -5585,18 +5647,18 @@
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="str">
         <f>TEXT(B102,"00")&amp;IF(C102="","","-"&amp;TEXT(C102,"00"))&amp;IF(D102="","","-"&amp;TEXT(D102,"00"))</f>
-        <v>10-04-03</v>
+        <v>10-04-01</v>
       </c>
       <c r="F102" s="1"/>
-      <c r="G102" s="16" t="s">
-        <v>195</v>
+      <c r="G102" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I102" s="4">
         <v>4</v>
@@ -5610,9 +5672,9 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>99</v>
       </c>
       <c r="B103" s="1">
@@ -5622,18 +5684,18 @@
         <v>4</v>
       </c>
       <c r="D103" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" s="1" t="str">
         <f>TEXT(B103,"00")&amp;IF(C103="","","-"&amp;TEXT(C103,"00"))&amp;IF(D103="","","-"&amp;TEXT(D103,"00"))</f>
-        <v>10-04-04</v>
+        <v>10-04-02</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="16" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I103" s="4">
         <v>4</v>
@@ -5649,28 +5711,28 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="B104" s="1">
         <v>10</v>
       </c>
       <c r="C104" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-01</v>
+        <f>TEXT(B104,"00")&amp;IF(C104="","","-"&amp;TEXT(C104,"00"))&amp;IF(D104="","","-"&amp;TEXT(D104,"00"))</f>
+        <v>10-04-03</v>
       </c>
       <c r="F104" s="1"/>
-      <c r="G104" s="13" t="s">
-        <v>197</v>
+      <c r="G104" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I104" s="4">
         <v>4</v>
@@ -5686,28 +5748,28 @@
     </row>
     <row r="105" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>101</v>
       </c>
       <c r="B105" s="1">
         <v>10</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-02</v>
+        <f>TEXT(B105,"00")&amp;IF(C105="","","-"&amp;TEXT(C105,"00"))&amp;IF(D105="","","-"&amp;TEXT(D105,"00"))</f>
+        <v>10-04-04</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="16" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I105" s="4">
         <v>4</v>
@@ -5723,7 +5785,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>102</v>
       </c>
       <c r="B106" s="1">
@@ -5733,18 +5795,18 @@
         <v>5</v>
       </c>
       <c r="D106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-03</v>
+        <v>10-05-01</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="16" t="s">
-        <v>199</v>
+      <c r="G106" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I106" s="4">
         <v>4</v>
@@ -5760,7 +5822,7 @@
     </row>
     <row r="107" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>103</v>
       </c>
       <c r="B107" s="1">
@@ -5770,18 +5832,18 @@
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-04</v>
+        <v>10-05-02</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="16" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I107" s="4">
         <v>4</v>
@@ -5795,9 +5857,9 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>104</v>
       </c>
       <c r="B108" s="1">
@@ -5807,18 +5869,18 @@
         <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-05</v>
+        <v>10-05-03</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="16" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I108" s="4">
         <v>4</v>
@@ -5834,28 +5896,28 @@
     </row>
     <row r="109" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>105</v>
       </c>
       <c r="B109" s="1">
         <v>10</v>
       </c>
       <c r="C109" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-06-01</v>
+        <v>10-05-04</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="16" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I109" s="4">
         <v>4</v>
@@ -5869,30 +5931,30 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>106</v>
       </c>
       <c r="B110" s="1">
         <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-07-01</v>
+        <v>10-05-05</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="16" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I110" s="4">
         <v>4</v>
@@ -5906,91 +5968,173 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+    <row r="111" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <f t="shared" si="31"/>
+        <v>107</v>
+      </c>
+      <c r="B111" s="1">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-06-01</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I111" s="4">
+        <v>4</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <f t="shared" si="31"/>
+        <v>108</v>
+      </c>
+      <c r="B112" s="1">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-07-01</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I112" s="4">
+        <v>4</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K6:K22 K29:K49 K55:K111">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+  <conditionalFormatting sqref="K6:K13 K56:K83 K29:K32 K15 K19:K22 K35:K44 K46:K50 K85:K113">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:K51">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="K53:K55">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K54">
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>

--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3418B158-7B6B-4FF6-B207-C72E60C1B781}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6EEDC-737C-4C22-A482-A7074350CC1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
+    <workbookView xWindow="-25200" yWindow="-4530" windowWidth="20820" windowHeight="11835" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_first" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="261">
   <si>
     <t>No</t>
   </si>
@@ -262,9 +262,6 @@
     <t>ユースケース分析</t>
   </si>
   <si>
-    <t>活動データを取得する（歩数、睡眠量）</t>
-  </si>
-  <si>
     <t>UC-01</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>UC-04</t>
   </si>
   <si>
-    <t>UC-05</t>
-  </si>
-  <si>
     <t>UC-06</t>
   </si>
   <si>
@@ -595,9 +589,6 @@
     <t>サービス提案（仮説）の検証結果</t>
   </si>
   <si>
-    <t>精神データ（集中度）を取得する</t>
-  </si>
-  <si>
     <t>4.1 詳細活動データを取得する（センサー側)</t>
   </si>
   <si>
@@ -625,15 +616,6 @@
     <t>5.5 精神データ（集中度）をクラウドに蓄積する （クラウド側）</t>
   </si>
   <si>
-    <t>GPS位置データを取得する（場所、移動）</t>
-  </si>
-  <si>
-    <t>詳細位置データを取得する</t>
-  </si>
-  <si>
-    <t>詳細活動データを取得する（タッチ数）</t>
-  </si>
-  <si>
     <t>PoC</t>
   </si>
   <si>
@@ -827,14 +809,27 @@
   </si>
   <si>
     <t>SBL</t>
+  </si>
+  <si>
+    <t>集中の度合いとその対象成果物が分かる</t>
+  </si>
+  <si>
+    <t>PCで作成した成果物とその操作時間が分かる</t>
+  </si>
+  <si>
+    <t>集中のし過ぎで効率が下がるのを防ぎたい</t>
+  </si>
+  <si>
+    <t>仕事、生活、睡眠などの行動時間が見える</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\　@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -961,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -994,11 +989,54 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1452,13 +1490,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1478,14 +1516,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C1" s="11"/>
       <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
         <v>129</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1497,7 +1535,7 @@
       </c>
       <c r="G2" s="9"/>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O2" s="12">
         <v>43697</v>
@@ -1540,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>18</v>
@@ -1570,13 +1608,13 @@
         <v>01</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -1606,10 +1644,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
@@ -1618,7 +1656,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
@@ -1650,10 +1688,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
@@ -1662,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1707,7 +1745,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A85" si="3">ROW()-4</f>
+        <f t="shared" ref="A9:A84" si="3">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -1737,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
@@ -1781,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>24</v>
@@ -1825,7 +1863,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
@@ -1857,7 +1895,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -1869,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>32</v>
@@ -1913,7 +1951,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>35</v>
@@ -1991,7 +2029,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -2003,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>56</v>
@@ -2037,7 +2075,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -2049,10 +2087,10 @@
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2083,7 +2121,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -2095,10 +2133,10 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2126,10 +2164,10 @@
         <v>02-07-04</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -2141,10 +2179,10 @@
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" ref="M18" si="8">IF(I18="↑","",IF(I18="-","",System_Code&amp;"_"&amp;H18&amp;IF(L18="-","","_"&amp;L18)))</f>
@@ -2175,7 +2213,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -2187,7 +2225,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>40</v>
@@ -2218,10 +2256,10 @@
         <v>02-07-06</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -2233,10 +2271,10 @@
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" ref="M20" si="10">IF(I20="↑","",IF(I20="-","",System_Code&amp;"_"&amp;H20&amp;IF(L20="-","","_"&amp;L20)))</f>
@@ -2264,10 +2302,10 @@
         <v>02-07-07</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -2279,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>30</v>
@@ -2306,13 +2344,13 @@
         <v>03</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
@@ -2345,7 +2383,7 @@
         <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I23" s="4">
         <v>8</v>
@@ -2385,13 +2423,13 @@
         <v>03-01-01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>51</v>
@@ -2400,7 +2438,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
@@ -2437,7 +2475,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>51</v>
@@ -2446,13 +2484,13 @@
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" ref="M25:M50" si="12">IF(I25="↑","",IF(I25="-","",System_Code&amp;"_"&amp;H25&amp;IF(L25="-","","_"&amp;L25)))</f>
+        <f t="shared" ref="M25:M49" si="12">IF(I25="↑","",IF(I25="-","",System_Code&amp;"_"&amp;H25&amp;IF(L25="-","","_"&amp;L25)))</f>
         <v/>
       </c>
       <c r="N25" s="1"/>
@@ -2473,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E112" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
+        <f t="shared" ref="E26:E111" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
         <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2483,7 +2521,7 @@
         <v>53</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>51</v>
@@ -2492,7 +2530,7 @@
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
@@ -2529,7 +2567,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>51</v>
@@ -2538,7 +2576,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>23</v>
@@ -2575,7 +2613,7 @@
         <v>63</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>51</v>
@@ -2584,7 +2622,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>23</v>
@@ -2705,10 +2743,10 @@
         <v>13</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="12"/>
@@ -2751,7 +2789,7 @@
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>64</v>
@@ -2826,10 +2864,10 @@
         <v>04-03-01</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>42</v>
@@ -2841,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" ref="M34" si="16">IF(I34="↑","",IF(I34="-","",System_Code&amp;"_"&amp;H34&amp;IF(L34="-","","_"&amp;L34)))</f>
@@ -2887,10 +2925,10 @@
         <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="12"/>
@@ -2933,10 +2971,10 @@
         <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3006,10 +3044,10 @@
         <v>04-04-01</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
@@ -3021,10 +3059,10 @@
         <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3052,25 +3090,25 @@
         <v>04-04-02</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3098,10 +3136,10 @@
         <v>04-04-03</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>42</v>
@@ -3113,10 +3151,10 @@
         <v>13</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3144,25 +3182,25 @@
         <v>04-04-04</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3183,17 +3221,17 @@
         <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-05</v>
+        <v>04-04-06</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>42</v>
@@ -3205,10 +3243,10 @@
         <v>13</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3229,36 +3267,36 @@
         <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>04-04-06</v>
+        <v>04-04-07</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M43" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>SSE19_RD_USD</v>
+        <v>SSE19_RD_USD_OP</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -3272,39 +3310,37 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>04-04-07</v>
+        <f t="shared" ref="E44:E48" si="17">TEXT(B44,"00")&amp;IF(C44="","","-"&amp;TEXT(C44,"00"))&amp;IF(D44="","","-"&amp;TEXT(D44,"00"))</f>
+        <v>04-05</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>83</v>
+        <v>150</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="4">
-        <v>4</v>
+      <c r="I44" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>SSE19_RD_USD_OP</v>
+        <v/>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -3320,35 +3356,37 @@
       <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" ref="E45:E49" si="17">TEXT(B45,"00")&amp;IF(C45="","","-"&amp;TEXT(C45,"00"))&amp;IF(D45="","","-"&amp;TEXT(D45,"00"))</f>
-        <v>04-05</v>
+        <f t="shared" si="17"/>
+        <v>04-05-01</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>153</v>
+      <c r="G45" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>23</v>
+      <c r="I45" s="4">
+        <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>SSE19_RD_CD</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3365,17 +3403,17 @@
         <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>04-05-01</v>
+        <v>04-05-02</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>42</v>
@@ -3387,14 +3425,14 @@
         <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M46" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>SSE19_RD_CD</v>
+        <v>SSE19_RD_CRD</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3411,17 +3449,17 @@
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>04-05-02</v>
+        <v>04-05-03</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>42</v>
@@ -3433,14 +3471,14 @@
         <v>13</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M47" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SSE19_RD_CRD</v>
+        <f t="shared" ref="M47:M48" si="18">IF(I47="↑","",IF(I47="-","",System_Code&amp;"_"&amp;H47&amp;IF(L47="-","","_"&amp;L47)))</f>
+        <v>SSE19_RD_DFD</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3457,17 +3495,17 @@
         <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="17"/>
-        <v>04-05-03</v>
+        <v>04-05-04</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>42</v>
@@ -3479,14 +3517,14 @@
         <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" ref="M48:M49" si="18">IF(I48="↑","",IF(I48="-","",System_Code&amp;"_"&amp;H48&amp;IF(L48="-","","_"&amp;L48)))</f>
-        <v>SSE19_RD_DFD</v>
+        <f t="shared" si="18"/>
+        <v>SSE19_RD_DFS</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -3503,17 +3541,17 @@
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>04-05-04</v>
+        <f t="shared" ref="E49" si="19">TEXT(B49,"00")&amp;IF(C49="","","-"&amp;TEXT(C49,"00"))&amp;IF(D49="","","-"&amp;TEXT(D49,"00"))</f>
+        <v>04-05-05</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>42</v>
@@ -3525,14 +3563,14 @@
         <v>13</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M49" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SSE19_RD_DFS</v>
+        <f t="shared" si="12"/>
+        <v>SSE19_RD_DSM</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -3543,45 +3581,30 @@
         <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
-      </c>
-      <c r="C50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f t="shared" ref="E50" si="19">TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","","-"&amp;TEXT(D50,"00"))</f>
-        <v>04-05-05</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="4">
-        <v>4</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M50" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>SSE19_RD_DSM</v>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="6" t="str">
+        <f>TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","",TEXT(D50,"00"))</f>
+        <v>05</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
@@ -3591,28 +3614,39 @@
       <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="6" t="str">
-        <f>TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","",TEXT(D51,"00"))</f>
-        <v>05</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="E51" s="1" t="str">
+        <f t="shared" ref="E51:E54" si="20">TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","","-"&amp;TEXT(D51,"00"))</f>
+        <v>05-01</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="H51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f>IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
+        <v/>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
@@ -3625,33 +3659,37 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" ref="E52:E55" si="20">TEXT(B52,"00")&amp;IF(C52="","","-"&amp;TEXT(C52,"00"))&amp;IF(D52="","","-"&amp;TEXT(D52,"00"))</f>
-        <v>05-01</v>
-      </c>
-      <c r="F52" s="1"/>
+        <f t="shared" si="20"/>
+        <v>05-01-01</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="G52" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="I52" s="4">
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
-        <v/>
+        <v>SSE19_CD_PROTD_keystrokes</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3668,20 +3706,20 @@
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>05-01-01</v>
+        <f t="shared" ref="E53" si="21">TEXT(B53,"00")&amp;IF(C53="","","-"&amp;TEXT(C53,"00"))&amp;IF(D53="","","-"&amp;TEXT(D53,"00"))</f>
+        <v>05-01-02</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I53" s="4">
         <v>12</v>
@@ -3690,14 +3728,14 @@
         <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M53" s="1" t="str">
         <f>IF(I53="↑","",IF(I53="-","",System_Code&amp;"_"&amp;H53&amp;IF(L53="-","","_"&amp;L53)))</f>
-        <v>SSE19_CD_PROTD_keystrokes</v>
+        <v>SSE19_CD_PROTD_activewindow</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -3714,20 +3752,20 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" ref="E54" si="21">TEXT(B54,"00")&amp;IF(C54="","","-"&amp;TEXT(C54,"00"))&amp;IF(D54="","","-"&amp;TEXT(D54,"00"))</f>
-        <v>05-01-02</v>
+        <f t="shared" si="20"/>
+        <v>05-01-03</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I54" s="4">
         <v>12</v>
@@ -3736,14 +3774,14 @@
         <v>13</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M54" s="1" t="str">
         <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
-        <v>SSE19_CD_PROTD_activewindow</v>
+        <v>SSE19_CD_PROTD_pcactiveinfo</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3754,45 +3792,30 @@
         <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>05-01-03</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I55" s="4">
-        <v>12</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M55" s="1" t="str">
-        <f>IF(I55="↑","",IF(I55="-","",System_Code&amp;"_"&amp;H55&amp;IF(L55="-","","_"&amp;L55)))</f>
-        <v>SSE19_CD_PROTD_pcactiveinfo</v>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="6" t="str">
+        <f>TEXT(B55,"00")&amp;IF(C55="","","-"&amp;TEXT(C55,"00"))&amp;IF(D55="","",TEXT(D55,"00"))</f>
+        <v>06</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -3802,28 +3825,41 @@
       <c r="B56" s="1">
         <v>6</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="6" t="str">
-        <f>TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","",TEXT(D56,"00"))</f>
-        <v>06</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="E56" s="1" t="str">
+        <f t="shared" ref="E56:E63" si="22">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
+        <v>06-01</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
+      <c r="H56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="1" t="str">
+        <f t="shared" ref="M56:M63" si="23">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
+        <v/>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
@@ -3836,35 +3872,37 @@
       <c r="C57" s="1">
         <v>1</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" ref="E57:E64" si="22">TEXT(B57,"00")&amp;IF(C57="","","-"&amp;TEXT(C57,"00"))&amp;IF(D57="","","-"&amp;TEXT(D57,"00"))</f>
-        <v>06-01</v>
+        <f t="shared" si="22"/>
+        <v>06-01-01</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>170</v>
+        <v>88</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="I57" s="4">
+        <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" ref="M57:M64" si="23">IF(I57="↑","",IF(I57="-","",System_Code&amp;"_"&amp;H57&amp;IF(L57="-","","_"&amp;L57)))</f>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3881,32 +3919,32 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>06-01-01</v>
+        <v>06-01-02</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I58" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M58" s="1" t="str">
         <f t="shared" si="23"/>
@@ -3924,39 +3962,35 @@
         <v>6</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
         <v>2</v>
       </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>06-01-02</v>
+        <v>06-02</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>94</v>
+        <v>241</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I59" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M59" s="1" t="str">
         <f t="shared" si="23"/>
-        <v>SSE19_CD_PROTO</v>
+        <v>SSE19_CD_INTERVIEW</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3972,33 +4006,35 @@
       <c r="C60" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-02</v>
+        <f t="shared" ref="E60:E61" si="24">TEXT(B60,"00")&amp;IF(C60="","","-"&amp;TEXT(C60,"00"))&amp;IF(D60="","","-"&amp;TEXT(D60,"00"))</f>
+        <v>06-02-01</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>248</v>
+        <v>169</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I60" s="4">
-        <v>10</v>
+        <v>158</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>SSE19_CD_INTERVIEW</v>
+        <f t="shared" ref="M60:M61" si="25">IF(I60="↑","",IF(I60="-","",System_Code&amp;"_"&amp;H60&amp;IF(L60="-","","_"&amp;L60)))</f>
+        <v/>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -4015,36 +4051,38 @@
         <v>2</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" ref="E61:E62" si="24">TEXT(B61,"00")&amp;IF(C61="","","-"&amp;TEXT(C61,"00"))&amp;IF(D61="","","-"&amp;TEXT(D61,"00"))</f>
-        <v>06-02-01</v>
+        <f t="shared" si="24"/>
+        <v>06-02-02</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.5</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f t="shared" ref="M61:M62" si="25">IF(I61="↑","",IF(I61="-","",System_Code&amp;"_"&amp;H61&amp;IF(L61="-","","_"&amp;L61)))</f>
-        <v/>
-      </c>
-      <c r="N61" s="1"/>
+        <f t="shared" si="25"/>
+        <v>SSE19_CD</v>
+      </c>
+      <c r="N61" s="18">
+        <v>43717</v>
+      </c>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
@@ -4059,36 +4097,38 @@
         <v>2</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>06-02-02</v>
+        <f t="shared" si="22"/>
+        <v>06-02-03</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N62" s="1"/>
+        <f t="shared" si="23"/>
+        <v>SSE19_CD</v>
+      </c>
+      <c r="N62" s="18">
+        <v>43719</v>
+      </c>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
@@ -4103,20 +4143,20 @@
         <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="22"/>
-        <v>06-02-03</v>
+        <v>06-02-04</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>23</v>
@@ -4147,36 +4187,38 @@
         <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-02-04</v>
+        <f t="shared" ref="E64:E65" si="26">TEXT(B64,"00")&amp;IF(C64="","","-"&amp;TEXT(C64,"00"))&amp;IF(D64="","","-"&amp;TEXT(D64,"00"))</f>
+        <v>06-02-05</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.5</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N64" s="1"/>
+        <f t="shared" ref="M64:M65" si="27">IF(I64="↑","",IF(I64="-","",System_Code&amp;"_"&amp;H64&amp;IF(L64="-","","_"&amp;L64)))</f>
+        <v>SSE19_CD</v>
+      </c>
+      <c r="N64" s="18">
+        <v>43714</v>
+      </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
@@ -4191,20 +4233,20 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" ref="E65:E66" si="26">TEXT(B65,"00")&amp;IF(C65="","","-"&amp;TEXT(C65,"00"))&amp;IF(D65="","","-"&amp;TEXT(D65,"00"))</f>
-        <v>06-02-05</v>
+        <f t="shared" si="26"/>
+        <v>06-02-06</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>23</v>
@@ -4217,7 +4259,7 @@
         <v>23</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" ref="M65:M66" si="27">IF(I65="↑","",IF(I65="-","",System_Code&amp;"_"&amp;H65&amp;IF(L65="-","","_"&amp;L65)))</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="N65" s="1"/>
@@ -4229,43 +4271,30 @@
         <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>6</v>
-      </c>
-      <c r="E66" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>06-02-06</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M66" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="6" t="str">
+        <f>TEXT(B66,"00")&amp;IF(C66="","","-"&amp;TEXT(C66,"00"))&amp;IF(D66="","",TEXT(D66,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
@@ -4275,28 +4304,41 @@
       <c r="B67" s="1">
         <v>7</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="6" t="str">
-        <f>TEXT(B67,"00")&amp;IF(C67="","","-"&amp;TEXT(C67,"00"))&amp;IF(D67="","",TEXT(D67,"00"))</f>
-        <v>07</v>
-      </c>
-      <c r="F67" s="6" t="s">
+      <c r="E67" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>07-01</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
+      <c r="I67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f t="shared" ref="M67:M75" si="28">IF(I67="↑","",IF(I67="-","",System_Code&amp;"_"&amp;H67&amp;IF(L67="-","","_"&amp;L67)))</f>
+        <v/>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
@@ -4309,35 +4351,35 @@
       <c r="C68" s="1">
         <v>1</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-01</v>
+        <v>07-01-01</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="I68" s="4">
+        <v>6</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" ref="M68:M76" si="28">IF(I68="↑","",IF(I68="-","",System_Code&amp;"_"&amp;H68&amp;IF(L68="-","","_"&amp;L68)))</f>
-        <v/>
+        <f t="shared" si="28"/>
+        <v>SSE19_BD_SDD_01_Dashboard</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -4354,34 +4396,34 @@
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-01-01</v>
+        <v>07-01-02</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I69" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M69" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_SDD_01_Dashboard</v>
+        <v>SSE19_BD_SDD_00_Menu</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -4395,37 +4437,35 @@
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
         <v>2</v>
       </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-01-02</v>
+        <v>07-02</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I70" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="M70" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_SDD_00_Menu</v>
+        <v>SSE19_BD_STD</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4439,21 +4479,21 @@
         <v>7</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-02</v>
+        <v>07-03</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I71" s="4">
         <v>8</v>
@@ -4461,13 +4501,15 @@
       <c r="J71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L71" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M71" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_STD</v>
+        <v>SSE19_BD_RDD</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -4481,21 +4523,21 @@
         <v>7</v>
       </c>
       <c r="C72" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-03</v>
+        <v>07-04</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>101</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I72" s="4">
         <v>8</v>
@@ -4503,15 +4545,13 @@
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M72" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_RDD</v>
+        <v>SSE19_BD_IFD</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4525,12 +4565,12 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-04</v>
+        <v>07-05</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>102</v>
@@ -4539,7 +4579,7 @@
         <v>103</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I73" s="4">
         <v>8</v>
@@ -4549,11 +4589,11 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M73" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_IFD</v>
+        <v>SSE19_BD_API</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4567,21 +4607,21 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-05</v>
+        <v>07-06</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I74" s="4">
         <v>8</v>
@@ -4591,11 +4631,11 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M74" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_API</v>
+        <v>SSE19_BD_BJD</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -4609,12 +4649,12 @@
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-06</v>
+        <v>07-07</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>109</v>
@@ -4623,21 +4663,23 @@
         <v>110</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I75" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L75" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M75" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>SSE19_BD_BJD</v>
+        <v>SSE19_BD_FL</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4648,41 +4690,30 @@
         <v>72</v>
       </c>
       <c r="B76" s="1">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>07-07</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G76" s="15" t="s">
+      <c r="E76" s="6" t="str">
+        <f>TEXT(B76,"00")&amp;IF(C76="","","-"&amp;TEXT(C76,"00"))&amp;IF(D76="","",TEXT(D76,"00"))</f>
+        <v>08</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="4">
-        <v>4</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1" t="s">
+      <c r="G76" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M76" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_FL</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="H76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
@@ -4692,28 +4723,41 @@
       <c r="B77" s="1">
         <v>8</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="6" t="str">
-        <f>TEXT(B77,"00")&amp;IF(C77="","","-"&amp;TEXT(C77,"00"))&amp;IF(D77="","",TEXT(D77,"00"))</f>
-        <v>08</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="E77" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>08-01</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G77" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="I77" s="4">
+        <v>8</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M77" s="1" t="str">
+        <f>IF(I77="↑","",IF(I77="-","",System_Code&amp;"_"&amp;H77&amp;IF(L77="-","","_"&amp;L77)))</f>
+        <v>SSE19_SD_ARCS</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
@@ -4724,21 +4768,21 @@
         <v>8</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-01</v>
+        <v>08-02</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I78" s="4">
         <v>8</v>
@@ -4747,14 +4791,14 @@
         <v>13</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M78" s="1" t="str">
         <f>IF(I78="↑","",IF(I78="-","",System_Code&amp;"_"&amp;H78&amp;IF(L78="-","","_"&amp;L78)))</f>
-        <v>SSE19_SD_ARCS</v>
+        <v>SSE19_SD_ARCA</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -4768,37 +4812,37 @@
         <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>08-02</v>
+        <f t="shared" ref="E79" si="29">TEXT(B79,"00")&amp;IF(C79="","","-"&amp;TEXT(C79,"00"))&amp;IF(D79="","","-"&amp;TEXT(D79,"00"))</f>
+        <v>08-03</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I79" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="M79" s="1" t="str">
         <f>IF(I79="↑","",IF(I79="-","",System_Code&amp;"_"&amp;H79&amp;IF(L79="-","","_"&amp;L79)))</f>
-        <v>SSE19_SD_ARCA</v>
+        <v>SSE19_SD_ERD</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4812,21 +4856,21 @@
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
-        <f t="shared" ref="E80" si="29">TEXT(B80,"00")&amp;IF(C80="","","-"&amp;TEXT(C80,"00"))&amp;IF(D80="","","-"&amp;TEXT(D80,"00"))</f>
-        <v>08-03</v>
+        <f t="shared" si="13"/>
+        <v>08-04</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I80" s="4">
         <v>4</v>
@@ -4835,14 +4879,14 @@
         <v>13</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="M80" s="1" t="str">
         <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
-        <v>SSE19_SD_ERD</v>
+        <v>SSE19_SD_TBLD</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -4853,43 +4897,30 @@
         <v>77</v>
       </c>
       <c r="B81" s="1">
-        <v>8</v>
-      </c>
-      <c r="C81" s="1">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>08-04</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I81" s="4">
-        <v>4</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M81" s="1" t="str">
-        <f>IF(I81="↑","",IF(I81="-","",System_Code&amp;"_"&amp;H81&amp;IF(L81="-","","_"&amp;L81)))</f>
-        <v>SSE19_SD_TBLD</v>
-      </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+      <c r="E81" s="6" t="str">
+        <f>TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","",TEXT(D81,"00"))</f>
+        <v>09</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
@@ -4899,53 +4930,64 @@
       <c r="B82" s="1">
         <v>9</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="6" t="str">
-        <f>TEXT(B82,"00")&amp;IF(C82="","","-"&amp;TEXT(C82,"00"))&amp;IF(D82="","",TEXT(D82,"00"))</f>
-        <v>09</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
+      <c r="E82" s="1" t="str">
+        <f t="shared" ref="E82" si="30">TEXT(B82,"00")&amp;IF(C82="","","-"&amp;TEXT(C82,"00"))&amp;IF(D82="","","-"&amp;TEXT(D82,"00"))</f>
+        <v>09-01</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I82" s="4">
+        <v>4</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f>IF(I82="↑","",IF(I82="-","",System_Code&amp;"_"&amp;H82&amp;IF(L82="-","","_"&amp;L82)))</f>
+        <v>SSE19_Iter-pre_MVP</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A83:A111" si="31">ROW()-4</f>
         <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>9</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="str">
-        <f t="shared" ref="E83" si="30">TEXT(B83,"00")&amp;IF(C83="","","-"&amp;TEXT(C83,"00"))&amp;IF(D83="","","-"&amp;TEXT(D83,"00"))</f>
-        <v>09-01</v>
+        <f t="shared" ref="E83" si="32">TEXT(B83,"00")&amp;IF(C83="","","-"&amp;TEXT(C83,"00"))&amp;IF(D83="","","-"&amp;TEXT(D83,"00"))</f>
+        <v>09-02</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I83" s="4">
         <v>4</v>
@@ -4955,60 +4997,49 @@
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M83" s="1" t="str">
         <f>IF(I83="↑","",IF(I83="-","",System_Code&amp;"_"&amp;H83&amp;IF(L83="-","","_"&amp;L83)))</f>
-        <v>SSE19_Iter-pre_MVP</v>
+        <v>SSE19_Iter-pre_PBL</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <f t="shared" ref="A84:A112" si="31">ROW()-4</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1" t="str">
-        <f t="shared" ref="E84" si="32">TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","","-"&amp;TEXT(D84,"00"))</f>
-        <v>09-02</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I84" s="4">
-        <v>4</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M84" s="1" t="str">
-        <f>IF(I84="↑","",IF(I84="-","",System_Code&amp;"_"&amp;H84&amp;IF(L84="-","","_"&amp;L84)))</f>
-        <v>SSE19_Iter-pre_PBL</v>
-      </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="E84" s="6" t="str">
+        <f>TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","",TEXT(D84,"00"))</f>
+        <v>10</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>81</v>
       </c>
       <c r="B85" s="1">
@@ -5016,26 +5047,33 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="6" t="str">
-        <f>TEXT(B85,"00")&amp;IF(C85="","","-"&amp;TEXT(C85,"00"))&amp;IF(D85="","",TEXT(D85,"00"))</f>
+      <c r="E85" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
+      <c r="H85" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1" t="str">
+        <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
+        <v/>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
@@ -5045,32 +5083,36 @@
       <c r="B86" s="1">
         <v>10</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f>TEXT(B86,"00")&amp;IF(C86="","","-"&amp;TEXT(C86,"00"))&amp;IF(D86="","","-"&amp;TEXT(D86,"00"))</f>
+        <v>10-00</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>23</v>
+        <v>227</v>
+      </c>
+      <c r="I86" s="4">
+        <v>2</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="M86" s="1" t="str">
         <f>IF(I86="↑","",IF(I86="-","",System_Code&amp;"_"&amp;H86&amp;IF(L86="-","","_"&amp;L86)))</f>
-        <v/>
+        <v>SSE19_Iter1_SBL</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -5084,40 +5126,35 @@
         <v>10</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
       <c r="E87" s="1" t="str">
-        <f>TEXT(B87,"00")&amp;IF(C87="","","-"&amp;TEXT(C87,"00"))&amp;IF(D87="","","-"&amp;TEXT(D87,"00"))</f>
-        <v>10-00</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>261</v>
+        <f t="shared" ref="E87" si="33">TEXT(B87,"00")&amp;IF(C87="","","-"&amp;TEXT(C87,"00"))&amp;IF(D87="","","-"&amp;TEXT(D87,"00"))</f>
+        <v>10-01-01</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I87" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K87" s="1"/>
-      <c r="L87" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="M87" s="1" t="str">
-        <f>IF(I87="↑","",IF(I87="-","",System_Code&amp;"_"&amp;H87&amp;IF(L87="-","","_"&amp;L87)))</f>
-        <v>SSE19_Iter1_SBL</v>
-      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <f t="shared" si="31"/>
         <v>84</v>
@@ -5129,18 +5166,18 @@
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f t="shared" ref="E88" si="33">TEXT(B88,"00")&amp;IF(C88="","","-"&amp;TEXT(C88,"00"))&amp;IF(D88="","","-"&amp;TEXT(D88,"00"))</f>
-        <v>10-01-01</v>
+        <f t="shared" si="13"/>
+        <v>10-01-02</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="13" t="s">
-        <v>136</v>
+      <c r="G88" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I88" s="4">
         <v>4</v>
@@ -5154,7 +5191,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <f t="shared" si="31"/>
         <v>85</v>
@@ -5166,18 +5203,18 @@
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-02</v>
+        <v>10-01-03</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
@@ -5203,18 +5240,18 @@
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-03</v>
+        <v>10-01-04</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I90" s="4">
         <v>4</v>
@@ -5240,18 +5277,18 @@
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-04</v>
+        <v>10-01-05</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I91" s="4">
         <v>4</v>
@@ -5274,21 +5311,21 @@
         <v>10</v>
       </c>
       <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
         <v>1</v>
-      </c>
-      <c r="D92" s="1">
-        <v>5</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-05</v>
+        <v>10-02-01</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
@@ -5314,18 +5351,18 @@
         <v>2</v>
       </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-01</v>
+        <v>10-02-02</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I93" s="4">
         <v>4</v>
@@ -5351,18 +5388,18 @@
         <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-02</v>
+        <v>10-02-03</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I94" s="4">
         <v>4</v>
@@ -5376,7 +5413,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <f t="shared" si="31"/>
         <v>91</v>
@@ -5388,18 +5425,18 @@
         <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-03</v>
+        <v>10-02-04</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I95" s="4">
         <v>4</v>
@@ -5413,7 +5450,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <f t="shared" si="31"/>
         <v>92</v>
@@ -5422,21 +5459,21 @@
         <v>10</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-04</v>
+        <v>10-03-01</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="16" t="s">
-        <v>144</v>
+      <c r="G96" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I96" s="4">
         <v>4</v>
@@ -5450,7 +5487,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <f t="shared" si="31"/>
         <v>93</v>
@@ -5462,18 +5499,18 @@
         <v>3</v>
       </c>
       <c r="D97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-01</v>
+        <v>10-03-02</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I97" s="4">
         <v>4</v>
@@ -5487,7 +5524,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <f t="shared" si="31"/>
         <v>94</v>
@@ -5499,18 +5536,18 @@
         <v>3</v>
       </c>
       <c r="D98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-02</v>
+        <v>10-03-03</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="13" t="s">
-        <v>146</v>
+      <c r="G98" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I98" s="4">
         <v>4</v>
@@ -5524,7 +5561,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <f t="shared" si="31"/>
         <v>95</v>
@@ -5536,18 +5573,18 @@
         <v>3</v>
       </c>
       <c r="D99" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-03</v>
+        <v>10-03-04</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I99" s="4">
         <v>4</v>
@@ -5573,18 +5610,18 @@
         <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-04</v>
+        <v>10-03-05</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I100" s="4">
         <v>4</v>
@@ -5598,7 +5635,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <f t="shared" si="31"/>
         <v>97</v>
@@ -5607,21 +5644,21 @@
         <v>10</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-03-05</v>
+        <f>TEXT(B101,"00")&amp;IF(C101="","","-"&amp;TEXT(C101,"00"))&amp;IF(D101="","","-"&amp;TEXT(D101,"00"))</f>
+        <v>10-04-01</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="16" t="s">
-        <v>149</v>
+      <c r="G101" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I101" s="4">
         <v>4</v>
@@ -5647,18 +5684,18 @@
         <v>4</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="1" t="str">
         <f>TEXT(B102,"00")&amp;IF(C102="","","-"&amp;TEXT(C102,"00"))&amp;IF(D102="","","-"&amp;TEXT(D102,"00"))</f>
-        <v>10-04-01</v>
+        <v>10-04-02</v>
       </c>
       <c r="F102" s="1"/>
-      <c r="G102" s="17" t="s">
-        <v>186</v>
+      <c r="G102" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I102" s="4">
         <v>4</v>
@@ -5684,18 +5721,18 @@
         <v>4</v>
       </c>
       <c r="D103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" s="1" t="str">
         <f>TEXT(B103,"00")&amp;IF(C103="","","-"&amp;TEXT(C103,"00"))&amp;IF(D103="","","-"&amp;TEXT(D103,"00"))</f>
-        <v>10-04-02</v>
+        <v>10-04-03</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I103" s="4">
         <v>4</v>
@@ -5709,7 +5746,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <f t="shared" si="31"/>
         <v>100</v>
@@ -5721,18 +5758,18 @@
         <v>4</v>
       </c>
       <c r="D104" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1" t="str">
         <f>TEXT(B104,"00")&amp;IF(C104="","","-"&amp;TEXT(C104,"00"))&amp;IF(D104="","","-"&amp;TEXT(D104,"00"))</f>
-        <v>10-04-03</v>
+        <v>10-04-04</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I104" s="4">
         <v>4</v>
@@ -5746,7 +5783,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <f t="shared" si="31"/>
         <v>101</v>
@@ -5755,21 +5792,21 @@
         <v>10</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>TEXT(B105,"00")&amp;IF(C105="","","-"&amp;TEXT(C105,"00"))&amp;IF(D105="","","-"&amp;TEXT(D105,"00"))</f>
-        <v>10-04-04</v>
+        <f t="shared" si="13"/>
+        <v>10-05-01</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="G105" s="16" t="s">
-        <v>189</v>
+      <c r="G105" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I105" s="4">
         <v>4</v>
@@ -5783,7 +5820,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <f t="shared" si="31"/>
         <v>102</v>
@@ -5795,18 +5832,18 @@
         <v>5</v>
       </c>
       <c r="D106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-01</v>
+        <v>10-05-02</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="13" t="s">
-        <v>190</v>
+      <c r="G106" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I106" s="4">
         <v>4</v>
@@ -5820,7 +5857,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <f t="shared" si="31"/>
         <v>103</v>
@@ -5832,18 +5869,18 @@
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-02</v>
+        <v>10-05-03</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I107" s="4">
         <v>4</v>
@@ -5857,7 +5894,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <f t="shared" si="31"/>
         <v>104</v>
@@ -5869,18 +5906,18 @@
         <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-03</v>
+        <v>10-05-04</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I108" s="4">
         <v>4</v>
@@ -5906,18 +5943,18 @@
         <v>5</v>
       </c>
       <c r="D109" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-04</v>
+        <v>10-05-05</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I109" s="4">
         <v>4</v>
@@ -5940,21 +5977,21 @@
         <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-05</v>
+        <v>10-06-01</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="16" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I110" s="4">
         <v>4</v>
@@ -5968,7 +6005,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <f t="shared" si="31"/>
         <v>107</v>
@@ -5977,21 +6014,21 @@
         <v>10</v>
       </c>
       <c r="C111" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-06-01</v>
+        <v>10-07-01</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I111" s="4">
         <v>4</v>
@@ -6006,63 +6043,58 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
-        <f t="shared" si="31"/>
-        <v>108</v>
-      </c>
-      <c r="B112" s="1">
-        <v>10</v>
-      </c>
-      <c r="C112" s="1">
-        <v>7</v>
-      </c>
-      <c r="D112" s="1">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-07-01</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I112" s="4">
-        <v>4</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K6:K13 K56:K83 K29:K32 K15 K19:K22 K35:K44 K46:K50 K85:K113">
+  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K46:K47 K84:K112 K37:K43 K49 K55:K82">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6070,15 +6102,15 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K28">
     <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6086,59 +6118,43 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+  <conditionalFormatting sqref="K83">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:K55">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="K52:K54">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"◆済"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"◆◆"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"◆済"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"◆◆"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6EEDC-737C-4C22-A482-A7074350CC1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F4362-59D9-4113-B919-059D791575AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="-4530" windowWidth="20820" windowHeight="11835" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_first" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="267">
   <si>
     <t>No</t>
   </si>
@@ -769,9 +769,6 @@
     <t>顧客インタビュー</t>
   </si>
   <si>
-    <t>INTERVIEW</t>
-  </si>
-  <si>
     <t>PROTO</t>
   </si>
   <si>
@@ -821,6 +818,27 @@
   </si>
   <si>
     <t>仕事、生活、睡眠などの行動時間が見える</t>
+  </si>
+  <si>
+    <t>台風で中止</t>
+  </si>
+  <si>
+    <t>中止</t>
+  </si>
+  <si>
+    <t>サービス・プロポジション</t>
+  </si>
+  <si>
+    <t>Service Propositon</t>
+  </si>
+  <si>
+    <t>presentation document</t>
+  </si>
+  <si>
+    <t>プレゼンテーション</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
 </sst>
 </file>
@@ -829,7 +847,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\　@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -989,12 +1007,54 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1490,13 +1550,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1745,7 +1805,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A84" si="3">ROW()-4</f>
+        <f t="shared" ref="A9:A86" si="3">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -2087,7 +2147,7 @@
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>205</v>
@@ -2133,7 +2193,7 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>201</v>
@@ -2179,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>204</v>
@@ -2511,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E111" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
+        <f t="shared" ref="E26:E113" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
         <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3047,7 +3107,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
@@ -3059,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>82</v>
@@ -3093,7 +3153,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>42</v>
@@ -3105,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>82</v>
@@ -3139,7 +3199,7 @@
         <v>76</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>42</v>
@@ -3151,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>82</v>
@@ -3185,7 +3245,7 @@
         <v>77</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
@@ -3197,7 +3257,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>82</v>
@@ -3685,7 +3745,7 @@
         <v>125</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
@@ -3731,7 +3791,7 @@
         <v>125</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M53" s="1" t="str">
         <f>IF(I53="↑","",IF(I53="-","",System_Code&amp;"_"&amp;H53&amp;IF(L53="-","","_"&amp;L53)))</f>
@@ -3777,7 +3837,7 @@
         <v>125</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M54" s="1" t="str">
         <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
@@ -3830,14 +3890,14 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="str">
-        <f t="shared" ref="E56:E63" si="22">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
+        <f t="shared" ref="E56:E65" si="22">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
         <v>06-01</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>158</v>
@@ -3855,7 +3915,7 @@
         <v>23</v>
       </c>
       <c r="M56" s="1" t="str">
-        <f t="shared" ref="M56:M63" si="23">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
+        <f t="shared" ref="M56:M65" si="23">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
         <v/>
       </c>
       <c r="N56" s="1"/>
@@ -3880,29 +3940,29 @@
         <v>06-01-01</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I57" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="M57" s="1" t="str">
         <f t="shared" si="23"/>
-        <v>SSE19_CD_PROTO</v>
+        <v>SSE19_CD_PROP</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3916,39 +3976,37 @@
         <v>6</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
         <v>2</v>
       </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-01-02</v>
+        <f t="shared" ref="E58:E60" si="24">TEXT(B58,"00")&amp;IF(C58="","","-"&amp;TEXT(C58,"00"))&amp;IF(D58="","","-"&amp;TEXT(D58,"00"))</f>
+        <v>06-02</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>92</v>
+        <v>167</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I58" s="4">
-        <v>2</v>
+      <c r="I58" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>SSE19_CD_PROTO</v>
+        <f t="shared" ref="M58:M60" si="25">IF(I58="↑","",IF(I58="-","",System_Code&amp;"_"&amp;H58&amp;IF(L58="-","","_"&amp;L58)))</f>
+        <v/>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3964,33 +4022,37 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-02</v>
+        <f t="shared" si="24"/>
+        <v>06-02-01</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>242</v>
+        <v>88</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I59" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L59" s="1" t="s">
         <v>243</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>SSE19_CD_INTERVIEW</v>
+        <f t="shared" si="25"/>
+        <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -4007,34 +4069,36 @@
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" ref="E60:E61" si="24">TEXT(B60,"00")&amp;IF(C60="","","-"&amp;TEXT(C60,"00"))&amp;IF(D60="","","-"&amp;TEXT(D60,"00"))</f>
-        <v>06-02-01</v>
+        <f t="shared" si="24"/>
+        <v>06-02-02</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>23</v>
+      <c r="I60" s="4">
+        <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L60" s="1" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" ref="M60:M61" si="25">IF(I60="↑","",IF(I60="-","",System_Code&amp;"_"&amp;H60&amp;IF(L60="-","","_"&amp;L60)))</f>
-        <v/>
+        <f t="shared" si="25"/>
+        <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -4048,41 +4112,39 @@
         <v>6</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>06-02-02</v>
+        <f t="shared" si="22"/>
+        <v>06-03</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>176</v>
+        <v>241</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I61" s="4">
-        <v>0.5</v>
+      <c r="I61" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="L61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>SSE19_CD</v>
-      </c>
-      <c r="N61" s="18">
-        <v>43717</v>
-      </c>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
@@ -4094,20 +4156,20 @@
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-02-03</v>
+        <f t="shared" ref="E62:E63" si="26">TEXT(B62,"00")&amp;IF(C62="","","-"&amp;TEXT(C62,"00"))&amp;IF(D62="","","-"&amp;TEXT(D62,"00"))</f>
+        <v>06-03-01</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>158</v>
@@ -4118,16 +4180,18 @@
       <c r="J62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="L62" s="1" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>SSE19_CD</v>
+        <f t="shared" ref="M62:M63" si="27">IF(I62="↑","",IF(I62="-","",System_Code&amp;"_"&amp;H62&amp;IF(L62="-","","_"&amp;L62)))</f>
+        <v>SSE19_CD_minutes</v>
       </c>
       <c r="N62" s="18">
-        <v>43719</v>
+        <v>43721</v>
       </c>
       <c r="O62" s="1"/>
     </row>
@@ -4140,128 +4204,136 @@
         <v>6</v>
       </c>
       <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
-        <v>4</v>
-      </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-02-04</v>
+        <f t="shared" si="26"/>
+        <v>06-03-02</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>23</v>
+      <c r="I63" s="4">
+        <v>0.5</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="L63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M63" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v>SSE19_CD</v>
+      </c>
+      <c r="N63" s="18">
+        <v>43717</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06-03-03</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>SSE19_CD_minutes</v>
+      </c>
+      <c r="N64" s="18">
+        <v>43719</v>
+      </c>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>06-03-04</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="B64" s="1">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f t="shared" ref="E64:E65" si="26">TEXT(B64,"00")&amp;IF(C64="","","-"&amp;TEXT(C64,"00"))&amp;IF(D64="","","-"&amp;TEXT(D64,"00"))</f>
-        <v>06-02-05</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M64" s="1" t="str">
-        <f t="shared" ref="M64:M65" si="27">IF(I64="↑","",IF(I64="-","",System_Code&amp;"_"&amp;H64&amp;IF(L64="-","","_"&amp;L64)))</f>
-        <v>SSE19_CD</v>
-      </c>
-      <c r="N64" s="18">
-        <v>43714</v>
-      </c>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B65" s="1">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1">
-        <v>6</v>
-      </c>
-      <c r="E65" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>06-02-06</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M65" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
@@ -4271,30 +4343,47 @@
         <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="6" t="str">
-        <f>TEXT(B66,"00")&amp;IF(C66="","","-"&amp;TEXT(C66,"00"))&amp;IF(D66="","",TEXT(D66,"00"))</f>
-        <v>07</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f t="shared" ref="E66:E67" si="28">TEXT(B66,"00")&amp;IF(C66="","","-"&amp;TEXT(C66,"00"))&amp;IF(D66="","","-"&amp;TEXT(D66,"00"))</f>
+        <v>06-03-05</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f t="shared" ref="M66:M67" si="29">IF(I66="↑","",IF(I66="-","",System_Code&amp;"_"&amp;H66&amp;IF(L66="-","","_"&amp;L66)))</f>
+        <v>SSE19_CD_minutes</v>
+      </c>
+      <c r="N66" s="18">
+        <v>43714</v>
+      </c>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
@@ -4302,214 +4391,203 @@
         <v>63</v>
       </c>
       <c r="B67" s="1">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>06-03-06</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
         <v>7</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="6" t="str">
+        <f>TEXT(B68,"00")&amp;IF(C68="","","-"&amp;TEXT(C68,"00"))&amp;IF(D68="","",TEXT(D68,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="1">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1">
         <v>1</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1" t="str">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G69" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" s="1" t="str">
-        <f t="shared" ref="M67:M75" si="28">IF(I67="↑","",IF(I67="-","",System_Code&amp;"_"&amp;H67&amp;IF(L67="-","","_"&amp;L67)))</f>
+      <c r="I69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="1" t="str">
+        <f t="shared" ref="M69:M77" si="30">IF(I69="↑","",IF(I69="-","",System_Code&amp;"_"&amp;H69&amp;IF(L69="-","","_"&amp;L69)))</f>
         <v/>
       </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
         <v>7</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C70" s="1">
         <v>1</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="1" t="str">
+      <c r="E70" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01-01</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G70" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I70" s="4">
         <v>6</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M68" s="1" t="str">
-        <f t="shared" si="28"/>
+      <c r="J70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M70" s="1" t="str">
+        <f t="shared" si="30"/>
         <v>SSE19_BD_SDD_01_Dashboard</v>
       </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B71" s="1">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D71" s="1">
         <v>2</v>
       </c>
-      <c r="E69" s="1" t="str">
+      <c r="E71" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01-02</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G71" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" s="4">
-        <v>2</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M69" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_SDD_00_Menu</v>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B70" s="1">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>07-02</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="4">
-        <v>8</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M70" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_STD</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="B71" s="1">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>07-03</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I71" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_RDD</v>
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_SDD_00_Menu</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -4523,18 +4601,18 @@
         <v>7</v>
       </c>
       <c r="C72" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-04</v>
+        <v>07-02</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>86</v>
@@ -4547,11 +4625,11 @@
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_IFD</v>
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_STD</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4565,18 +4643,18 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-05</v>
+        <v>07-03</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>86</v>
@@ -4587,13 +4665,15 @@
       <c r="J73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L73" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_API</v>
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_RDD</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4607,18 +4687,18 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-06</v>
+        <v>07-04</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>86</v>
@@ -4631,11 +4711,11 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_BJD</v>
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_IFD</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -4649,37 +4729,35 @@
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-07</v>
+        <v>07-05</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I75" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>SSE19_BD_FL</v>
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_API</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4690,30 +4768,41 @@
         <v>72</v>
       </c>
       <c r="B76" s="1">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>07-06</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="4">
         <v>8</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="6" t="str">
-        <f>TEXT(B76,"00")&amp;IF(C76="","","-"&amp;TEXT(C76,"00"))&amp;IF(D76="","",TEXT(D76,"00"))</f>
-        <v>08</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
+      <c r="J76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_BJD</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
@@ -4721,40 +4810,40 @@
         <v>73</v>
       </c>
       <c r="B77" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-01</v>
+        <v>07-07</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="I77" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="M77" s="1" t="str">
-        <f>IF(I77="↑","",IF(I77="-","",System_Code&amp;"_"&amp;H77&amp;IF(L77="-","","_"&amp;L77)))</f>
-        <v>SSE19_SD_ARCS</v>
+        <f t="shared" si="30"/>
+        <v>SSE19_BD_FL</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4767,41 +4856,28 @@
       <c r="B78" s="1">
         <v>8</v>
       </c>
-      <c r="C78" s="1">
-        <v>2</v>
-      </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>08-02</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="E78" s="6" t="str">
+        <f>TEXT(B78,"00")&amp;IF(C78="","","-"&amp;TEXT(C78,"00"))&amp;IF(D78="","",TEXT(D78,"00"))</f>
+        <v>08</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I78" s="4">
-        <v>8</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M78" s="1" t="str">
-        <f>IF(I78="↑","",IF(I78="-","",System_Code&amp;"_"&amp;H78&amp;IF(L78="-","","_"&amp;L78)))</f>
-        <v>SSE19_SD_ARCA</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
@@ -4812,24 +4888,24 @@
         <v>8</v>
       </c>
       <c r="C79" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="str">
-        <f t="shared" ref="E79" si="29">TEXT(B79,"00")&amp;IF(C79="","","-"&amp;TEXT(C79,"00"))&amp;IF(D79="","","-"&amp;TEXT(D79,"00"))</f>
-        <v>08-03</v>
+        <f t="shared" si="13"/>
+        <v>08-01</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I79" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>13</v>
@@ -4838,11 +4914,11 @@
         <v>196</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M79" s="1" t="str">
         <f>IF(I79="↑","",IF(I79="-","",System_Code&amp;"_"&amp;H79&amp;IF(L79="-","","_"&amp;L79)))</f>
-        <v>SSE19_SD_ERD</v>
+        <v>SSE19_SD_ARCS</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4856,24 +4932,24 @@
         <v>8</v>
       </c>
       <c r="C80" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-04</v>
+        <v>08-02</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I80" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>13</v>
@@ -4882,11 +4958,11 @@
         <v>196</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="M80" s="1" t="str">
         <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
-        <v>SSE19_SD_TBLD</v>
+        <v>SSE19_SD_ARCA</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -4897,30 +4973,43 @@
         <v>77</v>
       </c>
       <c r="B81" s="1">
-        <v>9</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="6" t="str">
-        <f>TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","",TEXT(D81,"00"))</f>
-        <v>09</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I81" s="7"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
+      <c r="E81" s="1" t="str">
+        <f t="shared" ref="E81" si="31">TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","","-"&amp;TEXT(D81,"00"))</f>
+        <v>08-03</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I81" s="4">
+        <v>4</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f>IF(I81="↑","",IF(I81="-","",System_Code&amp;"_"&amp;H81&amp;IF(L81="-","","_"&amp;L81)))</f>
+        <v>SSE19_SD_ERD</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
@@ -4928,24 +5017,24 @@
         <v>78</v>
       </c>
       <c r="B82" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="str">
-        <f t="shared" ref="E82" si="30">TEXT(B82,"00")&amp;IF(C82="","","-"&amp;TEXT(C82,"00"))&amp;IF(D82="","","-"&amp;TEXT(D82,"00"))</f>
-        <v>09-01</v>
+        <f t="shared" si="13"/>
+        <v>08-04</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="I82" s="4">
         <v>4</v>
@@ -4953,58 +5042,49 @@
       <c r="J82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K82" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="L82" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M82" s="1" t="str">
         <f>IF(I82="↑","",IF(I82="-","",System_Code&amp;"_"&amp;H82&amp;IF(L82="-","","_"&amp;L82)))</f>
-        <v>SSE19_Iter-pre_MVP</v>
+        <v>SSE19_SD_TBLD</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <f t="shared" ref="A83:A111" si="31">ROW()-4</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B83" s="1">
         <v>9</v>
       </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1" t="str">
-        <f t="shared" ref="E83" si="32">TEXT(B83,"00")&amp;IF(C83="","","-"&amp;TEXT(C83,"00"))&amp;IF(D83="","","-"&amp;TEXT(D83,"00"))</f>
-        <v>09-02</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="H83" s="1" t="s">
+      <c r="E83" s="6" t="str">
+        <f>TEXT(B83,"00")&amp;IF(C83="","","-"&amp;TEXT(C83,"00"))&amp;IF(D83="","",TEXT(D83,"00"))</f>
+        <v>09</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I83" s="4">
-        <v>4</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M83" s="1" t="str">
-        <f>IF(I83="↑","",IF(I83="-","",System_Code&amp;"_"&amp;H83&amp;IF(L83="-","","_"&amp;L83)))</f>
-        <v>SSE19_Iter-pre_PBL</v>
-      </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
@@ -5012,188 +5092,198 @@
         <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>10</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="6" t="str">
-        <f>TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","",TEXT(D84,"00"))</f>
-        <v>10</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
+      <c r="E84" s="1" t="str">
+        <f t="shared" ref="E84" si="32">TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","","-"&amp;TEXT(D84,"00"))</f>
+        <v>09-01</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84" s="4">
+        <v>4</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f>IF(I84="↑","",IF(I84="-","",System_Code&amp;"_"&amp;H84&amp;IF(L84="-","","_"&amp;L84)))</f>
+        <v>SSE19_Iter-pre_MVP</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="A85:A113" si="33">ROW()-4</f>
         <v>81</v>
       </c>
       <c r="B85" s="1">
-        <v>10</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="str">
+        <f t="shared" ref="E85" si="34">TEXT(B85,"00")&amp;IF(C85="","","-"&amp;TEXT(C85,"00"))&amp;IF(D85="","","-"&amp;TEXT(D85,"00"))</f>
+        <v>09-02</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I85" s="4">
+        <v>4</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
+        <v>SSE19_Iter-pre_PBL</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="6" t="str">
+        <f>TEXT(B86,"00")&amp;IF(C86="","","-"&amp;TEXT(C86,"00"))&amp;IF(D86="","",TEXT(D86,"00"))</f>
+        <v>10</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <f t="shared" si="33"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="1">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="str">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G87" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1" t="str">
-        <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
-        <v/>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
-        <f t="shared" si="31"/>
-        <v>82</v>
-      </c>
-      <c r="B86" s="1">
-        <v>10</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="str">
-        <f>TEXT(B86,"00")&amp;IF(C86="","","-"&amp;TEXT(C86,"00"))&amp;IF(D86="","","-"&amp;TEXT(D86,"00"))</f>
-        <v>10-00</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I86" s="4">
-        <v>2</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M86" s="1" t="str">
-        <f>IF(I86="↑","",IF(I86="-","",System_Code&amp;"_"&amp;H86&amp;IF(L86="-","","_"&amp;L86)))</f>
-        <v>SSE19_Iter1_SBL</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
-        <f t="shared" si="31"/>
-        <v>83</v>
-      </c>
-      <c r="B87" s="1">
-        <v>10</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="str">
-        <f t="shared" ref="E87" si="33">TEXT(B87,"00")&amp;IF(C87="","","-"&amp;TEXT(C87,"00"))&amp;IF(D87="","","-"&amp;TEXT(D87,"00"))</f>
-        <v>10-01-01</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I87" s="4">
-        <v>4</v>
+      <c r="I87" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+      <c r="M87" s="1" t="str">
+        <f>IF(I87="↑","",IF(I87="-","",System_Code&amp;"_"&amp;H87&amp;IF(L87="-","","_"&amp;L87)))</f>
+        <v/>
+      </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>84</v>
       </c>
       <c r="B88" s="1">
         <v>10</v>
       </c>
       <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D88" s="1"/>
       <c r="E88" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-02</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="16" t="s">
-        <v>135</v>
+        <f>TEXT(B88,"00")&amp;IF(C88="","","-"&amp;TEXT(C88,"00"))&amp;IF(D88="","","-"&amp;TEXT(D88,"00"))</f>
+        <v>10-00</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>227</v>
       </c>
       <c r="I88" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M88" s="1" t="str">
+        <f>IF(I88="↑","",IF(I88="-","",System_Code&amp;"_"&amp;H88&amp;IF(L88="-","","_"&amp;L88)))</f>
+        <v>SSE19_Iter1_SBL</v>
+      </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>85</v>
       </c>
       <c r="B89" s="1">
@@ -5203,15 +5293,15 @@
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-03</v>
+        <f t="shared" ref="E89" si="35">TEXT(B89,"00")&amp;IF(C89="","","-"&amp;TEXT(C89,"00"))&amp;IF(D89="","","-"&amp;TEXT(D89,"00"))</f>
+        <v>10-01-01</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="16" t="s">
-        <v>136</v>
+      <c r="G89" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>227</v>
@@ -5228,9 +5318,9 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>86</v>
       </c>
       <c r="B90" s="1">
@@ -5240,15 +5330,15 @@
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-04</v>
+        <v>10-01-02</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>227</v>
@@ -5267,7 +5357,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>87</v>
       </c>
       <c r="B91" s="1">
@@ -5277,15 +5367,15 @@
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-05</v>
+        <v>10-01-03</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>227</v>
@@ -5304,25 +5394,25 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>88</v>
       </c>
       <c r="B92" s="1">
         <v>10</v>
       </c>
       <c r="C92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-01</v>
+        <v>10-01-04</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>227</v>
@@ -5341,25 +5431,25 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>89</v>
       </c>
       <c r="B93" s="1">
         <v>10</v>
       </c>
       <c r="C93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-02</v>
+        <v>10-01-05</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>227</v>
@@ -5378,7 +5468,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
       <c r="B94" s="1">
@@ -5388,15 +5478,15 @@
         <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-03</v>
+        <v>10-02-01</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>227</v>
@@ -5413,9 +5503,9 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>91</v>
       </c>
       <c r="B95" s="1">
@@ -5425,15 +5515,15 @@
         <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-04</v>
+        <v>10-02-02</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>227</v>
@@ -5452,25 +5542,25 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>92</v>
       </c>
       <c r="B96" s="1">
         <v>10</v>
       </c>
       <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
         <v>3</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-01</v>
+        <v>10-02-03</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="13" t="s">
-        <v>143</v>
+      <c r="G96" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>227</v>
@@ -5489,25 +5579,25 @@
     </row>
     <row r="97" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>93</v>
       </c>
       <c r="B97" s="1">
         <v>10</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-02</v>
+        <v>10-02-04</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97" s="13" t="s">
-        <v>144</v>
+      <c r="G97" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>227</v>
@@ -5526,7 +5616,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>94</v>
       </c>
       <c r="B98" s="1">
@@ -5536,15 +5626,15 @@
         <v>3</v>
       </c>
       <c r="D98" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-03</v>
+        <v>10-03-01</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="16" t="s">
-        <v>145</v>
+      <c r="G98" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>227</v>
@@ -5563,7 +5653,7 @@
     </row>
     <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>95</v>
       </c>
       <c r="B99" s="1">
@@ -5573,15 +5663,15 @@
         <v>3</v>
       </c>
       <c r="D99" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-04</v>
+        <v>10-03-02</v>
       </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="16" t="s">
-        <v>146</v>
+      <c r="G99" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>227</v>
@@ -5598,9 +5688,9 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>96</v>
       </c>
       <c r="B100" s="1">
@@ -5610,15 +5700,15 @@
         <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-05</v>
+        <v>10-03-03</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>227</v>
@@ -5635,27 +5725,27 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>97</v>
       </c>
       <c r="B101" s="1">
         <v>10</v>
       </c>
       <c r="C101" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>TEXT(B101,"00")&amp;IF(C101="","","-"&amp;TEXT(C101,"00"))&amp;IF(D101="","","-"&amp;TEXT(D101,"00"))</f>
-        <v>10-04-01</v>
+        <f t="shared" si="13"/>
+        <v>10-03-04</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="17" t="s">
-        <v>183</v>
+      <c r="G101" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>227</v>
@@ -5672,27 +5762,27 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>98</v>
       </c>
       <c r="B102" s="1">
         <v>10</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>TEXT(B102,"00")&amp;IF(C102="","","-"&amp;TEXT(C102,"00"))&amp;IF(D102="","","-"&amp;TEXT(D102,"00"))</f>
-        <v>10-04-02</v>
+        <f t="shared" si="13"/>
+        <v>10-03-05</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="16" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>227</v>
@@ -5711,7 +5801,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>99</v>
       </c>
       <c r="B103" s="1">
@@ -5721,15 +5811,15 @@
         <v>4</v>
       </c>
       <c r="D103" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1" t="str">
         <f>TEXT(B103,"00")&amp;IF(C103="","","-"&amp;TEXT(C103,"00"))&amp;IF(D103="","","-"&amp;TEXT(D103,"00"))</f>
-        <v>10-04-03</v>
+        <v>10-04-01</v>
       </c>
       <c r="F103" s="1"/>
-      <c r="G103" s="16" t="s">
-        <v>185</v>
+      <c r="G103" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>227</v>
@@ -5746,9 +5836,9 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="B104" s="1">
@@ -5758,15 +5848,15 @@
         <v>4</v>
       </c>
       <c r="D104" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1" t="str">
         <f>TEXT(B104,"00")&amp;IF(C104="","","-"&amp;TEXT(C104,"00"))&amp;IF(D104="","","-"&amp;TEXT(D104,"00"))</f>
-        <v>10-04-04</v>
+        <v>10-04-02</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>227</v>
@@ -5785,25 +5875,25 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>101</v>
       </c>
       <c r="B105" s="1">
         <v>10</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-01</v>
+        <f>TEXT(B105,"00")&amp;IF(C105="","","-"&amp;TEXT(C105,"00"))&amp;IF(D105="","","-"&amp;TEXT(D105,"00"))</f>
+        <v>10-04-03</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="G105" s="13" t="s">
-        <v>187</v>
+      <c r="G105" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>227</v>
@@ -5822,25 +5912,25 @@
     </row>
     <row r="106" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="B106" s="1">
         <v>10</v>
       </c>
       <c r="C106" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-02</v>
+        <f>TEXT(B106,"00")&amp;IF(C106="","","-"&amp;TEXT(C106,"00"))&amp;IF(D106="","","-"&amp;TEXT(D106,"00"))</f>
+        <v>10-04-04</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>227</v>
@@ -5859,7 +5949,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>103</v>
       </c>
       <c r="B107" s="1">
@@ -5869,15 +5959,15 @@
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-03</v>
+        <v>10-05-01</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="G107" s="16" t="s">
-        <v>189</v>
+      <c r="G107" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>227</v>
@@ -5896,7 +5986,7 @@
     </row>
     <row r="108" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>104</v>
       </c>
       <c r="B108" s="1">
@@ -5906,15 +5996,15 @@
         <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-04</v>
+        <v>10-05-02</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>227</v>
@@ -5931,9 +6021,9 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>105</v>
       </c>
       <c r="B109" s="1">
@@ -5943,15 +6033,15 @@
         <v>5</v>
       </c>
       <c r="D109" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-05</v>
+        <v>10-05-03</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>227</v>
@@ -5970,25 +6060,25 @@
     </row>
     <row r="110" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>106</v>
       </c>
       <c r="B110" s="1">
         <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-06-01</v>
+        <v>10-05-04</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="16" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>227</v>
@@ -6005,27 +6095,27 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>107</v>
       </c>
       <c r="B111" s="1">
         <v>10</v>
       </c>
       <c r="C111" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-07-01</v>
+        <v>10-05-05</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="16" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>227</v>
@@ -6042,119 +6132,225 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+    <row r="112" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <f t="shared" si="33"/>
+        <v>108</v>
+      </c>
+      <c r="B112" s="1">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-06-01</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I112" s="4">
+        <v>4</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <f t="shared" si="33"/>
+        <v>109</v>
+      </c>
+      <c r="B113" s="1">
+        <v>10</v>
+      </c>
+      <c r="C113" s="1">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-07-01</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I113" s="4">
+        <v>4</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K46:K47 K84:K112 K37:K43 K49 K55:K82">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K46:K47 K86:K114 K49 K55:K56 K67:K84 K62:K65 K37:K43">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K83">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="K85">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:K36">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:K54">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58:K60">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192F4362-59D9-4113-B919-059D791575AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5DDB46-06DA-4BF8-95E6-D0C34D9B4015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS_first" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="267">
   <si>
     <t>No</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Screen Transition Design</t>
   </si>
   <si>
-    <t>ダッシュボード</t>
-  </si>
-  <si>
     <t>メニュー</t>
   </si>
   <si>
@@ -839,6 +836,9 @@
   </si>
   <si>
     <t>minutes</t>
+  </si>
+  <si>
+    <t>ダッシュボード(Today)</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1556,7 +1612,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1576,14 +1632,14 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="11"/>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1595,7 +1651,7 @@
       </c>
       <c r="G2" s="9"/>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O2" s="12">
         <v>43697</v>
@@ -1638,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>18</v>
@@ -1668,13 +1724,13 @@
         <v>01</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>193</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -1704,10 +1760,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
@@ -1716,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
@@ -1748,10 +1804,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
@@ -1760,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1835,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
@@ -1879,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>24</v>
@@ -1923,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
@@ -1955,7 +2011,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -1967,7 +2023,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>32</v>
@@ -2011,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>35</v>
@@ -2089,7 +2145,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -2101,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>56</v>
@@ -2135,7 +2191,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -2147,10 +2203,10 @@
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2181,7 +2237,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -2193,10 +2249,10 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2224,10 +2280,10 @@
         <v>02-07-04</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -2239,10 +2295,10 @@
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" ref="M18" si="8">IF(I18="↑","",IF(I18="-","",System_Code&amp;"_"&amp;H18&amp;IF(L18="-","","_"&amp;L18)))</f>
@@ -2273,7 +2329,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -2285,7 +2341,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>40</v>
@@ -2316,10 +2372,10 @@
         <v>02-07-06</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -2331,10 +2387,10 @@
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" ref="M20" si="10">IF(I20="↑","",IF(I20="-","",System_Code&amp;"_"&amp;H20&amp;IF(L20="-","","_"&amp;L20)))</f>
@@ -2362,10 +2418,10 @@
         <v>02-07-07</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -2377,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>30</v>
@@ -2404,13 +2460,13 @@
         <v>03</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
@@ -2443,7 +2499,7 @@
         <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I23" s="4">
         <v>8</v>
@@ -2483,13 +2539,13 @@
         <v>03-01-01</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>224</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>51</v>
@@ -2498,7 +2554,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
@@ -2535,7 +2591,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>51</v>
@@ -2544,7 +2600,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>23</v>
@@ -2581,7 +2637,7 @@
         <v>53</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>51</v>
@@ -2590,7 +2646,7 @@
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
@@ -2627,7 +2683,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>51</v>
@@ -2636,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>23</v>
@@ -2673,7 +2729,7 @@
         <v>63</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>51</v>
@@ -2682,7 +2738,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>23</v>
@@ -2803,10 +2859,10 @@
         <v>13</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="12"/>
@@ -2849,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>64</v>
@@ -2924,10 +2980,10 @@
         <v>04-03-01</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>42</v>
@@ -2939,10 +2995,10 @@
         <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" ref="M34" si="16">IF(I34="↑","",IF(I34="-","",System_Code&amp;"_"&amp;H34&amp;IF(L34="-","","_"&amp;L34)))</f>
@@ -2985,10 +3041,10 @@
         <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3031,10 +3087,10 @@
         <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M36" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3107,7 +3163,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
@@ -3119,7 +3175,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>82</v>
@@ -3153,7 +3209,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>42</v>
@@ -3165,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>82</v>
@@ -3199,7 +3255,7 @@
         <v>76</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>42</v>
@@ -3211,7 +3267,7 @@
         <v>13</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>82</v>
@@ -3245,7 +3301,7 @@
         <v>77</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
@@ -3257,7 +3313,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>82</v>
@@ -3303,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>82</v>
@@ -3349,7 +3405,7 @@
         <v>13</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>83</v>
@@ -3378,10 +3434,10 @@
         <v>04-05</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>151</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>42</v>
@@ -3424,10 +3480,10 @@
         <v>04-05-01</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>42</v>
@@ -3439,10 +3495,10 @@
         <v>13</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3470,10 +3526,10 @@
         <v>04-05-02</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>42</v>
@@ -3485,10 +3541,10 @@
         <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M46" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3516,10 +3572,10 @@
         <v>04-05-03</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>42</v>
@@ -3531,10 +3587,10 @@
         <v>13</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M47" s="1" t="str">
         <f t="shared" ref="M47:M48" si="18">IF(I47="↑","",IF(I47="-","",System_Code&amp;"_"&amp;H47&amp;IF(L47="-","","_"&amp;L47)))</f>
@@ -3562,10 +3618,10 @@
         <v>04-05-04</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>42</v>
@@ -3577,10 +3633,10 @@
         <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M48" s="1" t="str">
         <f t="shared" si="18"/>
@@ -3608,10 +3664,10 @@
         <v>04-05-05</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>42</v>
@@ -3623,10 +3679,10 @@
         <v>13</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M49" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3650,13 +3706,13 @@
         <v>05</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>230</v>
-      </c>
       <c r="H50" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="6"/>
@@ -3684,10 +3740,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>23</v>
@@ -3727,13 +3783,13 @@
         <v>05-01-01</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>232</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52" s="4">
         <v>12</v>
@@ -3742,10 +3798,10 @@
         <v>13</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
@@ -3773,13 +3829,13 @@
         <v>05-01-02</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" s="4">
         <v>12</v>
@@ -3788,10 +3844,10 @@
         <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M53" s="1" t="str">
         <f>IF(I53="↑","",IF(I53="-","",System_Code&amp;"_"&amp;H53&amp;IF(L53="-","","_"&amp;L53)))</f>
@@ -3819,13 +3875,13 @@
         <v>05-01-03</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I54" s="4">
         <v>12</v>
@@ -3834,10 +3890,10 @@
         <v>13</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M54" s="1" t="str">
         <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
@@ -3861,13 +3917,13 @@
         <v>06</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="6"/>
@@ -3894,13 +3950,13 @@
         <v>06-01</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>23</v>
@@ -3940,13 +3996,13 @@
         <v>06-01-01</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G57" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G57" s="16" t="s">
-        <v>265</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I57" s="4">
         <v>12</v>
@@ -3955,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>19</v>
@@ -3984,13 +4040,13 @@
         <v>06-02</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G58" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
@@ -4033,10 +4089,10 @@
         <v>88</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I59" s="4">
         <v>6</v>
@@ -4045,10 +4101,10 @@
         <v>13</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M59" s="1" t="str">
         <f t="shared" si="25"/>
@@ -4079,10 +4135,10 @@
         <v>89</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I60" s="4">
         <v>2</v>
@@ -4091,10 +4147,10 @@
         <v>13</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M60" s="1" t="str">
         <f t="shared" si="25"/>
@@ -4120,13 +4176,13 @@
         <v>06-03</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>23</v>
@@ -4166,13 +4222,13 @@
         <v>06-03-01</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I62" s="4">
         <v>0.5</v>
@@ -4181,10 +4237,10 @@
         <v>13</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M62" s="1" t="str">
         <f t="shared" ref="M62:M63" si="27">IF(I62="↑","",IF(I62="-","",System_Code&amp;"_"&amp;H62&amp;IF(L62="-","","_"&amp;L62)))</f>
@@ -4214,13 +4270,13 @@
         <v>06-03-02</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I63" s="4">
         <v>0.5</v>
@@ -4229,7 +4285,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>23</v>
@@ -4242,7 +4298,7 @@
         <v>43717</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -4264,13 +4320,13 @@
         <v>06-03-03</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I64" s="4">
         <v>0.5</v>
@@ -4279,10 +4335,10 @@
         <v>13</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M64" s="1" t="str">
         <f t="shared" si="23"/>
@@ -4312,13 +4368,13 @@
         <v>06-03-04</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>23</v>
@@ -4356,13 +4412,13 @@
         <v>06-03-05</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I66" s="4">
         <v>0.5</v>
@@ -4371,10 +4427,10 @@
         <v>13</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M66" s="1" t="str">
         <f t="shared" ref="M66:M67" si="29">IF(I66="↑","",IF(I66="-","",System_Code&amp;"_"&amp;H66&amp;IF(L66="-","","_"&amp;L66)))</f>
@@ -4404,13 +4460,13 @@
         <v>06-03-06</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>23</v>
@@ -4480,7 +4536,7 @@
         <v>87</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>86</v>
@@ -4526,7 +4582,7 @@
         <v>88</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>86</v>
@@ -4537,9 +4593,11 @@
       <c r="J70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K70" s="1"/>
+      <c r="K70" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L70" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M70" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4570,7 +4628,7 @@
         <v>89</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>86</v>
@@ -4581,9 +4639,11 @@
       <c r="J71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L71" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M71" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4612,7 +4672,7 @@
         <v>90</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>86</v>
@@ -4623,9 +4683,11 @@
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="L72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M72" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4651,10 +4713,10 @@
         <v>07-03</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>86</v>
@@ -4666,10 +4728,10 @@
         <v>13</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M73" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4695,10 +4757,10 @@
         <v>07-04</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>86</v>
@@ -4711,7 +4773,7 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M74" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4737,10 +4799,10 @@
         <v>07-05</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>86</v>
@@ -4753,7 +4815,7 @@
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M75" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4779,10 +4841,10 @@
         <v>07-06</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>86</v>
@@ -4795,7 +4857,7 @@
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M76" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4821,10 +4883,10 @@
         <v>07-07</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G77" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>86</v>
@@ -4836,10 +4898,10 @@
         <v>13</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M77" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4863,13 +4925,13 @@
         <v>08</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="H78" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="6"/>
@@ -4896,13 +4958,13 @@
         <v>08-01</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I79" s="4">
         <v>8</v>
@@ -4911,10 +4973,10 @@
         <v>13</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M79" s="1" t="str">
         <f>IF(I79="↑","",IF(I79="-","",System_Code&amp;"_"&amp;H79&amp;IF(L79="-","","_"&amp;L79)))</f>
@@ -4940,13 +5002,13 @@
         <v>08-02</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G80" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I80" s="4">
         <v>8</v>
@@ -4955,10 +5017,10 @@
         <v>13</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M80" s="1" t="str">
         <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
@@ -4984,25 +5046,25 @@
         <v>08-03</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="H81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I81" s="4">
+        <v>4</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I81" s="4">
-        <v>4</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="M81" s="1" t="str">
         <f>IF(I81="↑","",IF(I81="-","",System_Code&amp;"_"&amp;H81&amp;IF(L81="-","","_"&amp;L81)))</f>
@@ -5028,25 +5090,25 @@
         <v>08-04</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G82" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="H82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="4">
+        <v>4</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I82" s="4">
-        <v>4</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="M82" s="1" t="str">
         <f>IF(I82="↑","",IF(I82="-","",System_Code&amp;"_"&amp;H82&amp;IF(L82="-","","_"&amp;L82)))</f>
@@ -5070,13 +5132,13 @@
         <v>09</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G83" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>213</v>
-      </c>
       <c r="H83" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="6"/>
@@ -5103,13 +5165,13 @@
         <v>09-01</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>132</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I84" s="4">
         <v>4</v>
@@ -5119,7 +5181,7 @@
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M84" s="1" t="str">
         <f>IF(I84="↑","",IF(I84="-","",System_Code&amp;"_"&amp;H84&amp;IF(L84="-","","_"&amp;L84)))</f>
@@ -5145,13 +5207,13 @@
         <v>09-02</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I85" s="4">
         <v>4</v>
@@ -5161,7 +5223,7 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M85" s="1" t="str">
         <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
@@ -5185,13 +5247,13 @@
         <v>10</v>
       </c>
       <c r="F86" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="G86" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="H86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="6"/>
@@ -5216,13 +5278,13 @@
         <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G87" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>23</v>
@@ -5256,13 +5318,13 @@
         <v>10-00</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I88" s="4">
         <v>2</v>
@@ -5272,7 +5334,7 @@
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M88" s="1" t="str">
         <f>IF(I88="↑","",IF(I88="-","",System_Code&amp;"_"&amp;H88&amp;IF(L88="-","","_"&amp;L88)))</f>
@@ -5301,10 +5363,10 @@
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
@@ -5338,10 +5400,10 @@
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I90" s="4">
         <v>4</v>
@@ -5375,10 +5437,10 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I91" s="4">
         <v>4</v>
@@ -5412,10 +5474,10 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
@@ -5449,10 +5511,10 @@
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I93" s="4">
         <v>4</v>
@@ -5486,10 +5548,10 @@
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I94" s="4">
         <v>4</v>
@@ -5523,10 +5585,10 @@
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I95" s="4">
         <v>4</v>
@@ -5560,10 +5622,10 @@
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I96" s="4">
         <v>4</v>
@@ -5597,10 +5659,10 @@
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I97" s="4">
         <v>4</v>
@@ -5634,10 +5696,10 @@
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I98" s="4">
         <v>4</v>
@@ -5671,10 +5733,10 @@
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I99" s="4">
         <v>4</v>
@@ -5708,10 +5770,10 @@
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I100" s="4">
         <v>4</v>
@@ -5745,10 +5807,10 @@
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I101" s="4">
         <v>4</v>
@@ -5782,10 +5844,10 @@
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I102" s="4">
         <v>4</v>
@@ -5819,10 +5881,10 @@
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I103" s="4">
         <v>4</v>
@@ -5856,10 +5918,10 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I104" s="4">
         <v>4</v>
@@ -5893,10 +5955,10 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I105" s="4">
         <v>4</v>
@@ -5930,10 +5992,10 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I106" s="4">
         <v>4</v>
@@ -5967,10 +6029,10 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I107" s="4">
         <v>4</v>
@@ -6004,10 +6066,10 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I108" s="4">
         <v>4</v>
@@ -6041,10 +6103,10 @@
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I109" s="4">
         <v>4</v>
@@ -6078,10 +6140,10 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I110" s="4">
         <v>4</v>
@@ -6115,10 +6177,10 @@
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I111" s="4">
         <v>4</v>
@@ -6152,10 +6214,10 @@
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I112" s="4">
         <v>4</v>
@@ -6189,10 +6251,10 @@
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I113" s="4">
         <v>4</v>
@@ -6226,7 +6288,39 @@
   </sheetData>
   <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K46:K47 K86:K114 K49 K55:K56 K67:K84 K62:K65 K37:K43">
+  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K46:K47 K86:K114 K49 K55:K56 K63 K37:K43 K65 K67:K84">
+    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6234,15 +6328,15 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K28">
     <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6250,39 +6344,39 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+  <conditionalFormatting sqref="K85">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="equal">
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+  <conditionalFormatting sqref="K45">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85">
+  <conditionalFormatting sqref="K52:K54">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6290,7 +6384,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K36">
+  <conditionalFormatting sqref="K58">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6298,7 +6392,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="K66">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6306,7 +6400,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K57">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6314,7 +6408,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K54">
+  <conditionalFormatting sqref="K61">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6322,7 +6416,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:K60">
+  <conditionalFormatting sqref="K59">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6330,7 +6424,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
+  <conditionalFormatting sqref="K60">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6338,7 +6432,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
+  <conditionalFormatting sqref="K62">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6346,7 +6440,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
+  <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>

--- a/_project_docs/SSE19_SPP_WBS.xlsx
+++ b/_project_docs/SSE19_SPP_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5DDB46-06DA-4BF8-95E6-D0C34D9B4015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F239E1E-A75E-4332-A7E9-A2C4E5B71D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{D3C1DD7E-20E6-4452-8E15-DB8203761C57}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="WBS_first" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS_first!$A$4:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WBS_first!$A$4:$P$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WBS_first!$4:$4</definedName>
     <definedName name="System_Code">WBS_first!$F$2</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="283">
   <si>
     <t>No</t>
   </si>
@@ -280,9 +280,6 @@
     <t>UC-07</t>
   </si>
   <si>
-    <t>働き方データを表示する</t>
-  </si>
-  <si>
     <t>働き方サービスを運用する</t>
   </si>
   <si>
@@ -331,12 +328,6 @@
     <t>Report Design</t>
   </si>
   <si>
-    <t>RDD</t>
-  </si>
-  <si>
-    <t>画面設計（出力票・グラフ）</t>
-  </si>
-  <si>
     <t>Interface Design</t>
   </si>
   <si>
@@ -349,15 +340,6 @@
     <t>インターフェース設計（API連携IF等）</t>
   </si>
   <si>
-    <t>IFD</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>BJD</t>
-  </si>
-  <si>
     <t>Batch Job Design</t>
   </si>
   <si>
@@ -619,9 +601,6 @@
     <t>Proof of Concecpt</t>
   </si>
   <si>
-    <t>◆◆</t>
-  </si>
-  <si>
     <t>データ設計</t>
   </si>
   <si>
@@ -727,9 +706,6 @@
     <t>プロトタイプ事前検証</t>
   </si>
   <si>
-    <t>Validation for Prototyping</t>
-  </si>
-  <si>
     <t>keystrokes</t>
   </si>
   <si>
@@ -769,15 +745,6 @@
     <t>PROTO</t>
   </si>
   <si>
-    <t>PROTD_keystrokes</t>
-  </si>
-  <si>
-    <t>PROTD_activewindow</t>
-  </si>
-  <si>
-    <t>PROTD_pcactiveinfo</t>
-  </si>
-  <si>
     <t>ARCA</t>
   </si>
   <si>
@@ -839,6 +806,87 @@
   </si>
   <si>
     <t>ダッシュボード(Today)</t>
+  </si>
+  <si>
+    <t>UC-05</t>
+  </si>
+  <si>
+    <t>プロジェクトで作成したドキュメントの更新、参照時間が見える</t>
+  </si>
+  <si>
+    <t>働き方データを分析する</t>
+  </si>
+  <si>
+    <t>次フェーズ対応</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>SSE19_SPPに含む</t>
+  </si>
+  <si>
+    <t>SSE19_SPP_PREPLに含む</t>
+  </si>
+  <si>
+    <t>SSE19_Bizに含む</t>
+  </si>
+  <si>
+    <t>中間成果物</t>
+  </si>
+  <si>
+    <t>GitHub:keystrokes</t>
+  </si>
+  <si>
+    <t>GitHub:GetActiveWindows</t>
+  </si>
+  <si>
+    <t>GitHub:transformPCActiveInfo</t>
+  </si>
+  <si>
+    <t>IFD/IFL</t>
+  </si>
+  <si>
+    <t>画面一覧</t>
+  </si>
+  <si>
+    <t>SDL</t>
+  </si>
+  <si>
+    <t>RDD/RDL</t>
+  </si>
+  <si>
+    <t>API/APIL</t>
+  </si>
+  <si>
+    <t>BJD/BJL</t>
+  </si>
+  <si>
+    <t>SSE19_CD_PROTOに含む</t>
+  </si>
+  <si>
+    <t>SSE19_BD_FLに含む</t>
+  </si>
+  <si>
+    <t>Validation for Prototyping Pre-Development</t>
+  </si>
+  <si>
+    <t>PROTOPRE</t>
+  </si>
+  <si>
+    <t>activewindows</t>
+  </si>
+  <si>
+    <t>CSV/PDF出力設計（カード・リスト・グラフ）</t>
+  </si>
+  <si>
+    <t>Service Design</t>
+  </si>
+  <si>
+    <t>サービス設計</t>
+  </si>
+  <si>
+    <t>SVD/SVL</t>
   </si>
 </sst>
 </file>
@@ -876,7 +924,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,6 +946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1008,11 +1062,153 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1606,13 +1802,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J98" sqref="J98"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1625,24 +1821,24 @@
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="22.625" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="13" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="11"/>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1651,18 +1847,18 @@
       </c>
       <c r="G2" s="9"/>
       <c r="K2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="12">
-        <v>43697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="12">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>18</v>
@@ -1703,13 +1899,16 @@
         <v>17</v>
       </c>
       <c r="N4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1724,13 +1923,13 @@
         <v>01</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
@@ -1739,8 +1938,9 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A7" si="0">ROW()-4</f>
         <v>2</v>
@@ -1760,10 +1960,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I6" s="4">
         <v>12</v>
@@ -1772,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>19</v>
@@ -1783,8 +1983,9 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1804,10 +2005,10 @@
         <v>21</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
@@ -1816,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
@@ -1827,8 +2028,9 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <f>ROW()-4</f>
         <v>4</v>
@@ -1858,10 +2060,11 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A86" si="3">ROW()-4</f>
+        <f t="shared" ref="A9:A89" si="3">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -1891,7 +2094,7 @@
         <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
@@ -1902,8 +2105,9 @@
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1935,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>24</v>
@@ -1946,8 +2150,9 @@
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1979,19 +2184,22 @@
         <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="M11" s="19" t="str">
         <f t="shared" si="5"/>
         <v>SSE19_SPP_OV</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2011,7 +2219,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -2023,19 +2231,22 @@
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="M12" s="19" t="str">
         <f t="shared" si="5"/>
         <v>SSE19_SPP_MSP</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2067,19 +2278,22 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="M13" s="19" t="str">
         <f t="shared" si="5"/>
         <v>SSE19_SPP_MILESTONE</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2122,8 +2336,9 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2145,7 +2360,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -2157,19 +2372,22 @@
         <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="M15" s="19" t="str">
         <f t="shared" si="5"/>
         <v>SSE19_SPP_QCP</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -2191,7 +2409,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -2203,10 +2421,10 @@
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2214,8 +2432,9 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -2237,7 +2456,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -2249,10 +2468,10 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2260,8 +2479,9 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -2280,10 +2500,10 @@
         <v>02-07-04</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -2295,10 +2515,10 @@
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" ref="M18" si="8">IF(I18="↑","",IF(I18="-","",System_Code&amp;"_"&amp;H18&amp;IF(L18="-","","_"&amp;L18)))</f>
@@ -2306,8 +2526,9 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -2329,7 +2550,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -2341,19 +2562,22 @@
         <v>13</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="M19" s="20" t="str">
         <f t="shared" si="5"/>
         <v>SSE19_SPP_ENVP</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -2372,10 +2596,10 @@
         <v>02-07-06</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -2387,19 +2611,22 @@
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M20" s="1" t="str">
+        <v>202</v>
+      </c>
+      <c r="M20" s="19" t="str">
         <f t="shared" ref="M20" si="10">IF(I20="↑","",IF(I20="-","",System_Code&amp;"_"&amp;H20&amp;IF(L20="-","","_"&amp;L20)))</f>
         <v>SSE19_SPP_PROCuL</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -2418,10 +2645,10 @@
         <v>02-07-07</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -2433,7 +2660,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>30</v>
@@ -2444,8 +2671,9 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -2460,13 +2688,13 @@
         <v>03</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="6"/>
@@ -2475,8 +2703,9 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -2499,7 +2728,7 @@
         <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I23" s="4">
         <v>8</v>
@@ -2519,8 +2748,9 @@
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -2539,13 +2769,13 @@
         <v>03-01-01</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>51</v>
@@ -2554,7 +2784,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>23</v>
@@ -2565,8 +2795,9 @@
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -2591,7 +2822,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>51</v>
@@ -2600,19 +2831,20 @@
         <v>23</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" ref="M25:M49" si="12">IF(I25="↑","",IF(I25="-","",System_Code&amp;"_"&amp;H25&amp;IF(L25="-","","_"&amp;L25)))</f>
+        <f t="shared" ref="M25:M50" si="12">IF(I25="↑","",IF(I25="-","",System_Code&amp;"_"&amp;H25&amp;IF(L25="-","","_"&amp;L25)))</f>
         <v/>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -2627,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E113" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
+        <f t="shared" ref="E26:E116" si="13">TEXT(B26,"00")&amp;IF(C26="","","-"&amp;TEXT(C26,"00"))&amp;IF(D26="","","-"&amp;TEXT(D26,"00"))</f>
         <v>03-01-03</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2637,7 +2869,7 @@
         <v>53</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>51</v>
@@ -2646,7 +2878,7 @@
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>23</v>
@@ -2657,8 +2889,9 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2683,7 +2916,7 @@
         <v>55</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>51</v>
@@ -2692,7 +2925,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>23</v>
@@ -2703,8 +2936,9 @@
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2729,7 +2963,7 @@
         <v>63</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>51</v>
@@ -2738,7 +2972,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>23</v>
@@ -2749,8 +2983,9 @@
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2780,8 +3015,9 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2824,8 +3060,9 @@
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2859,10 +3096,10 @@
         <v>13</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="12"/>
@@ -2870,8 +3107,9 @@
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -2905,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>64</v>
@@ -2916,8 +3154,9 @@
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2960,8 +3199,9 @@
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -2980,10 +3220,10 @@
         <v>04-03-01</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>42</v>
@@ -2995,19 +3235,22 @@
         <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="M34" s="19" t="str">
         <f t="shared" ref="M34" si="16">IF(I34="↑","",IF(I34="-","",System_Code&amp;"_"&amp;H34&amp;IF(L34="-","","_"&amp;L34)))</f>
         <v>SSE19_RD_UXD</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3041,19 +3284,22 @@
         <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M35" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="M35" s="19" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_UXD</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -3087,19 +3333,22 @@
         <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M36" s="1" t="str">
+        <v>94</v>
+      </c>
+      <c r="M36" s="19" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_UXD</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -3140,8 +3389,9 @@
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -3163,7 +3413,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>42</v>
@@ -3175,10 +3425,10 @@
         <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3186,8 +3436,9 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -3209,7 +3460,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>42</v>
@@ -3221,10 +3472,10 @@
         <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3232,8 +3483,9 @@
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -3255,7 +3507,7 @@
         <v>76</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>42</v>
@@ -3267,10 +3519,10 @@
         <v>13</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3278,8 +3530,9 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3301,7 +3554,7 @@
         <v>77</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>42</v>
@@ -3313,10 +3566,10 @@
         <v>13</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="12"/>
@@ -3324,8 +3577,9 @@
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -3337,269 +3591,283 @@
         <v>4</v>
       </c>
       <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" ref="E42" si="17">TEXT(B42,"00")&amp;IF(C42="","","-"&amp;TEXT(C42,"00"))&amp;IF(D42="","","-"&amp;TEXT(D42,"00"))</f>
+        <v>04-04-05</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="20" t="str">
+        <f t="shared" ref="M42" si="18">IF(I42="↑","",IF(I42="-","",System_Code&amp;"_"&amp;H42&amp;IF(L42="-","","_"&amp;L42)))</f>
+        <v>SSE19_RD_USD</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
         <v>6</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E43" s="1" t="str">
         <f t="shared" si="13"/>
         <v>04-04-06</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G43" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="4">
-        <v>4</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M42" s="1" t="str">
+      <c r="I43" s="4">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="20" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_USD</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="N43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
         <v>7</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E44" s="1" t="str">
         <f t="shared" si="13"/>
         <v>04-04-07</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G44" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="4">
         <v>2</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M43" s="1" t="str">
+      <c r="J44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" s="20" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_USD_OP</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="N44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
         <v>5</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="str">
-        <f t="shared" ref="E44:E48" si="17">TEXT(B44,"00")&amp;IF(C44="","","-"&amp;TEXT(C44,"00"))&amp;IF(D44="","","-"&amp;TEXT(D44,"00"))</f>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="str">
+        <f t="shared" ref="E45:E49" si="19">TEXT(B45,"00")&amp;IF(C45="","","-"&amp;TEXT(C45,"00"))&amp;IF(D45="","","-"&amp;TEXT(D45,"00"))</f>
         <v>04-05</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="1" t="str">
+      <c r="M45" s="1" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
         <v>5</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>04-05-01</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="4">
-        <v>4</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M45" s="1" t="str">
+      <c r="M46" s="1" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_CD</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
-        <f t="shared" si="3"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>04-05-02</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>04-05-02</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="4">
-        <v>4</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M46" s="1" t="str">
+      <c r="M47" s="20" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_CRD</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>04-05-03</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M47" s="1" t="str">
-        <f t="shared" ref="M47:M48" si="18">IF(I47="↑","",IF(I47="-","",System_Code&amp;"_"&amp;H47&amp;IF(L47="-","","_"&amp;L47)))</f>
-        <v>SSE19_RD_DFD</v>
-      </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -3611,17 +3879,17 @@
         <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>04-05-04</v>
+        <f t="shared" si="19"/>
+        <v>04-05-03</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>42</v>
@@ -3633,19 +3901,20 @@
         <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>SSE19_RD_DFS</v>
+        <f t="shared" ref="M48:M49" si="20">IF(I48="↑","",IF(I48="-","",System_Code&amp;"_"&amp;H48&amp;IF(L48="-","","_"&amp;L48)))</f>
+        <v>SSE19_RD_DFD</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -3657,17 +3926,17 @@
         <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" ref="E49" si="19">TEXT(B49,"00")&amp;IF(C49="","","-"&amp;TEXT(C49,"00"))&amp;IF(D49="","","-"&amp;TEXT(D49,"00"))</f>
-        <v>04-05-05</v>
+        <f t="shared" si="19"/>
+        <v>04-05-04</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>42</v>
@@ -3679,50 +3948,71 @@
         <v>13</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M49" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>SSE19_RD_DFS</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" ref="E50" si="21">TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","","-"&amp;TEXT(D50,"00"))</f>
+        <v>04-05-05</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M50" s="20" t="str">
         <f t="shared" si="12"/>
         <v>SSE19_RD_DSM</v>
       </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B50" s="1">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="6" t="str">
-        <f>TEXT(B50,"00")&amp;IF(C50="","","-"&amp;TEXT(C50,"00"))&amp;IF(D50="","",TEXT(D50,"00"))</f>
-        <v>05</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3730,41 +4020,31 @@
       <c r="B51" s="1">
         <v>5</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1" t="str">
-        <f t="shared" ref="E51:E54" si="20">TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","","-"&amp;TEXT(D51,"00"))</f>
-        <v>05-01</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" s="1" t="str">
-        <f>IF(I51="↑","",IF(I51="-","",System_Code&amp;"_"&amp;H51&amp;IF(L51="-","","_"&amp;L51)))</f>
-        <v/>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E51" s="6" t="str">
+        <f>TEXT(B51,"00")&amp;IF(C51="","","-"&amp;TEXT(C51,"00"))&amp;IF(D51="","",TEXT(D51,"00"))</f>
+        <v>05</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3775,42 +4055,39 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>05-01-01</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>230</v>
-      </c>
+        <f t="shared" ref="E52:E55" si="22">TEXT(B52,"00")&amp;IF(C52="","","-"&amp;TEXT(C52,"00"))&amp;IF(D52="","","-"&amp;TEXT(D52,"00"))</f>
+        <v>05-01</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" s="4">
-        <v>12</v>
+        <v>277</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>IF(I52="↑","",IF(I52="-","",System_Code&amp;"_"&amp;H52&amp;IF(L52="-","","_"&amp;L52)))</f>
-        <v>SSE19_CD_PROTD_keystrokes</v>
+        <v/>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <f t="shared" si="3"/>
         <v>49</v>
@@ -3822,20 +4099,20 @@
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" ref="E53" si="21">TEXT(B53,"00")&amp;IF(C53="","","-"&amp;TEXT(C53,"00"))&amp;IF(D53="","","-"&amp;TEXT(D53,"00"))</f>
-        <v>05-01-02</v>
+        <f t="shared" si="22"/>
+        <v>05-01-01</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="I53" s="4">
         <v>12</v>
@@ -3844,19 +4121,19 @@
         <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f>IF(I53="↑","",IF(I53="-","",System_Code&amp;"_"&amp;H53&amp;IF(L53="-","","_"&amp;L53)))</f>
-        <v>SSE19_CD_PROTD_activewindow</v>
+        <v>118</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -3868,20 +4145,20 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>05-01-03</v>
+        <f t="shared" ref="E54" si="23">TEXT(B54,"00")&amp;IF(C54="","","-"&amp;TEXT(C54,"00"))&amp;IF(D54="","","-"&amp;TEXT(D54,"00"))</f>
+        <v>05-01-02</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="I54" s="4">
         <v>12</v>
@@ -3890,50 +4167,65 @@
         <v>13</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M54" s="1" t="str">
-        <f>IF(I54="↑","",IF(I54="-","",System_Code&amp;"_"&amp;H54&amp;IF(L54="-","","_"&amp;L54)))</f>
-        <v>SSE19_CD_PROTD_pcactiveinfo</v>
+        <v>118</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="6" t="str">
-        <f>TEXT(B55,"00")&amp;IF(C55="","","-"&amp;TEXT(C55,"00"))&amp;IF(D55="","",TEXT(D55,"00"))</f>
-        <v>06</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>05-01-03</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" s="4">
+        <v>12</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -3941,43 +4233,31 @@
       <c r="B56" s="1">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1" t="str">
-        <f t="shared" ref="E56:E65" si="22">TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","","-"&amp;TEXT(D56,"00"))</f>
-        <v>06-01</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="1" t="str">
-        <f t="shared" ref="M56:M65" si="23">IF(I56="↑","",IF(I56="-","",System_Code&amp;"_"&amp;H56&amp;IF(L56="-","","_"&amp;L56)))</f>
-        <v/>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E56" s="6" t="str">
+        <f>TEXT(B56,"00")&amp;IF(C56="","","-"&amp;TEXT(C56,"00"))&amp;IF(D56="","",TEXT(D56,"00"))</f>
+        <v>06</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -3988,42 +4268,41 @@
       <c r="C57" s="1">
         <v>1</v>
       </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-01-01</v>
+        <f t="shared" ref="E57:E66" si="24">TEXT(B57,"00")&amp;IF(C57="","","-"&amp;TEXT(C57,"00"))&amp;IF(D57="","","-"&amp;TEXT(D57,"00"))</f>
+        <v>06-01</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>264</v>
+        <v>251</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I57" s="4">
-        <v>12</v>
+        <v>151</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M57" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>SSE19_CD_PROP</v>
+        <f t="shared" ref="M57:M66" si="25">IF(I57="↑","",IF(I57="-","",System_Code&amp;"_"&amp;H57&amp;IF(L57="-","","_"&amp;L57)))</f>
+        <v/>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -4032,42 +4311,45 @@
         <v>6</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" ref="E58:E60" si="24">TEXT(B58,"00")&amp;IF(C58="","","-"&amp;TEXT(C58,"00"))&amp;IF(D58="","","-"&amp;TEXT(D58,"00"))</f>
-        <v>06-02</v>
+        <f t="shared" si="24"/>
+        <v>06-01-01</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>167</v>
+        <v>252</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="I58" s="4">
+        <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M58" s="1" t="str">
-        <f t="shared" ref="M58:M60" si="25">IF(I58="↑","",IF(I58="-","",System_Code&amp;"_"&amp;H58&amp;IF(L58="-","","_"&amp;L58)))</f>
-        <v/>
+        <f t="shared" si="25"/>
+        <v>SSE19_CD_PROP</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -4078,42 +4360,41 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>06-02-01</v>
+        <f t="shared" ref="E59:E61" si="26">TEXT(B59,"00")&amp;IF(C59="","","-"&amp;TEXT(C59,"00"))&amp;IF(D59="","","-"&amp;TEXT(D59,"00"))</f>
+        <v>06-02</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>266</v>
+        <v>160</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="4">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="M59" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>SSE19_CD_PROTO</v>
+        <f t="shared" ref="M59:M61" si="27">IF(I59="↑","",IF(I59="-","",System_Code&amp;"_"&amp;H59&amp;IF(L59="-","","_"&amp;L59)))</f>
+        <v/>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -4125,41 +4406,42 @@
         <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>06-02-02</v>
+        <f t="shared" si="26"/>
+        <v>06-02-01</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I60" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M60" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -4168,42 +4450,45 @@
         <v>6</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-03</v>
+        <f t="shared" si="26"/>
+        <v>06-02-02</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>241</v>
+        <v>88</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="M61" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="27"/>
+        <v>SSE19_CD_PROTO</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -4214,44 +4499,41 @@
       <c r="C62" s="1">
         <v>3</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1" t="str">
-        <f t="shared" ref="E62:E63" si="26">TEXT(B62,"00")&amp;IF(C62="","","-"&amp;TEXT(C62,"00"))&amp;IF(D62="","","-"&amp;TEXT(D62,"00"))</f>
-        <v>06-03-01</v>
+        <f t="shared" si="24"/>
+        <v>06-03</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>174</v>
+        <v>232</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0.5</v>
+        <v>151</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="M62" s="1" t="str">
-        <f t="shared" ref="M62:M63" si="27">IF(I62="↑","",IF(I62="-","",System_Code&amp;"_"&amp;H62&amp;IF(L62="-","","_"&amp;L62)))</f>
-        <v>SSE19_CD_minutes</v>
-      </c>
-      <c r="N62" s="18">
-        <v>43721</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -4263,20 +4545,20 @@
         <v>3</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>06-03-02</v>
+        <f t="shared" ref="E63:E64" si="28">TEXT(B63,"00")&amp;IF(C63="","","-"&amp;TEXT(C63,"00"))&amp;IF(D63="","","-"&amp;TEXT(D63,"00"))</f>
+        <v>06-03-01</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I63" s="4">
         <v>0.5</v>
@@ -4285,23 +4567,22 @@
         <v>13</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="M63" s="1" t="str">
-        <f t="shared" si="27"/>
-        <v>SSE19_CD</v>
-      </c>
-      <c r="N63" s="18">
-        <v>43717</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" ref="M63:M64" si="29">IF(I63="↑","",IF(I63="-","",System_Code&amp;"_"&amp;H63&amp;IF(L63="-","","_"&amp;L63)))</f>
+        <v>SSE19_CD_minutes</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="18">
+        <v>43721</v>
+      </c>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -4313,20 +4594,20 @@
         <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-03-03</v>
+        <f t="shared" si="28"/>
+        <v>06-03-02</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I64" s="4">
         <v>0.5</v>
@@ -4335,21 +4616,24 @@
         <v>13</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="M64" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>SSE19_CD_minutes</v>
-      </c>
-      <c r="N64" s="18">
-        <v>43719</v>
-      </c>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v>SSE19_CD</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="18">
+        <v>43717</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -4361,39 +4645,44 @@
         <v>3</v>
       </c>
       <c r="D65" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>06-03-04</v>
+        <f t="shared" si="24"/>
+        <v>06-03-03</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.5</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="L65" s="1" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="M65" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="25"/>
+        <v>SSE19_CD_minutes</v>
       </c>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O65" s="18">
+        <v>43719</v>
+      </c>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -4405,43 +4694,40 @@
         <v>3</v>
       </c>
       <c r="D66" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" ref="E66:E67" si="28">TEXT(B66,"00")&amp;IF(C66="","","-"&amp;TEXT(C66,"00"))&amp;IF(D66="","","-"&amp;TEXT(D66,"00"))</f>
-        <v>06-03-05</v>
+        <f t="shared" si="24"/>
+        <v>06-03-04</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0.5</v>
+        <v>151</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="M66" s="1" t="str">
-        <f t="shared" ref="M66:M67" si="29">IF(I66="↑","",IF(I66="-","",System_Code&amp;"_"&amp;H66&amp;IF(L66="-","","_"&amp;L66)))</f>
-        <v>SSE19_CD_minutes</v>
-      </c>
-      <c r="N66" s="18">
-        <v>43714</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -4453,70 +4739,89 @@
         <v>3</v>
       </c>
       <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f t="shared" ref="E67:E68" si="30">TEXT(B67,"00")&amp;IF(C67="","","-"&amp;TEXT(C67,"00"))&amp;IF(D67="","","-"&amp;TEXT(D67,"00"))</f>
+        <v>06-03-05</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f t="shared" ref="M67:M68" si="31">IF(I67="↑","",IF(I67="-","",System_Code&amp;"_"&amp;H67&amp;IF(L67="-","","_"&amp;L67)))</f>
+        <v>SSE19_CD_minutes</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="18">
+        <v>43714</v>
+      </c>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="1">
         <v>6</v>
       </c>
-      <c r="E67" s="1" t="str">
-        <f t="shared" si="28"/>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f t="shared" si="30"/>
         <v>06-03-06</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G67" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="H68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1" t="s">
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M67" s="1" t="str">
-        <f t="shared" si="29"/>
+      <c r="M68" s="1" t="str">
+        <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B68" s="1">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="6" t="str">
-        <f>TEXT(B68,"00")&amp;IF(C68="","","-"&amp;TEXT(C68,"00"))&amp;IF(D68="","",TEXT(D68,"00"))</f>
-        <v>07</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -4524,89 +4829,76 @@
       <c r="B69" s="1">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="6" t="str">
+        <f>TEXT(B69,"00")&amp;IF(C69="","","-"&amp;TEXT(C69,"00"))&amp;IF(D69="","",TEXT(D69,"00"))</f>
+        <v>07</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
         <v>1</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1" t="str">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="G70" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M69" s="1" t="str">
-        <f t="shared" ref="M69:M77" si="30">IF(I69="↑","",IF(I69="-","",System_Code&amp;"_"&amp;H69&amp;IF(L69="-","","_"&amp;L69)))</f>
+      <c r="M70" s="1" t="str">
+        <f t="shared" ref="M70:M80" si="32">IF(I70="↑","",IF(I70="-","",System_Code&amp;"_"&amp;H70&amp;IF(L70="-","","_"&amp;L70)))</f>
         <v/>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B70" s="1">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>07-01-01</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="4">
-        <v>6</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M70" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_SDD_01_Dashboard</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -4618,85 +4910,91 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f t="shared" ref="E71" si="33">TEXT(B71,"00")&amp;IF(C71="","","-"&amp;TEXT(C71,"00"))&amp;IF(D71="","","-"&amp;TEXT(D71,"00"))</f>
+        <v>07-01-01</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="4">
+        <v>6</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M71" s="1" t="str">
+        <f t="shared" ref="M71" si="34">IF(I71="↑","",IF(I71="-","",System_Code&amp;"_"&amp;H71&amp;IF(L71="-","","_"&amp;L71)))</f>
+        <v>SSE19_BD_SDL</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="1">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
         <v>2</v>
       </c>
-      <c r="E71" s="1" t="str">
+      <c r="E72" s="1" t="str">
         <f t="shared" si="13"/>
         <v>07-01-02</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I71" s="4">
-        <v>2</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M71" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_SDD_00_Menu</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="B72" s="1">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>07-02</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I72" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M72" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_STD</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="M72" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_SDD_01_Dashboard</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -4705,42 +5003,47 @@
         <v>7</v>
       </c>
       <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
         <v>3</v>
       </c>
-      <c r="D73" s="1"/>
       <c r="E73" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-03</v>
+        <v>07-01-03</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M73" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_RDD</v>
-      </c>
-      <c r="N73" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="M73" s="19" t="str">
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_SDD_00_Menu</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -4749,21 +5052,21 @@
         <v>7</v>
       </c>
       <c r="C74" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-04</v>
+        <v>07-02</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I74" s="4">
         <v>8</v>
@@ -4771,18 +5074,23 @@
       <c r="J74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="L74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M74" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_IFD</v>
-      </c>
-      <c r="N74" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="M74" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_STD</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -4791,40 +5099,43 @@
         <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-05</v>
+        <v>07-03</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I75" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M75" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_API</v>
-      </c>
-      <c r="N75" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="M75" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_RDD/RDL</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -4833,21 +5144,21 @@
         <v>7</v>
       </c>
       <c r="C76" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-06</v>
+        <v>07-04</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I76" s="4">
         <v>8</v>
@@ -4855,18 +5166,21 @@
       <c r="J76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="L76" s="1" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="M76" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_BJD</v>
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_IFD/IFL</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -4875,96 +5189,111 @@
         <v>7</v>
       </c>
       <c r="C77" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>07-07</v>
+        <v>07-05</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I77" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M77" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>SSE19_BD_FL</v>
-      </c>
-      <c r="N77" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="M77" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_API/APIL</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B78" s="1">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="str">
+        <f t="shared" ref="E78" si="35">TEXT(B78,"00")&amp;IF(C78="","","-"&amp;TEXT(C78,"00"))&amp;IF(D78="","","-"&amp;TEXT(D78,"00"))</f>
+        <v>07-06</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="4">
         <v>8</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="6" t="str">
-        <f>TEXT(B78,"00")&amp;IF(C78="","","-"&amp;TEXT(C78,"00"))&amp;IF(D78="","",TEXT(D78,"00"))</f>
-        <v>08</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M78" s="20" t="str">
+        <f t="shared" ref="M78" si="36">IF(I78="↑","",IF(I78="-","",System_Code&amp;"_"&amp;H78&amp;IF(L78="-","","_"&amp;L78)))</f>
+        <v>SSE19_BD_BJD/BJL</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-01</v>
+        <v>07-07</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I79" s="4">
         <v>8</v>
@@ -4972,64 +5301,66 @@
       <c r="J79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="M79" s="1" t="str">
-        <f>IF(I79="↑","",IF(I79="-","",System_Code&amp;"_"&amp;H79&amp;IF(L79="-","","_"&amp;L79)))</f>
-        <v>SSE19_SD_ARCS</v>
-      </c>
-      <c r="N79" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="M79" s="20" t="str">
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_SVD/SVL</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B80" s="1">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
         <v>8</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-02</v>
+        <v>07-08</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I80" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="M80" s="1" t="str">
-        <f>IF(I80="↑","",IF(I80="-","",System_Code&amp;"_"&amp;H80&amp;IF(L80="-","","_"&amp;L80)))</f>
-        <v>SSE19_SD_ARCA</v>
+        <f t="shared" si="32"/>
+        <v>SSE19_BD_FL</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -5037,43 +5368,31 @@
       <c r="B81" s="1">
         <v>8</v>
       </c>
-      <c r="C81" s="1">
-        <v>3</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1" t="str">
-        <f t="shared" ref="E81" si="31">TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","","-"&amp;TEXT(D81,"00"))</f>
-        <v>08-03</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I81" s="4">
-        <v>4</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M81" s="1" t="str">
-        <f>IF(I81="↑","",IF(I81="-","",System_Code&amp;"_"&amp;H81&amp;IF(L81="-","","_"&amp;L81)))</f>
-        <v>SSE19_SD_ERD</v>
-      </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E81" s="6" t="str">
+        <f>TEXT(B81,"00")&amp;IF(C81="","","-"&amp;TEXT(C81,"00"))&amp;IF(D81="","",TEXT(D81,"00"))</f>
+        <v>08</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -5082,96 +5401,115 @@
         <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>08-04</v>
+        <v>08-01</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I82" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="M82" s="1" t="str">
         <f>IF(I82="↑","",IF(I82="-","",System_Code&amp;"_"&amp;H82&amp;IF(L82="-","","_"&amp;L82)))</f>
-        <v>SSE19_SD_TBLD</v>
-      </c>
-      <c r="N82" s="1"/>
+        <v>SSE19_SD_ARCS</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B83" s="1">
-        <v>9</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="6" t="str">
-        <f>TEXT(B83,"00")&amp;IF(C83="","","-"&amp;TEXT(C83,"00"))&amp;IF(D83="","",TEXT(D83,"00"))</f>
-        <v>09</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>08-02</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I83" s="4">
+        <v>8</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M83" s="20" t="str">
+        <f>IF(I83="↑","",IF(I83="-","",System_Code&amp;"_"&amp;H83&amp;IF(L83="-","","_"&amp;L83)))</f>
+        <v>SSE19_SD_ARCA</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B84" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="str">
-        <f t="shared" ref="E84" si="32">TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","","-"&amp;TEXT(D84,"00"))</f>
-        <v>09-01</v>
+        <f t="shared" ref="E84" si="37">TEXT(B84,"00")&amp;IF(C84="","","-"&amp;TEXT(C84,"00"))&amp;IF(D84="","","-"&amp;TEXT(D84,"00"))</f>
+        <v>08-03</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="I84" s="4">
         <v>4</v>
@@ -5179,41 +5517,46 @@
       <c r="J84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="L84" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M84" s="1" t="str">
+        <v>208</v>
+      </c>
+      <c r="M84" s="20" t="str">
         <f>IF(I84="↑","",IF(I84="-","",System_Code&amp;"_"&amp;H84&amp;IF(L84="-","","_"&amp;L84)))</f>
-        <v>SSE19_Iter-pre_MVP</v>
-      </c>
-      <c r="N84" s="1"/>
+        <v>SSE19_SD_ERD</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <f t="shared" ref="A85:A113" si="33">ROW()-4</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B85" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="str">
-        <f t="shared" ref="E85" si="34">TEXT(B85,"00")&amp;IF(C85="","","-"&amp;TEXT(C85,"00"))&amp;IF(D85="","","-"&amp;TEXT(D85,"00"))</f>
-        <v>09-02</v>
+        <f t="shared" si="13"/>
+        <v>08-04</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="I85" s="4">
         <v>4</v>
@@ -5221,39 +5564,44 @@
       <c r="J85" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K85" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="L85" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M85" s="1" t="str">
+        <v>155</v>
+      </c>
+      <c r="M85" s="20" t="str">
         <f>IF(I85="↑","",IF(I85="-","",System_Code&amp;"_"&amp;H85&amp;IF(L85="-","","_"&amp;L85)))</f>
-        <v>SSE19_Iter-pre_PBL</v>
-      </c>
-      <c r="N85" s="1"/>
+        <v>SSE19_SD_TBLD</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B86" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="6" t="str">
         <f>TEXT(B86,"00")&amp;IF(C86="","","-"&amp;TEXT(C86,"00"))&amp;IF(D86="","",TEXT(D86,"00"))</f>
-        <v>10</v>
+        <v>09</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="6"/>
@@ -5262,201 +5610,217 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B87" s="1">
-        <v>10</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="str">
+        <f t="shared" ref="E87" si="38">TEXT(B87,"00")&amp;IF(C87="","","-"&amp;TEXT(C87,"00"))&amp;IF(D87="","","-"&amp;TEXT(D87,"00"))</f>
+        <v>09-01</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I87" s="4">
+        <v>4</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M87" s="19" t="str">
+        <f>IF(I87="↑","",IF(I87="-","",System_Code&amp;"_"&amp;H87&amp;IF(L87="-","","_"&amp;L87)))</f>
+        <v>SSE19_Iter-pre_MVP</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <f t="shared" ref="A88:A116" si="39">ROW()-4</f>
+        <v>84</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="str">
+        <f t="shared" ref="E88" si="40">TEXT(B88,"00")&amp;IF(C88="","","-"&amp;TEXT(C88,"00"))&amp;IF(D88="","","-"&amp;TEXT(D88,"00"))</f>
+        <v>09-02</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I88" s="4">
+        <v>4</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M88" s="19" t="str">
+        <f>IF(I88="↑","",IF(I88="-","",System_Code&amp;"_"&amp;H88&amp;IF(L88="-","","_"&amp;L88)))</f>
+        <v>SSE19_Iter-pre_PBL</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="1">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="6" t="str">
+        <f>TEXT(B89,"00")&amp;IF(C89="","","-"&amp;TEXT(C89,"00"))&amp;IF(D89="","",TEXT(D89,"00"))</f>
+        <v>10</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <f t="shared" si="39"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="1">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="str">
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I87" s="4" t="s">
+      <c r="F90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1" t="str">
-        <f>IF(I87="↑","",IF(I87="-","",System_Code&amp;"_"&amp;H87&amp;IF(L87="-","","_"&amp;L87)))</f>
-        <v/>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
-        <f t="shared" si="33"/>
-        <v>84</v>
-      </c>
-      <c r="B88" s="1">
-        <v>10</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1" t="str">
-        <f>TEXT(B88,"00")&amp;IF(C88="","","-"&amp;TEXT(C88,"00"))&amp;IF(D88="","","-"&amp;TEXT(D88,"00"))</f>
-        <v>10-00</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I88" s="4">
-        <v>2</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="M88" s="1" t="str">
-        <f>IF(I88="↑","",IF(I88="-","",System_Code&amp;"_"&amp;H88&amp;IF(L88="-","","_"&amp;L88)))</f>
-        <v>SSE19_Iter1_SBL</v>
-      </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
-        <f t="shared" si="33"/>
-        <v>85</v>
-      </c>
-      <c r="B89" s="1">
-        <v>10</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="str">
-        <f t="shared" ref="E89" si="35">TEXT(B89,"00")&amp;IF(C89="","","-"&amp;TEXT(C89,"00"))&amp;IF(D89="","","-"&amp;TEXT(D89,"00"))</f>
-        <v>10-01-01</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I89" s="4">
-        <v>4</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
-        <f t="shared" si="33"/>
-        <v>86</v>
-      </c>
-      <c r="B90" s="1">
-        <v>10</v>
-      </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
-        <v>2</v>
-      </c>
-      <c r="E90" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-02</v>
-      </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I90" s="4">
-        <v>4</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
+      <c r="M90" s="1" t="str">
+        <f>IF(I90="↑","",IF(I90="-","",System_Code&amp;"_"&amp;H90&amp;IF(L90="-","","_"&amp;L90)))</f>
+        <v/>
+      </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>87</v>
       </c>
       <c r="B91" s="1">
         <v>10</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-03</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="16" t="s">
-        <v>135</v>
+        <f>TEXT(B91,"00")&amp;IF(C91="","","-"&amp;TEXT(C91,"00"))&amp;IF(D91="","","-"&amp;TEXT(D91,"00"))</f>
+        <v>10-00</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I91" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M91" s="20" t="str">
+        <f>IF(I91="↑","",IF(I91="-","",System_Code&amp;"_"&amp;H91&amp;IF(L91="-","","_"&amp;L91)))</f>
+        <v>SSE19_Iter1_SBL</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>88</v>
       </c>
       <c r="B92" s="1">
@@ -5466,18 +5830,18 @@
         <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-01-04</v>
+        <f t="shared" ref="E92" si="41">TEXT(B92,"00")&amp;IF(C92="","","-"&amp;TEXT(C92,"00"))&amp;IF(D92="","","-"&amp;TEXT(D92,"00"))</f>
+        <v>10-01-01</v>
       </c>
       <c r="F92" s="1"/>
-      <c r="G92" s="16" t="s">
-        <v>136</v>
+      <c r="G92" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I92" s="4">
         <v>4</v>
@@ -5488,12 +5852,15 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="N92" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>89</v>
       </c>
       <c r="B93" s="1">
@@ -5503,18 +5870,18 @@
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-01-05</v>
+        <v>10-01-02</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I93" s="4">
         <v>4</v>
@@ -5525,33 +5892,36 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>90</v>
       </c>
       <c r="B94" s="1">
         <v>10</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-01</v>
+        <v>10-01-03</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I94" s="4">
         <v>4</v>
@@ -5562,33 +5932,36 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="N94" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>91</v>
       </c>
       <c r="B95" s="1">
         <v>10</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-02</v>
+        <v>10-01-04</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I95" s="4">
         <v>4</v>
@@ -5599,33 +5972,36 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="N95" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>92</v>
       </c>
       <c r="B96" s="1">
         <v>10</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-03</v>
+        <v>10-01-05</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I96" s="4">
         <v>4</v>
@@ -5636,12 +6012,15 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="B97" s="1">
@@ -5651,18 +6030,18 @@
         <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-02-04</v>
+        <v>10-02-01</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I97" s="4">
         <v>4</v>
@@ -5673,33 +6052,36 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>94</v>
       </c>
       <c r="B98" s="1">
         <v>10</v>
       </c>
       <c r="C98" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-01</v>
+        <v>10-02-02</v>
       </c>
       <c r="F98" s="1"/>
-      <c r="G98" s="13" t="s">
-        <v>142</v>
+      <c r="G98" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I98" s="4">
         <v>4</v>
@@ -5710,33 +6092,36 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="B99" s="1">
         <v>10</v>
       </c>
       <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
         <v>3</v>
-      </c>
-      <c r="D99" s="1">
-        <v>2</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-02</v>
+        <v>10-02-03</v>
       </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="13" t="s">
-        <v>143</v>
+      <c r="G99" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I99" s="4">
         <v>4</v>
@@ -5747,33 +6132,36 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="B100" s="1">
         <v>10</v>
       </c>
       <c r="C100" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-03</v>
+        <v>10-02-04</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I100" s="4">
         <v>4</v>
@@ -5784,12 +6172,15 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>97</v>
       </c>
       <c r="B101" s="1">
@@ -5799,18 +6190,18 @@
         <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-04</v>
+        <v>10-03-01</v>
       </c>
       <c r="F101" s="1"/>
-      <c r="G101" s="16" t="s">
-        <v>145</v>
+      <c r="G101" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I101" s="4">
         <v>4</v>
@@ -5821,12 +6212,15 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="N101" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>98</v>
       </c>
       <c r="B102" s="1">
@@ -5836,18 +6230,18 @@
         <v>3</v>
       </c>
       <c r="D102" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-03-05</v>
+        <v>10-03-02</v>
       </c>
       <c r="F102" s="1"/>
-      <c r="G102" s="16" t="s">
-        <v>146</v>
+      <c r="G102" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I102" s="4">
         <v>4</v>
@@ -5858,33 +6252,36 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="N102" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>99</v>
       </c>
       <c r="B103" s="1">
         <v>10</v>
       </c>
       <c r="C103" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>TEXT(B103,"00")&amp;IF(C103="","","-"&amp;TEXT(C103,"00"))&amp;IF(D103="","","-"&amp;TEXT(D103,"00"))</f>
-        <v>10-04-01</v>
+        <f t="shared" si="13"/>
+        <v>10-03-03</v>
       </c>
       <c r="F103" s="1"/>
-      <c r="G103" s="17" t="s">
-        <v>182</v>
+      <c r="G103" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I103" s="4">
         <v>4</v>
@@ -5895,33 +6292,36 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="N103" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="B104" s="1">
         <v>10</v>
       </c>
       <c r="C104" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>TEXT(B104,"00")&amp;IF(C104="","","-"&amp;TEXT(C104,"00"))&amp;IF(D104="","","-"&amp;TEXT(D104,"00"))</f>
-        <v>10-04-02</v>
+        <f t="shared" si="13"/>
+        <v>10-03-04</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="16" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I104" s="4">
         <v>4</v>
@@ -5932,33 +6332,36 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="N104" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>101</v>
       </c>
       <c r="B105" s="1">
         <v>10</v>
       </c>
       <c r="C105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>TEXT(B105,"00")&amp;IF(C105="","","-"&amp;TEXT(C105,"00"))&amp;IF(D105="","","-"&amp;TEXT(D105,"00"))</f>
-        <v>10-04-03</v>
+        <f t="shared" si="13"/>
+        <v>10-03-05</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="16" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I105" s="4">
         <v>4</v>
@@ -5969,12 +6372,15 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
+      <c r="N105" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>102</v>
       </c>
       <c r="B106" s="1">
@@ -5984,18 +6390,18 @@
         <v>4</v>
       </c>
       <c r="D106" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="str">
         <f>TEXT(B106,"00")&amp;IF(C106="","","-"&amp;TEXT(C106,"00"))&amp;IF(D106="","","-"&amp;TEXT(D106,"00"))</f>
-        <v>10-04-04</v>
+        <v>10-04-01</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="16" t="s">
-        <v>185</v>
+      <c r="G106" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I106" s="4">
         <v>4</v>
@@ -6006,33 +6412,36 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
+      <c r="N106" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>103</v>
       </c>
       <c r="B107" s="1">
         <v>10</v>
       </c>
       <c r="C107" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-01</v>
+        <f>TEXT(B107,"00")&amp;IF(C107="","","-"&amp;TEXT(C107,"00"))&amp;IF(D107="","","-"&amp;TEXT(D107,"00"))</f>
+        <v>10-04-02</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="G107" s="13" t="s">
-        <v>186</v>
+      <c r="G107" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I107" s="4">
         <v>4</v>
@@ -6043,33 +6452,36 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>104</v>
       </c>
       <c r="B108" s="1">
         <v>10</v>
       </c>
       <c r="C108" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-02</v>
+        <f>TEXT(B108,"00")&amp;IF(C108="","","-"&amp;TEXT(C108,"00"))&amp;IF(D108="","","-"&amp;TEXT(D108,"00"))</f>
+        <v>10-04-03</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I108" s="4">
         <v>4</v>
@@ -6080,33 +6492,36 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>105</v>
       </c>
       <c r="B109" s="1">
         <v>10</v>
       </c>
       <c r="C109" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>10-05-03</v>
+        <f>TEXT(B109,"00")&amp;IF(C109="","","-"&amp;TEXT(C109,"00"))&amp;IF(D109="","","-"&amp;TEXT(D109,"00"))</f>
+        <v>10-04-04</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I109" s="4">
         <v>4</v>
@@ -6117,12 +6532,15 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>106</v>
       </c>
       <c r="B110" s="1">
@@ -6132,18 +6550,18 @@
         <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-04</v>
+        <v>10-05-01</v>
       </c>
       <c r="F110" s="1"/>
-      <c r="G110" s="16" t="s">
-        <v>189</v>
+      <c r="G110" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I110" s="4">
         <v>4</v>
@@ -6154,12 +6572,15 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>107</v>
       </c>
       <c r="B111" s="1">
@@ -6169,18 +6590,18 @@
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-05-05</v>
+        <v>10-05-02</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I111" s="4">
         <v>4</v>
@@ -6191,33 +6612,36 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
+      <c r="N111" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>108</v>
       </c>
       <c r="B112" s="1">
         <v>10</v>
       </c>
       <c r="C112" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-06-01</v>
+        <v>10-05-03</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="16" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I112" s="4">
         <v>4</v>
@@ -6228,33 +6652,36 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
+      <c r="N112" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>109</v>
       </c>
       <c r="B113" s="1">
         <v>10</v>
       </c>
       <c r="C113" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-07-01</v>
+        <v>10-05-04</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="16" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I113" s="4">
         <v>4</v>
@@ -6265,86 +6692,290 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <f t="shared" si="39"/>
+        <v>110</v>
+      </c>
+      <c r="B114" s="1">
+        <v>10</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-05-05</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I114" s="4">
+        <v>4</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+    </row>
+    <row r="115" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <f t="shared" si="39"/>
+        <v>111</v>
+      </c>
+      <c r="B115" s="1">
+        <v>10</v>
+      </c>
+      <c r="C115" s="1">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-06-01</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I115" s="4">
+        <v>4</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <f t="shared" si="39"/>
+        <v>112</v>
+      </c>
+      <c r="B116" s="1">
+        <v>10</v>
+      </c>
+      <c r="C116" s="1">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>10-07-01</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I116" s="4">
+        <v>4</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
+  <autoFilter ref="A4:P4" xr:uid="{93992286-983A-43C0-B01F-316812382256}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K46:K47 K86:K114 K49 K55:K56 K63 K37:K43 K65 K67:K84">
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
+  <conditionalFormatting sqref="K6:K13 K29:K32 K15 K19:K22 K47 K89:K117 K50 K56:K57 K64 K37 K66 K68:K70 K43:K44 K74 K77 K81 K83:K87 K79">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="67" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="68" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="33" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="65" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="59" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="60" operator="equal">
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K85">
+  <conditionalFormatting sqref="K88">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:K55">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K60">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"◆◆"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"◆済"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6352,7 +6983,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K36">
+  <conditionalFormatting sqref="K63">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6360,7 +6991,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="K65">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6368,7 +6999,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="K38:K41">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6376,7 +7007,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K54">
+  <conditionalFormatting sqref="K42">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6384,7 +7015,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
+  <conditionalFormatting sqref="K48">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6392,7 +7023,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
+  <conditionalFormatting sqref="K72:K73">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6400,7 +7031,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
+  <conditionalFormatting sqref="K75">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6408,7 +7039,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
+  <conditionalFormatting sqref="K76">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6416,7 +7047,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
+  <conditionalFormatting sqref="K80">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6424,7 +7055,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
+  <conditionalFormatting sqref="K82">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6432,7 +7063,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
+  <conditionalFormatting sqref="K71">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6440,7 +7071,7 @@
       <formula>"◆済"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
+  <conditionalFormatting sqref="K78">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"◆◆"</formula>
     </cfRule>
@@ -6449,7 +7080,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;F</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
